--- a/data/proteome-tree/fungal-order-representatives.xlsx
+++ b/data/proteome-tree/fungal-order-representatives.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C555319-14CF-0C40-B15A-27AD1CEEDDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7AAE0-3085-074C-AF51-679ABC78AFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="474">
   <si>
     <t>UP000799437</t>
   </si>
@@ -122,9 +122,6 @@
     <t>capnodiales_odb10</t>
   </si>
   <si>
-    <t>UP000192386</t>
-  </si>
-  <si>
     <t>Cladosporiales</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Rachicladosporium</t>
   </si>
   <si>
-    <t>Rachicladosporium sp. CCFEE 5018</t>
-  </si>
-  <si>
     <t>UP000030706</t>
   </si>
   <si>
@@ -1382,81 +1376,6 @@
     <t>Thamnocephalis sphaerospora</t>
   </si>
   <si>
-    <t>UP000006643</t>
-  </si>
-  <si>
-    <t>Oomycota</t>
-  </si>
-  <si>
-    <t>Peronosporales</t>
-  </si>
-  <si>
-    <t>Peronosporaceae</t>
-  </si>
-  <si>
-    <t>Phytophthora</t>
-  </si>
-  <si>
-    <t>Phytophthora infestans</t>
-  </si>
-  <si>
-    <t>Phytophthora infestans (strain T30-4) (Potato late blight agent)</t>
-  </si>
-  <si>
-    <t>stramenopiles_odb10</t>
-  </si>
-  <si>
-    <t>UP000794436</t>
-  </si>
-  <si>
-    <t>Pythiales</t>
-  </si>
-  <si>
-    <t>Pythiaceae</t>
-  </si>
-  <si>
-    <t>Pythium</t>
-  </si>
-  <si>
-    <t>Pythium oligandrum</t>
-  </si>
-  <si>
-    <t>Pythium oligandrum (Mycoparasitic fungus)</t>
-  </si>
-  <si>
-    <t>UP000053237</t>
-  </si>
-  <si>
-    <t>Albuginales</t>
-  </si>
-  <si>
-    <t>Albuginaceae</t>
-  </si>
-  <si>
-    <t>Albugo</t>
-  </si>
-  <si>
-    <t>Albugo candida</t>
-  </si>
-  <si>
-    <t>UP000030745</t>
-  </si>
-  <si>
-    <t>Saprolegniales</t>
-  </si>
-  <si>
-    <t>Saprolegniaceae</t>
-  </si>
-  <si>
-    <t>Saprolegnia</t>
-  </si>
-  <si>
-    <t>Saprolegnia parasitica</t>
-  </si>
-  <si>
-    <t>Saprolegnia parasitica (strain CBS 223.65)</t>
-  </si>
-  <si>
     <t>representative</t>
   </si>
   <si>
@@ -1533,6 +1452,12 @@
   </si>
   <si>
     <t>order_representative</t>
+  </si>
+  <si>
+    <t>UP000192596</t>
+  </si>
+  <si>
+    <t>Rachicladosporium antarcticum</t>
   </si>
 </sst>
 </file>
@@ -1911,97 +1836,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D0C7-4F40-C446-9F60-7FFBC88C7139}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="F1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="G1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="I1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="K1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="L1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="M1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="N1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="O1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="P1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="Q1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="R1" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="S1" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="T1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="U1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="V1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="W1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="X1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="Y1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2078,7 +2004,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2155,7 +2081,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2232,7 +2158,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2309,10 +2235,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2324,40 +2250,40 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>473</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>1974281</v>
+        <v>1507870</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>473</v>
       </c>
       <c r="M6">
-        <v>3554</v>
+        <v>3694</v>
       </c>
       <c r="N6">
-        <v>1132</v>
+        <v>287</v>
       </c>
       <c r="O6">
-        <v>2422</v>
+        <v>3407</v>
       </c>
       <c r="P6">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="R6">
         <v>3786</v>
@@ -2366,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="T6">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2386,10 +2312,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -2401,16 +2327,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -2419,7 +2345,7 @@
         <v>1043002</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7">
         <v>3747</v>
@@ -2458,15 +2384,15 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2478,16 +2404,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -2496,7 +2422,7 @@
         <v>1392243</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>3312</v>
@@ -2540,10 +2466,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2555,16 +2481,16 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -2573,7 +2499,7 @@
         <v>578093</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M9">
         <v>3387</v>
@@ -2617,10 +2543,10 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2632,16 +2558,16 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -2650,7 +2576,7 @@
         <v>703497</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10">
         <v>3304</v>
@@ -2694,10 +2620,10 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2709,16 +2635,16 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
       </c>
       <c r="J11">
         <v>15</v>
@@ -2727,7 +2653,7 @@
         <v>1276538</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M11">
         <v>3678</v>
@@ -2771,10 +2697,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -2786,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2804,7 +2730,7 @@
         <v>40998</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12">
         <v>3532</v>
@@ -2848,10 +2774,10 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2863,16 +2789,16 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -2881,7 +2807,7 @@
         <v>1314670</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M13">
         <v>3728</v>
@@ -2925,10 +2851,10 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2940,16 +2866,16 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>77</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -2958,7 +2884,7 @@
         <v>1346257</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M14">
         <v>3552</v>
@@ -3002,10 +2928,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -3017,16 +2943,16 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3035,7 +2961,7 @@
         <v>703511</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M15">
         <v>3347</v>
@@ -3079,10 +3005,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -3094,16 +3020,16 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>86</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
       </c>
       <c r="J16">
         <v>23</v>
@@ -3112,7 +3038,7 @@
         <v>5599</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M16">
         <v>6554</v>
@@ -3133,7 +3059,7 @@
         <v>6641</v>
       </c>
       <c r="S16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T16">
         <v>99</v>
@@ -3151,15 +3077,15 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -3171,16 +3097,16 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>93</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -3189,7 +3115,7 @@
         <v>1048519</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M17">
         <v>3568</v>
@@ -3233,10 +3159,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3248,16 +3174,16 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" t="s">
-        <v>100</v>
       </c>
       <c r="J18">
         <v>12</v>
@@ -3266,7 +3192,7 @@
         <v>5025</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M18">
         <v>3297</v>
@@ -3310,10 +3236,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -3322,19 +3248,19 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
         <v>103</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>105</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -3343,7 +3269,7 @@
         <v>858893</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19">
         <v>6097</v>
@@ -3364,7 +3290,7 @@
         <v>6265</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T19">
         <v>98</v>
@@ -3387,10 +3313,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -3399,19 +3325,19 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -3420,7 +3346,7 @@
         <v>5062</v>
       </c>
       <c r="L20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M20">
         <v>4004</v>
@@ -3441,7 +3367,7 @@
         <v>4191</v>
       </c>
       <c r="S20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T20">
         <v>96</v>
@@ -3459,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -3476,19 +3402,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>120</v>
-      </c>
-      <c r="H21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" t="s">
-        <v>122</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3497,7 +3423,7 @@
         <v>1215338</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M21">
         <v>4699</v>
@@ -3518,7 +3444,7 @@
         <v>4862</v>
       </c>
       <c r="S21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T21">
         <v>97</v>
@@ -3541,10 +3467,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -3553,19 +3479,19 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
         <v>126</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>127</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" t="s">
-        <v>129</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -3574,7 +3500,7 @@
         <v>158046</v>
       </c>
       <c r="L22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M22">
         <v>2694</v>
@@ -3595,7 +3521,7 @@
         <v>3546</v>
       </c>
       <c r="S22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T22">
         <v>82</v>
@@ -3618,10 +3544,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -3630,19 +3556,19 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
         <v>132</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>133</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s">
-        <v>135</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -3651,7 +3577,7 @@
         <v>364733</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M23">
         <v>3331</v>
@@ -3672,7 +3598,7 @@
         <v>3546</v>
       </c>
       <c r="S23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T23">
         <v>95</v>
@@ -3695,10 +3621,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -3707,19 +3633,19 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" t="s">
         <v>137</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>138</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" t="s">
-        <v>141</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3728,7 +3654,7 @@
         <v>1670608</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M24">
         <v>1517</v>
@@ -3749,7 +3675,7 @@
         <v>1706</v>
       </c>
       <c r="S24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T24">
         <v>91</v>
@@ -3772,10 +3698,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -3784,19 +3710,19 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
         <v>144</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>145</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>146</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" t="s">
-        <v>148</v>
       </c>
       <c r="J25">
         <v>13</v>
@@ -3805,7 +3731,7 @@
         <v>116794</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M25">
         <v>1615</v>
@@ -3826,7 +3752,7 @@
         <v>1706</v>
       </c>
       <c r="S25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T25">
         <v>96</v>
@@ -3849,10 +3775,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3861,19 +3787,19 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
         <v>150</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>151</v>
-      </c>
-      <c r="H26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" t="s">
-        <v>153</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3882,7 +3808,7 @@
         <v>172621</v>
       </c>
       <c r="L26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M26">
         <v>1598</v>
@@ -3903,7 +3829,7 @@
         <v>1706</v>
       </c>
       <c r="S26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T26">
         <v>95</v>
@@ -3926,10 +3852,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3938,19 +3864,19 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" t="s">
         <v>155</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>156</v>
-      </c>
-      <c r="H27" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" t="s">
-        <v>158</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -3959,7 +3885,7 @@
         <v>1940652</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M27">
         <v>1616</v>
@@ -3980,7 +3906,7 @@
         <v>1706</v>
       </c>
       <c r="S27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T27">
         <v>95</v>
@@ -4003,10 +3929,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -4015,19 +3941,19 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
         <v>160</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>161</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>162</v>
-      </c>
-      <c r="H28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" t="s">
-        <v>164</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -4036,7 +3962,7 @@
         <v>1268274</v>
       </c>
       <c r="L28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M28">
         <v>1719</v>
@@ -4057,7 +3983,7 @@
         <v>3234</v>
       </c>
       <c r="S28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T28">
         <v>59</v>
@@ -4080,10 +4006,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -4092,19 +4018,19 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" t="s">
         <v>168</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>169</v>
-      </c>
-      <c r="H29" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" t="s">
-        <v>171</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -4113,7 +4039,7 @@
         <v>332648</v>
       </c>
       <c r="L29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M29">
         <v>5166</v>
@@ -4134,7 +4060,7 @@
         <v>5177</v>
       </c>
       <c r="S29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T29">
         <v>99</v>
@@ -4157,10 +4083,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -4169,19 +4095,19 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
         <v>176</v>
-      </c>
-      <c r="H30" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" t="s">
-        <v>178</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4190,7 +4116,7 @@
         <v>658429</v>
       </c>
       <c r="L30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M30">
         <v>3157</v>
@@ -4211,7 +4137,7 @@
         <v>3234</v>
       </c>
       <c r="S30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T30">
         <v>99</v>
@@ -4234,10 +4160,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -4246,19 +4172,19 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
         <v>182</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>183</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>184</v>
-      </c>
-      <c r="H31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" t="s">
-        <v>186</v>
       </c>
       <c r="J31">
         <v>15</v>
@@ -4267,7 +4193,7 @@
         <v>97331</v>
       </c>
       <c r="L31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M31">
         <v>1654</v>
@@ -4288,7 +4214,7 @@
         <v>1706</v>
       </c>
       <c r="S31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T31">
         <v>98</v>
@@ -4311,10 +4237,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -4323,19 +4249,19 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
         <v>188</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>189</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>190</v>
-      </c>
-      <c r="H32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" t="s">
-        <v>192</v>
       </c>
       <c r="J32">
         <v>4</v>
@@ -4344,7 +4270,7 @@
         <v>656061</v>
       </c>
       <c r="L32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M32">
         <v>1538</v>
@@ -4365,7 +4291,7 @@
         <v>1706</v>
       </c>
       <c r="S32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T32">
         <v>93</v>
@@ -4388,10 +4314,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -4400,19 +4326,19 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s">
         <v>195</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>196</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>197</v>
-      </c>
-      <c r="H33" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" t="s">
-        <v>199</v>
       </c>
       <c r="J33">
         <v>13</v>
@@ -4421,7 +4347,7 @@
         <v>1408157</v>
       </c>
       <c r="L33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M33">
         <v>3713</v>
@@ -4442,7 +4368,7 @@
         <v>3817</v>
       </c>
       <c r="S33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T33">
         <v>98</v>
@@ -4465,10 +4391,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -4477,19 +4403,19 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
         <v>203</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>204</v>
-      </c>
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" t="s">
-        <v>206</v>
       </c>
       <c r="J34">
         <v>4</v>
@@ -4498,7 +4424,7 @@
         <v>694573</v>
       </c>
       <c r="L34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M34">
         <v>3648</v>
@@ -4519,7 +4445,7 @@
         <v>3817</v>
       </c>
       <c r="S34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T34">
         <v>96</v>
@@ -4542,10 +4468,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -4554,19 +4480,19 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" t="s">
         <v>209</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" t="s">
-        <v>212</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -4575,7 +4501,7 @@
         <v>474922</v>
       </c>
       <c r="L35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M35">
         <v>6613</v>
@@ -4596,7 +4522,7 @@
         <v>6841</v>
       </c>
       <c r="S35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T35">
         <v>96</v>
@@ -4614,15 +4540,15 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -4631,19 +4557,19 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" t="s">
         <v>216</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>217</v>
-      </c>
-      <c r="H36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" t="s">
-        <v>219</v>
       </c>
       <c r="J36">
         <v>16</v>
@@ -4652,7 +4578,7 @@
         <v>485398</v>
       </c>
       <c r="L36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M36">
         <v>4448</v>
@@ -4673,7 +4599,7 @@
         <v>4494</v>
       </c>
       <c r="S36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T36">
         <v>99</v>
@@ -4691,15 +4617,15 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -4708,19 +4634,19 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H37" t="s">
         <v>224</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>225</v>
-      </c>
-      <c r="H37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" t="s">
-        <v>227</v>
       </c>
       <c r="J37">
         <v>17</v>
@@ -4729,7 +4655,7 @@
         <v>148305</v>
       </c>
       <c r="L37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M37">
         <v>3744</v>
@@ -4750,7 +4676,7 @@
         <v>3817</v>
       </c>
       <c r="S37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T37">
         <v>98</v>
@@ -4773,10 +4699,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -4785,19 +4711,19 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" t="s">
         <v>230</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>231</v>
-      </c>
-      <c r="H38" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" t="s">
-        <v>233</v>
       </c>
       <c r="J38">
         <v>16</v>
@@ -4806,7 +4732,7 @@
         <v>563466</v>
       </c>
       <c r="L38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M38">
         <v>3094</v>
@@ -4827,7 +4753,7 @@
         <v>3817</v>
       </c>
       <c r="S38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T38">
         <v>82</v>
@@ -4850,10 +4776,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -4862,19 +4788,19 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
         <v>236</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>237</v>
-      </c>
-      <c r="H39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" t="s">
-        <v>239</v>
       </c>
       <c r="J39">
         <v>6</v>
@@ -4883,7 +4809,7 @@
         <v>1391915</v>
       </c>
       <c r="L39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M39">
         <v>3656</v>
@@ -4904,7 +4830,7 @@
         <v>3817</v>
       </c>
       <c r="S39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T39">
         <v>96</v>
@@ -4927,10 +4853,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -4939,19 +4865,19 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" t="s">
         <v>241</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" t="s">
         <v>243</v>
-      </c>
-      <c r="H40" t="s">
-        <v>244</v>
-      </c>
-      <c r="I40" t="s">
-        <v>245</v>
       </c>
       <c r="J40">
         <v>8</v>
@@ -4960,7 +4886,7 @@
         <v>367110</v>
       </c>
       <c r="L40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M40">
         <v>3788</v>
@@ -4981,7 +4907,7 @@
         <v>3817</v>
       </c>
       <c r="S40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T40">
         <v>99</v>
@@ -5004,10 +4930,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -5016,19 +4942,19 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" t="s">
         <v>248</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>249</v>
-      </c>
-      <c r="H41" t="s">
-        <v>250</v>
-      </c>
-      <c r="I41" t="s">
-        <v>251</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -5037,7 +4963,7 @@
         <v>37992</v>
       </c>
       <c r="L41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M41">
         <v>3626</v>
@@ -5058,7 +4984,7 @@
         <v>3817</v>
       </c>
       <c r="S41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T41">
         <v>96</v>
@@ -5081,31 +5007,31 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" t="s">
         <v>253</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>254</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>255</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I42" t="s">
-        <v>258</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -5114,7 +5040,7 @@
         <v>192524</v>
       </c>
       <c r="L42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M42">
         <v>3642</v>
@@ -5135,7 +5061,7 @@
         <v>3870</v>
       </c>
       <c r="S42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T42">
         <v>95</v>
@@ -5158,31 +5084,31 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
         <v>262</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>263</v>
-      </c>
-      <c r="H43" t="s">
-        <v>264</v>
-      </c>
-      <c r="I43" t="s">
-        <v>265</v>
       </c>
       <c r="J43">
         <v>8</v>
@@ -5191,7 +5117,7 @@
         <v>765440</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M43">
         <v>2819</v>
@@ -5212,7 +5138,7 @@
         <v>2898</v>
       </c>
       <c r="S43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T43">
         <v>99</v>
@@ -5235,31 +5161,31 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" t="s">
         <v>269</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>270</v>
-      </c>
-      <c r="H44" t="s">
-        <v>271</v>
-      </c>
-      <c r="I44" t="s">
-        <v>272</v>
       </c>
       <c r="J44">
         <v>13</v>
@@ -5268,7 +5194,7 @@
         <v>1314781</v>
       </c>
       <c r="L44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M44">
         <v>2749</v>
@@ -5289,7 +5215,7 @@
         <v>2898</v>
       </c>
       <c r="S44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T44">
         <v>96</v>
@@ -5312,31 +5238,31 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
         <v>275</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>276</v>
-      </c>
-      <c r="H45" t="s">
-        <v>277</v>
-      </c>
-      <c r="I45" t="s">
-        <v>278</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5345,7 +5271,7 @@
         <v>930992</v>
       </c>
       <c r="L45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M45">
         <v>4793</v>
@@ -5366,7 +5292,7 @@
         <v>4878</v>
       </c>
       <c r="S45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T45">
         <v>99</v>
@@ -5389,31 +5315,31 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" t="s">
         <v>282</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>283</v>
-      </c>
-      <c r="H46" t="s">
-        <v>284</v>
-      </c>
-      <c r="I46" t="s">
-        <v>285</v>
       </c>
       <c r="J46">
         <v>29</v>
@@ -5422,7 +5348,7 @@
         <v>1108050</v>
       </c>
       <c r="L46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M46">
         <v>2570</v>
@@ -5443,7 +5369,7 @@
         <v>2898</v>
       </c>
       <c r="S46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T46">
         <v>91</v>
@@ -5466,31 +5392,31 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" t="s">
         <v>288</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>289</v>
-      </c>
-      <c r="H47" t="s">
-        <v>290</v>
-      </c>
-      <c r="I47" t="s">
-        <v>291</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -5499,7 +5425,7 @@
         <v>670483</v>
       </c>
       <c r="L47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M47">
         <v>2856</v>
@@ -5520,7 +5446,7 @@
         <v>2898</v>
       </c>
       <c r="S47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T47">
         <v>99</v>
@@ -5543,31 +5469,31 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" t="s">
+        <v>293</v>
+      </c>
+      <c r="H48" t="s">
         <v>294</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>295</v>
-      </c>
-      <c r="H48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" t="s">
-        <v>297</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5576,7 +5502,7 @@
         <v>27342</v>
       </c>
       <c r="L48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M48">
         <v>2847</v>
@@ -5597,7 +5523,7 @@
         <v>2898</v>
       </c>
       <c r="S48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T48">
         <v>98</v>
@@ -5620,31 +5546,31 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G49" t="s">
+        <v>298</v>
+      </c>
+      <c r="H49" t="s">
         <v>299</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>300</v>
-      </c>
-      <c r="H49" t="s">
-        <v>301</v>
-      </c>
-      <c r="I49" t="s">
-        <v>302</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -5653,7 +5579,7 @@
         <v>933084</v>
       </c>
       <c r="L49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M49">
         <v>2883</v>
@@ -5674,7 +5600,7 @@
         <v>2898</v>
       </c>
       <c r="S49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T49">
         <v>99</v>
@@ -5697,31 +5623,31 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H50" t="s">
         <v>305</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>306</v>
-      </c>
-      <c r="H50" t="s">
-        <v>307</v>
-      </c>
-      <c r="I50" t="s">
-        <v>308</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -5730,7 +5656,7 @@
         <v>5627</v>
       </c>
       <c r="L50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M50">
         <v>3741</v>
@@ -5751,7 +5677,7 @@
         <v>4464</v>
       </c>
       <c r="S50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T50">
         <v>94</v>
@@ -5774,31 +5700,31 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" t="s">
         <v>312</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>313</v>
-      </c>
-      <c r="H51" t="s">
-        <v>314</v>
-      </c>
-      <c r="I51" t="s">
-        <v>315</v>
       </c>
       <c r="J51">
         <v>11</v>
@@ -5807,7 +5733,7 @@
         <v>152965</v>
       </c>
       <c r="L51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M51">
         <v>2825</v>
@@ -5828,7 +5754,7 @@
         <v>2898</v>
       </c>
       <c r="S51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T51">
         <v>97</v>
@@ -5851,31 +5777,31 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" t="s">
         <v>317</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>318</v>
-      </c>
-      <c r="H52" t="s">
-        <v>319</v>
-      </c>
-      <c r="I52" t="s">
-        <v>320</v>
       </c>
       <c r="J52">
         <v>8</v>
@@ -5884,7 +5810,7 @@
         <v>1109443</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M52">
         <v>2577</v>
@@ -5905,7 +5831,7 @@
         <v>2898</v>
       </c>
       <c r="S52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T52">
         <v>91</v>
@@ -5928,31 +5854,31 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" t="s">
         <v>323</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>324</v>
-      </c>
-      <c r="H53" t="s">
-        <v>325</v>
-      </c>
-      <c r="I53" t="s">
-        <v>326</v>
       </c>
       <c r="J53">
         <v>10</v>
@@ -5961,7 +5887,7 @@
         <v>56493</v>
       </c>
       <c r="L53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M53">
         <v>2856</v>
@@ -5982,7 +5908,7 @@
         <v>2898</v>
       </c>
       <c r="S53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T53">
         <v>98</v>
@@ -6005,31 +5931,31 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" t="s">
+        <v>327</v>
+      </c>
+      <c r="I54" t="s">
         <v>328</v>
-      </c>
-      <c r="G54" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" t="s">
-        <v>329</v>
-      </c>
-      <c r="I54" t="s">
-        <v>330</v>
       </c>
       <c r="J54">
         <v>14</v>
@@ -6038,7 +5964,7 @@
         <v>1314777</v>
       </c>
       <c r="L54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M54">
         <v>2788</v>
@@ -6059,7 +5985,7 @@
         <v>2898</v>
       </c>
       <c r="S54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T54">
         <v>97</v>
@@ -6082,31 +6008,31 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" t="s">
         <v>333</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>334</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>335</v>
-      </c>
-      <c r="H55" t="s">
-        <v>336</v>
-      </c>
-      <c r="I55" t="s">
-        <v>337</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -6115,7 +6041,7 @@
         <v>1330018</v>
       </c>
       <c r="L55" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M55">
         <v>1728</v>
@@ -6136,7 +6062,7 @@
         <v>1764</v>
       </c>
       <c r="S55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T55">
         <v>99</v>
@@ -6159,31 +6085,31 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
+        <v>339</v>
+      </c>
+      <c r="F56" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" t="s">
         <v>341</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>342</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>343</v>
-      </c>
-      <c r="H56" t="s">
-        <v>344</v>
-      </c>
-      <c r="I56" t="s">
-        <v>345</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -6192,7 +6118,7 @@
         <v>215250</v>
       </c>
       <c r="L56" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M56">
         <v>1690</v>
@@ -6213,7 +6139,7 @@
         <v>1764</v>
       </c>
       <c r="S56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T56">
         <v>96</v>
@@ -6236,31 +6162,31 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
+        <v>345</v>
+      </c>
+      <c r="G57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H57" t="s">
         <v>347</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>348</v>
-      </c>
-      <c r="H57" t="s">
-        <v>349</v>
-      </c>
-      <c r="I57" t="s">
-        <v>350</v>
       </c>
       <c r="J57">
         <v>11</v>
@@ -6269,7 +6195,7 @@
         <v>43049</v>
       </c>
       <c r="L57" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M57">
         <v>1680</v>
@@ -6290,7 +6216,7 @@
         <v>1764</v>
       </c>
       <c r="S57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T57">
         <v>96</v>
@@ -6313,31 +6239,31 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
+        <v>350</v>
+      </c>
+      <c r="F58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
         <v>352</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>353</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>354</v>
-      </c>
-      <c r="H58" t="s">
-        <v>355</v>
-      </c>
-      <c r="I58" t="s">
-        <v>356</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -6346,7 +6272,7 @@
         <v>418459</v>
       </c>
       <c r="L58" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M58">
         <v>1620</v>
@@ -6367,7 +6293,7 @@
         <v>1764</v>
       </c>
       <c r="S58" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T58">
         <v>93</v>
@@ -6390,31 +6316,31 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
+        <v>357</v>
+      </c>
+      <c r="F59" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" t="s">
         <v>359</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>360</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>361</v>
-      </c>
-      <c r="H59" t="s">
-        <v>362</v>
-      </c>
-      <c r="I59" t="s">
-        <v>363</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -6423,7 +6349,7 @@
         <v>237631</v>
       </c>
       <c r="L59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M59">
         <v>1754</v>
@@ -6444,7 +6370,7 @@
         <v>1764</v>
       </c>
       <c r="S59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T59">
         <v>99</v>
@@ -6467,31 +6393,31 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
+        <v>364</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" t="s">
         <v>366</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>367</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>368</v>
-      </c>
-      <c r="H60" t="s">
-        <v>369</v>
-      </c>
-      <c r="I60" t="s">
-        <v>370</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -6500,7 +6426,7 @@
         <v>671144</v>
       </c>
       <c r="L60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M60">
         <v>1598</v>
@@ -6521,7 +6447,7 @@
         <v>1764</v>
       </c>
       <c r="S60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T60">
         <v>92</v>
@@ -6539,36 +6465,36 @@
         <v>0</v>
       </c>
       <c r="Y60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
+        <v>371</v>
+      </c>
+      <c r="E61" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" t="s">
         <v>373</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" t="s">
         <v>374</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>375</v>
-      </c>
-      <c r="G61" t="s">
-        <v>175</v>
-      </c>
-      <c r="H61" t="s">
-        <v>376</v>
-      </c>
-      <c r="I61" t="s">
-        <v>377</v>
       </c>
       <c r="J61">
         <v>12</v>
@@ -6577,7 +6503,7 @@
         <v>684364</v>
       </c>
       <c r="L61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M61">
         <v>680</v>
@@ -6598,7 +6524,7 @@
         <v>758</v>
       </c>
       <c r="S61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T61">
         <v>91</v>
@@ -6621,31 +6547,31 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F62" t="s">
+        <v>379</v>
+      </c>
+      <c r="G62" t="s">
+        <v>380</v>
+      </c>
+      <c r="H62" t="s">
         <v>381</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>382</v>
-      </c>
-      <c r="H62" t="s">
-        <v>383</v>
-      </c>
-      <c r="I62" t="s">
-        <v>384</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -6654,7 +6580,7 @@
         <v>645134</v>
       </c>
       <c r="L62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M62">
         <v>725</v>
@@ -6675,7 +6601,7 @@
         <v>758</v>
       </c>
       <c r="S62" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T62">
         <v>96</v>
@@ -6698,31 +6624,31 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" t="s">
+        <v>386</v>
+      </c>
+      <c r="H63" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>388</v>
-      </c>
-      <c r="H63" t="s">
-        <v>389</v>
-      </c>
-      <c r="I63" t="s">
-        <v>390</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -6731,7 +6657,7 @@
         <v>40302</v>
       </c>
       <c r="L63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M63">
         <v>583</v>
@@ -6752,7 +6678,7 @@
         <v>600</v>
       </c>
       <c r="S63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="T63">
         <v>98</v>
@@ -6775,31 +6701,31 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" t="s">
+        <v>394</v>
+      </c>
+      <c r="E64" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" t="s">
         <v>396</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>397</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>398</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>399</v>
-      </c>
-      <c r="H64" t="s">
-        <v>400</v>
-      </c>
-      <c r="I64" t="s">
-        <v>401</v>
       </c>
       <c r="J64">
         <v>13</v>
@@ -6808,7 +6734,7 @@
         <v>4874</v>
       </c>
       <c r="L64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M64">
         <v>1493</v>
@@ -6829,7 +6755,7 @@
         <v>1614</v>
       </c>
       <c r="S64" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T64">
         <v>94</v>
@@ -6852,31 +6778,31 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" t="s">
         <v>404</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>405</v>
-      </c>
-      <c r="H65" t="s">
-        <v>406</v>
-      </c>
-      <c r="I65" t="s">
-        <v>407</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -6885,7 +6811,7 @@
         <v>588596</v>
       </c>
       <c r="L65" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M65">
         <v>1555</v>
@@ -6906,7 +6832,7 @@
         <v>1614</v>
       </c>
       <c r="S65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T65">
         <v>97</v>
@@ -6929,31 +6855,31 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
+        <v>407</v>
+      </c>
+      <c r="F66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66" t="s">
         <v>409</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>410</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
         <v>411</v>
-      </c>
-      <c r="H66" t="s">
-        <v>412</v>
-      </c>
-      <c r="I66" t="s">
-        <v>413</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -6962,7 +6888,7 @@
         <v>64522</v>
       </c>
       <c r="L66" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M66">
         <v>1423</v>
@@ -6983,7 +6909,7 @@
         <v>1614</v>
       </c>
       <c r="S66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T66">
         <v>91</v>
@@ -7006,31 +6932,31 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
+        <v>413</v>
+      </c>
+      <c r="E67" t="s">
+        <v>414</v>
+      </c>
+      <c r="F67" t="s">
         <v>415</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>416</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>417</v>
       </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>418</v>
-      </c>
-      <c r="H67" t="s">
-        <v>419</v>
-      </c>
-      <c r="I67" t="s">
-        <v>420</v>
       </c>
       <c r="J67">
         <v>32</v>
@@ -7039,7 +6965,7 @@
         <v>1314790</v>
       </c>
       <c r="L67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M67">
         <v>738</v>
@@ -7060,7 +6986,7 @@
         <v>758</v>
       </c>
       <c r="S67" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T67">
         <v>98</v>
@@ -7083,31 +7009,31 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
+        <v>421</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
         <v>423</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>424</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
         <v>425</v>
-      </c>
-      <c r="H68" t="s">
-        <v>426</v>
-      </c>
-      <c r="I68" t="s">
-        <v>427</v>
       </c>
       <c r="J68">
         <v>6</v>
@@ -7116,7 +7042,7 @@
         <v>215637</v>
       </c>
       <c r="L68" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M68">
         <v>607</v>
@@ -7137,7 +7063,7 @@
         <v>758</v>
       </c>
       <c r="S68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T68">
         <v>87</v>
@@ -7160,31 +7086,31 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E69" t="s">
+        <v>427</v>
+      </c>
+      <c r="F69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G69" t="s">
         <v>429</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>430</v>
       </c>
-      <c r="G69" t="s">
+      <c r="I69" t="s">
         <v>431</v>
-      </c>
-      <c r="H69" t="s">
-        <v>432</v>
-      </c>
-      <c r="I69" t="s">
-        <v>433</v>
       </c>
       <c r="J69">
         <v>48</v>
@@ -7193,7 +7119,7 @@
         <v>796925</v>
       </c>
       <c r="L69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M69">
         <v>605</v>
@@ -7214,7 +7140,7 @@
         <v>758</v>
       </c>
       <c r="S69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T69">
         <v>84</v>
@@ -7237,31 +7163,31 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
+        <v>434</v>
+      </c>
+      <c r="F70" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" t="s">
         <v>436</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>437</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>438</v>
-      </c>
-      <c r="H70" t="s">
-        <v>439</v>
-      </c>
-      <c r="I70" t="s">
-        <v>440</v>
       </c>
       <c r="J70">
         <v>8</v>
@@ -7270,7 +7196,7 @@
         <v>763665</v>
       </c>
       <c r="L70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M70">
         <v>661</v>
@@ -7291,7 +7217,7 @@
         <v>758</v>
       </c>
       <c r="S70" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T70">
         <v>91</v>
@@ -7309,36 +7235,36 @@
         <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
+        <v>441</v>
+      </c>
+      <c r="F71" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" t="s">
         <v>443</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>444</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>445</v>
-      </c>
-      <c r="H71" t="s">
-        <v>446</v>
-      </c>
-      <c r="I71" t="s">
-        <v>447</v>
       </c>
       <c r="J71">
         <v>30</v>
@@ -7347,7 +7273,7 @@
         <v>78915</v>
       </c>
       <c r="L71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M71">
         <v>555</v>
@@ -7368,7 +7294,7 @@
         <v>758</v>
       </c>
       <c r="S71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T71">
         <v>81</v>
@@ -7389,1192 +7315,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>498</v>
-      </c>
-      <c r="B72" t="s">
-        <v>448</v>
-      </c>
-      <c r="C72" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" t="s">
-        <v>449</v>
-      </c>
-      <c r="E72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F72" t="s">
-        <v>450</v>
-      </c>
-      <c r="G72" t="s">
-        <v>451</v>
-      </c>
-      <c r="H72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I72" t="s">
-        <v>453</v>
-      </c>
-      <c r="J72">
-        <v>14</v>
-      </c>
-      <c r="K72">
-        <v>403677</v>
-      </c>
-      <c r="L72" t="s">
-        <v>454</v>
-      </c>
-      <c r="M72">
-        <v>100</v>
-      </c>
-      <c r="N72">
-        <v>99</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>100</v>
-      </c>
-      <c r="S72" t="s">
-        <v>455</v>
-      </c>
-      <c r="T72">
-        <v>100</v>
-      </c>
-      <c r="U72">
-        <v>46</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>498</v>
-      </c>
-      <c r="B73" t="s">
-        <v>456</v>
-      </c>
-      <c r="C73" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" t="s">
-        <v>449</v>
-      </c>
-      <c r="E73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" t="s">
-        <v>457</v>
-      </c>
-      <c r="G73" t="s">
-        <v>458</v>
-      </c>
-      <c r="H73" t="s">
-        <v>459</v>
-      </c>
-      <c r="I73" t="s">
-        <v>460</v>
-      </c>
-      <c r="J73">
-        <v>9</v>
-      </c>
-      <c r="K73">
-        <v>41045</v>
-      </c>
-      <c r="L73" t="s">
-        <v>461</v>
-      </c>
-      <c r="M73">
-        <v>100</v>
-      </c>
-      <c r="N73">
-        <v>100</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>100</v>
-      </c>
-      <c r="S73" t="s">
-        <v>455</v>
-      </c>
-      <c r="T73">
-        <v>100</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>498</v>
-      </c>
-      <c r="B74" t="s">
-        <v>462</v>
-      </c>
-      <c r="C74" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" t="s">
-        <v>449</v>
-      </c>
-      <c r="E74" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" t="s">
-        <v>463</v>
-      </c>
-      <c r="G74" t="s">
-        <v>464</v>
-      </c>
-      <c r="H74" t="s">
-        <v>465</v>
-      </c>
-      <c r="I74" t="s">
-        <v>466</v>
-      </c>
-      <c r="J74">
-        <v>4</v>
-      </c>
-      <c r="K74">
-        <v>65357</v>
-      </c>
-      <c r="L74" t="s">
-        <v>466</v>
-      </c>
-      <c r="M74">
-        <v>98</v>
-      </c>
-      <c r="N74">
-        <v>86</v>
-      </c>
-      <c r="O74">
-        <v>12</v>
-      </c>
-      <c r="P74">
-        <v>2</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>100</v>
-      </c>
-      <c r="S74" t="s">
-        <v>455</v>
-      </c>
-      <c r="T74">
-        <v>100</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>498</v>
-      </c>
-      <c r="B75" t="s">
-        <v>467</v>
-      </c>
-      <c r="C75" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" t="s">
-        <v>449</v>
-      </c>
-      <c r="E75" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" t="s">
-        <v>468</v>
-      </c>
-      <c r="G75" t="s">
-        <v>469</v>
-      </c>
-      <c r="H75" t="s">
-        <v>470</v>
-      </c>
-      <c r="I75" t="s">
-        <v>471</v>
-      </c>
-      <c r="J75">
-        <v>18</v>
-      </c>
-      <c r="K75">
-        <v>695850</v>
-      </c>
-      <c r="L75" t="s">
-        <v>472</v>
-      </c>
-      <c r="M75">
-        <v>99</v>
-      </c>
-      <c r="N75">
-        <v>99</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75">
-        <v>100</v>
-      </c>
-      <c r="S75" t="s">
-        <v>455</v>
-      </c>
-      <c r="T75">
-        <v>99</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+  <conditionalFormatting sqref="E1">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8585,19 +7327,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8610,7 +7340,895 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8621,8 +8239,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{965B1766-9C3B-124B-985E-9FB894D911F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -8639,6 +8270,19 @@
           </x14:cfRule>
           <xm:sqref>E1</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{965B1766-9C3B-124B-985E-9FB894D911F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/proteome-tree/fungal-order-representatives.xlsx
+++ b/data/proteome-tree/fungal-order-representatives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11AC64A-BF4F-C943-B4DF-68B53419D3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24D63D-0AA4-AC48-B434-F149E649F6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="459">
   <si>
     <t>UP000799437</t>
   </si>
@@ -101,27 +101,6 @@
     <t>Macrophomina phaseolina (strain MS6) (Charcoal rot fungus)</t>
   </si>
   <si>
-    <t>UP000799421</t>
-  </si>
-  <si>
-    <t>Capnodiales</t>
-  </si>
-  <si>
-    <t>Piedraiaceae</t>
-  </si>
-  <si>
-    <t>Piedraia</t>
-  </si>
-  <si>
-    <t>Piedraia hortae</t>
-  </si>
-  <si>
-    <t>Piedraia hortae CBS 480.64</t>
-  </si>
-  <si>
-    <t>capnodiales_odb10</t>
-  </si>
-  <si>
     <t>Cladosporiales</t>
   </si>
   <si>
@@ -509,25 +488,7 @@
     <t>Gomphillus americanus</t>
   </si>
   <si>
-    <t>UP000053110</t>
-  </si>
-  <si>
     <t>Leotiomycetes</t>
-  </si>
-  <si>
-    <t>Erysiphales</t>
-  </si>
-  <si>
-    <t>Erysiphaceae</t>
-  </si>
-  <si>
-    <t>Blumeria</t>
-  </si>
-  <si>
-    <t>Blumeria graminis</t>
-  </si>
-  <si>
-    <t>Blumeria graminis f. sp. tritici 96224</t>
   </si>
   <si>
     <t>leotiomycetes_odb10</t>
@@ -1467,18 +1428,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1495,7 +1450,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D0C7-4F40-C446-9F60-7FFBC88C7139}">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,76 +1799,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N1" t="s">
         <v>446</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" t="s">
         <v>447</v>
       </c>
-      <c r="C1" t="s">
+      <c r="P1" t="s">
         <v>448</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q1" t="s">
         <v>449</v>
       </c>
-      <c r="E1" t="s">
+      <c r="R1" t="s">
         <v>450</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" t="s">
         <v>451</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>452</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
         <v>454</v>
       </c>
-      <c r="J1" t="s">
+      <c r="W1" t="s">
         <v>455</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
         <v>456</v>
-      </c>
-      <c r="L1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M1" t="s">
-        <v>458</v>
-      </c>
-      <c r="N1" t="s">
-        <v>459</v>
-      </c>
-      <c r="O1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P1" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>462</v>
-      </c>
-      <c r="R1" t="s">
-        <v>463</v>
-      </c>
-      <c r="S1" t="s">
-        <v>464</v>
-      </c>
-      <c r="T1" t="s">
-        <v>465</v>
-      </c>
-      <c r="U1" t="s">
-        <v>466</v>
-      </c>
-      <c r="V1" t="s">
-        <v>467</v>
-      </c>
-      <c r="W1" t="s">
-        <v>468</v>
-      </c>
-      <c r="X1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -2140,7 +2095,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2152,49 +2107,49 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>1314780</v>
+        <v>1507870</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>458</v>
       </c>
       <c r="L5">
-        <v>2332</v>
+        <v>3694</v>
       </c>
       <c r="M5">
-        <v>2311</v>
+        <v>287</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>3407</v>
       </c>
       <c r="O5">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="P5">
-        <v>1152</v>
+        <v>76</v>
       </c>
       <c r="Q5">
-        <v>3578</v>
+        <v>3786</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2214,7 +2169,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2226,40 +2181,40 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1043002</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>1507870</v>
-      </c>
-      <c r="K6" t="s">
-        <v>471</v>
-      </c>
       <c r="L6">
-        <v>3694</v>
+        <v>3747</v>
       </c>
       <c r="M6">
-        <v>287</v>
+        <v>3743</v>
       </c>
       <c r="N6">
-        <v>3407</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P6">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="Q6">
         <v>3786</v>
@@ -2268,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="S6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2283,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -2312,28 +2267,28 @@
         <v>35</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>1043002</v>
+        <v>1392243</v>
       </c>
       <c r="K7" t="s">
         <v>36</v>
       </c>
       <c r="L7">
-        <v>3747</v>
+        <v>3312</v>
       </c>
       <c r="M7">
-        <v>3743</v>
+        <v>3307</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="P7">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="Q7">
         <v>3786</v>
@@ -2342,10 +2297,10 @@
         <v>8</v>
       </c>
       <c r="S7">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="T7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2357,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2374,40 +2329,40 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
       <c r="I8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>1392243</v>
+        <v>578093</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8">
-        <v>3312</v>
+        <v>3387</v>
       </c>
       <c r="M8">
-        <v>3307</v>
+        <v>3383</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="Q8">
         <v>3786</v>
@@ -2416,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="S8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2436,7 +2391,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2448,40 +2403,40 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>578093</v>
+        <v>703497</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L9">
-        <v>3387</v>
+        <v>3304</v>
       </c>
       <c r="M9">
-        <v>3383</v>
+        <v>3282</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O9">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="P9">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="Q9">
         <v>3786</v>
@@ -2490,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="S9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2510,7 +2465,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2522,40 +2477,40 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>1276538</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>703497</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
       <c r="L10">
-        <v>3304</v>
+        <v>3678</v>
       </c>
       <c r="M10">
-        <v>3282</v>
+        <v>3674</v>
       </c>
       <c r="N10">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="P10">
-        <v>428</v>
+        <v>70</v>
       </c>
       <c r="Q10">
         <v>3786</v>
@@ -2564,7 +2519,7 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2584,7 +2539,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2596,40 +2551,40 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
       <c r="I11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>1276538</v>
+        <v>40998</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L11">
-        <v>3678</v>
+        <v>3532</v>
       </c>
       <c r="M11">
-        <v>3674</v>
+        <v>3528</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="P11">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3786</v>
@@ -2638,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="S11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2658,7 +2613,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2670,40 +2625,40 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>1314670</v>
+      </c>
+      <c r="K12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>40998</v>
-      </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
       <c r="L12">
-        <v>3532</v>
+        <v>3728</v>
       </c>
       <c r="M12">
-        <v>3528</v>
+        <v>3707</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="O12">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P12">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="Q12">
         <v>3786</v>
@@ -2712,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2732,7 +2687,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2744,40 +2699,40 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>1346257</v>
+      </c>
+      <c r="K13" t="s">
         <v>69</v>
       </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>1314670</v>
-      </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
       <c r="L13">
-        <v>3728</v>
+        <v>3552</v>
       </c>
       <c r="M13">
-        <v>3707</v>
+        <v>3548</v>
       </c>
       <c r="N13">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3786</v>
@@ -2786,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="S13">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2806,7 +2761,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2818,40 +2773,40 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
       <c r="I14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>1346257</v>
+        <v>703511</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14">
-        <v>3552</v>
+        <v>3347</v>
       </c>
       <c r="M14">
-        <v>3548</v>
+        <v>3339</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P14">
-        <v>179</v>
+        <v>380</v>
       </c>
       <c r="Q14">
         <v>3786</v>
@@ -2860,7 +2815,7 @@
         <v>8</v>
       </c>
       <c r="S14">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2880,7 +2835,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2892,52 +2847,52 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>5599</v>
+      </c>
+      <c r="K15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15">
+        <v>6554</v>
+      </c>
+      <c r="M15">
+        <v>6549</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>27</v>
+      </c>
+      <c r="P15">
+        <v>60</v>
+      </c>
+      <c r="Q15">
+        <v>6641</v>
+      </c>
+      <c r="R15" t="s">
         <v>81</v>
       </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>703511</v>
-      </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15">
-        <v>3347</v>
-      </c>
-      <c r="M15">
-        <v>3339</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
-      </c>
-      <c r="O15">
-        <v>59</v>
-      </c>
-      <c r="P15">
-        <v>380</v>
-      </c>
-      <c r="Q15">
-        <v>3786</v>
-      </c>
-      <c r="R15" t="s">
-        <v>8</v>
-      </c>
       <c r="S15">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2949,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2978,40 +2933,40 @@
         <v>86</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>5599</v>
+        <v>1048519</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16">
-        <v>6554</v>
+        <v>3568</v>
       </c>
       <c r="M16">
-        <v>6549</v>
+        <v>3552</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P16">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="Q16">
-        <v>6641</v>
+        <v>3786</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -3023,12 +2978,12 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -3040,40 +2995,40 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>5025</v>
+      </c>
+      <c r="K17" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>1048519</v>
-      </c>
-      <c r="K17" t="s">
-        <v>93</v>
-      </c>
       <c r="L17">
-        <v>3568</v>
+        <v>3297</v>
       </c>
       <c r="M17">
-        <v>3552</v>
+        <v>3282</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P17">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="Q17">
         <v>3786</v>
@@ -3082,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3102,7 +3057,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -3111,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -3126,37 +3081,37 @@
         <v>98</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>5025</v>
+        <v>858893</v>
       </c>
       <c r="K18" t="s">
         <v>99</v>
       </c>
       <c r="L18">
-        <v>3297</v>
+        <v>6097</v>
       </c>
       <c r="M18">
-        <v>3282</v>
+        <v>5982</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="O18">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="P18">
-        <v>414</v>
+        <v>125</v>
       </c>
       <c r="Q18">
-        <v>3786</v>
+        <v>6265</v>
       </c>
       <c r="R18" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="S18">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3176,7 +3131,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3185,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -3200,40 +3155,40 @@
         <v>105</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>858893</v>
+        <v>5062</v>
       </c>
       <c r="K19" t="s">
         <v>106</v>
       </c>
       <c r="L19">
-        <v>6097</v>
+        <v>4004</v>
       </c>
       <c r="M19">
-        <v>5982</v>
+        <v>3992</v>
       </c>
       <c r="N19">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="O19">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P19">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="Q19">
-        <v>6265</v>
+        <v>4191</v>
       </c>
       <c r="R19" t="s">
         <v>107</v>
       </c>
       <c r="S19">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3245,12 +3200,12 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3259,55 +3214,55 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1215338</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20">
+        <v>4699</v>
+      </c>
+      <c r="M20">
+        <v>4589</v>
+      </c>
+      <c r="N20">
         <v>110</v>
       </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>5062</v>
-      </c>
-      <c r="K20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20">
-        <v>4004</v>
-      </c>
-      <c r="M20">
-        <v>3992</v>
-      </c>
-      <c r="N20">
-        <v>12</v>
-      </c>
       <c r="O20">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="P20">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="Q20">
-        <v>4191</v>
+        <v>4862</v>
       </c>
       <c r="R20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S20">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3319,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -3333,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>117</v>
@@ -3348,37 +3303,37 @@
         <v>120</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>1215338</v>
+        <v>158046</v>
       </c>
       <c r="K21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21">
+        <v>2694</v>
+      </c>
+      <c r="M21">
+        <v>2689</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>235</v>
+      </c>
+      <c r="P21">
+        <v>617</v>
+      </c>
+      <c r="Q21">
+        <v>3546</v>
+      </c>
+      <c r="R21" t="s">
         <v>121</v>
       </c>
-      <c r="L21">
-        <v>4699</v>
-      </c>
-      <c r="M21">
-        <v>4589</v>
-      </c>
-      <c r="N21">
-        <v>110</v>
-      </c>
-      <c r="O21">
-        <v>55</v>
-      </c>
-      <c r="P21">
-        <v>108</v>
-      </c>
-      <c r="Q21">
-        <v>4862</v>
-      </c>
-      <c r="R21" t="s">
-        <v>122</v>
-      </c>
       <c r="S21">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -3398,7 +3353,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -3407,52 +3362,52 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>126</v>
       </c>
-      <c r="H22" t="s">
-        <v>127</v>
-      </c>
       <c r="I22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>158046</v>
+        <v>364733</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L22">
-        <v>2694</v>
+        <v>3331</v>
       </c>
       <c r="M22">
-        <v>2689</v>
+        <v>3322</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="P22">
-        <v>617</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>3546</v>
       </c>
       <c r="R22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S22">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3472,7 +3427,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -3481,52 +3436,52 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
         <v>130</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>131</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>132</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>1670608</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23">
+        <v>1517</v>
+      </c>
+      <c r="M23">
+        <v>1513</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>51</v>
+      </c>
+      <c r="P23">
+        <v>138</v>
+      </c>
+      <c r="Q23">
+        <v>1706</v>
+      </c>
+      <c r="R23" t="s">
         <v>133</v>
       </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>364733</v>
-      </c>
-      <c r="K23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23">
-        <v>3331</v>
-      </c>
-      <c r="M23">
-        <v>3322</v>
-      </c>
-      <c r="N23">
-        <v>9</v>
-      </c>
-      <c r="O23">
-        <v>49</v>
-      </c>
-      <c r="P23">
-        <v>166</v>
-      </c>
-      <c r="Q23">
-        <v>3546</v>
-      </c>
-      <c r="R23" t="s">
-        <v>128</v>
-      </c>
       <c r="S23">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3570,37 +3525,37 @@
         <v>139</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J24">
-        <v>1670608</v>
+        <v>116794</v>
       </c>
       <c r="K24" t="s">
         <v>139</v>
       </c>
       <c r="L24">
-        <v>1517</v>
+        <v>1615</v>
       </c>
       <c r="M24">
-        <v>1513</v>
+        <v>1611</v>
       </c>
       <c r="N24">
         <v>4</v>
       </c>
       <c r="O24">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="P24">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="Q24">
         <v>1706</v>
       </c>
       <c r="R24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S24">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3620,7 +3575,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3629,52 +3584,52 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
         <v>142</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>143</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>144</v>
       </c>
-      <c r="G25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
       <c r="I25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>116794</v>
+        <v>172621</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L25">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="M25">
-        <v>1611</v>
+        <v>1593</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P25">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Q25">
         <v>1706</v>
       </c>
       <c r="R25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S25">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -3694,7 +3649,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -3703,49 +3658,49 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
         <v>148</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>149</v>
       </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" t="s">
-        <v>151</v>
-      </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>172621</v>
+        <v>1940652</v>
       </c>
       <c r="K26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L26">
-        <v>1598</v>
+        <v>1616</v>
       </c>
       <c r="M26">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P26">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q26">
         <v>1706</v>
       </c>
       <c r="R26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S26">
         <v>95</v>
@@ -3777,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
         <v>153</v>
@@ -3792,37 +3747,37 @@
         <v>156</v>
       </c>
       <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>332648</v>
+      </c>
+      <c r="K27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27">
+        <v>5166</v>
+      </c>
+      <c r="M27">
+        <v>4645</v>
+      </c>
+      <c r="N27">
+        <v>521</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="J27">
-        <v>1940652</v>
-      </c>
-      <c r="K27" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27">
-        <v>1616</v>
-      </c>
-      <c r="M27">
-        <v>1614</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>13</v>
-      </c>
-      <c r="P27">
-        <v>77</v>
-      </c>
       <c r="Q27">
-        <v>1706</v>
+        <v>5177</v>
       </c>
       <c r="R27" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="S27">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3842,7 +3797,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3850,53 +3805,53 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" t="s">
-        <v>159</v>
+      <c r="D28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1268274</v>
+        <v>658429</v>
       </c>
       <c r="K28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28">
-        <v>1719</v>
+        <v>3157</v>
       </c>
       <c r="M28">
-        <v>1718</v>
+        <v>3131</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O28">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="P28">
-        <v>1309</v>
+        <v>12</v>
       </c>
       <c r="Q28">
         <v>3234</v>
       </c>
       <c r="R28" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="S28">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3916,7 +3871,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -3924,53 +3879,53 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
+      <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>332648</v>
+        <v>97331</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29">
-        <v>5166</v>
+        <v>1654</v>
       </c>
       <c r="M29">
-        <v>4645</v>
+        <v>1615</v>
       </c>
       <c r="N29">
-        <v>521</v>
+        <v>39</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q29">
-        <v>5177</v>
+        <v>1706</v>
       </c>
       <c r="R29" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="S29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3998,53 +3953,53 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>158</v>
+      <c r="D30" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>656061</v>
+      </c>
+      <c r="K30" t="s">
         <v>178</v>
       </c>
-      <c r="F30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>658429</v>
-      </c>
-      <c r="K30" t="s">
-        <v>177</v>
-      </c>
       <c r="L30">
-        <v>3157</v>
+        <v>1538</v>
       </c>
       <c r="M30">
-        <v>3131</v>
+        <v>1525</v>
       </c>
       <c r="N30">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O30">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P30">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="Q30">
-        <v>3234</v>
+        <v>1706</v>
       </c>
       <c r="R30" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="S30">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -4072,10 +4027,10 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F31" t="s">
@@ -4088,34 +4043,34 @@
         <v>184</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>97331</v>
+        <v>1408157</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31">
-        <v>1654</v>
+        <v>3713</v>
       </c>
       <c r="M31">
-        <v>1615</v>
+        <v>3704</v>
       </c>
       <c r="N31">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="P31">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q31">
-        <v>1706</v>
+        <v>3817</v>
       </c>
       <c r="R31" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="S31">
         <v>98</v>
@@ -4138,7 +4093,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -4146,53 +4101,53 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" t="s">
-        <v>187</v>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I32">
         <v>4</v>
       </c>
       <c r="J32">
-        <v>656061</v>
+        <v>694573</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L32">
-        <v>1538</v>
+        <v>3648</v>
       </c>
       <c r="M32">
-        <v>1525</v>
+        <v>3638</v>
       </c>
       <c r="N32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O32">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P32">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q32">
-        <v>1706</v>
+        <v>3817</v>
       </c>
       <c r="R32" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="S32">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -4212,7 +4167,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -4220,10 +4175,10 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F33" t="s">
@@ -4236,40 +4191,40 @@
         <v>197</v>
       </c>
       <c r="I33">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J33">
-        <v>1408157</v>
+        <v>474922</v>
       </c>
       <c r="K33" t="s">
         <v>198</v>
       </c>
       <c r="L33">
-        <v>3713</v>
+        <v>6613</v>
       </c>
       <c r="M33">
-        <v>3704</v>
+        <v>6611</v>
       </c>
       <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
         <v>9</v>
       </c>
-      <c r="O33">
-        <v>55</v>
-      </c>
       <c r="P33">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="Q33">
-        <v>3817</v>
+        <v>6841</v>
       </c>
       <c r="R33" t="s">
         <v>199</v>
       </c>
       <c r="S33">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -4281,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -4294,10 +4249,10 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F34" t="s">
@@ -4310,40 +4265,40 @@
         <v>204</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J34">
-        <v>694573</v>
+        <v>485398</v>
       </c>
       <c r="K34" t="s">
         <v>205</v>
       </c>
       <c r="L34">
-        <v>3648</v>
+        <v>4448</v>
       </c>
       <c r="M34">
-        <v>3638</v>
+        <v>4392</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="O34">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="P34">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q34">
-        <v>3817</v>
+        <v>4494</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="S34">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4355,12 +4310,12 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -4368,73 +4323,73 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" t="s">
-        <v>207</v>
+      <c r="D35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J35">
-        <v>474922</v>
+        <v>148305</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L35">
-        <v>6613</v>
+        <v>3744</v>
       </c>
       <c r="M35">
-        <v>6611</v>
+        <v>3735</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O35">
+        <v>12</v>
+      </c>
+      <c r="P35">
+        <v>61</v>
+      </c>
+      <c r="Q35">
+        <v>3817</v>
+      </c>
+      <c r="R35" t="s">
+        <v>186</v>
+      </c>
+      <c r="S35">
+        <v>98</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
         <v>9</v>
-      </c>
-      <c r="P35">
-        <v>219</v>
-      </c>
-      <c r="Q35">
-        <v>6841</v>
-      </c>
-      <c r="R35" t="s">
-        <v>212</v>
-      </c>
-      <c r="S35">
-        <v>96</v>
-      </c>
-      <c r="T35">
-        <v>43</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4442,56 +4397,56 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" t="s">
-        <v>214</v>
+      <c r="D36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I36">
         <v>16</v>
       </c>
       <c r="J36">
-        <v>485398</v>
+        <v>563466</v>
       </c>
       <c r="K36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L36">
-        <v>4448</v>
+        <v>3094</v>
       </c>
       <c r="M36">
-        <v>4392</v>
+        <v>3081</v>
       </c>
       <c r="N36">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="O36">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P36">
-        <v>32</v>
+        <v>687</v>
       </c>
       <c r="Q36">
-        <v>4494</v>
+        <v>3817</v>
       </c>
       <c r="R36" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="S36">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="T36">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -4503,12 +4458,12 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -4516,53 +4471,53 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" t="s">
         <v>222</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>223</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>224</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>1391915</v>
+      </c>
+      <c r="K37" t="s">
         <v>225</v>
       </c>
-      <c r="I37">
-        <v>17</v>
-      </c>
-      <c r="J37">
-        <v>148305</v>
-      </c>
-      <c r="K37" t="s">
-        <v>226</v>
-      </c>
       <c r="L37">
-        <v>3744</v>
+        <v>3656</v>
       </c>
       <c r="M37">
-        <v>3735</v>
+        <v>3650</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="P37">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="Q37">
         <v>3817</v>
       </c>
       <c r="R37" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="S37">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -4590,53 +4545,53 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" t="s">
         <v>228</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>229</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>230</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>367110</v>
+      </c>
+      <c r="K38" t="s">
         <v>231</v>
       </c>
-      <c r="I38">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>563466</v>
-      </c>
-      <c r="K38" t="s">
-        <v>232</v>
-      </c>
       <c r="L38">
-        <v>3094</v>
+        <v>3788</v>
       </c>
       <c r="M38">
-        <v>3081</v>
+        <v>3340</v>
       </c>
       <c r="N38">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="O38">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P38">
-        <v>687</v>
+        <v>20</v>
       </c>
       <c r="Q38">
         <v>3817</v>
       </c>
       <c r="R38" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="S38">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -4656,7 +4611,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4664,50 +4619,50 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
         <v>234</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>235</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>236</v>
       </c>
-      <c r="H39" t="s">
-        <v>237</v>
-      </c>
       <c r="I39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J39">
-        <v>1391915</v>
+        <v>37992</v>
       </c>
       <c r="K39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L39">
-        <v>3656</v>
+        <v>3626</v>
       </c>
       <c r="M39">
-        <v>3650</v>
+        <v>3616</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="P39">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q39">
         <v>3817</v>
       </c>
       <c r="R39" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="S39">
         <v>96</v>
@@ -4730,19 +4685,19 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>241</v>
@@ -4754,37 +4709,37 @@
         <v>243</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>367110</v>
+        <v>192524</v>
       </c>
       <c r="K40" t="s">
         <v>244</v>
       </c>
       <c r="L40">
-        <v>3788</v>
+        <v>3642</v>
       </c>
       <c r="M40">
-        <v>3340</v>
+        <v>3619</v>
       </c>
       <c r="N40">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="O40">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="P40">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="Q40">
-        <v>3817</v>
+        <v>3870</v>
       </c>
       <c r="R40" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="S40">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4804,61 +4759,61 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>37992</v>
+        <v>765440</v>
       </c>
       <c r="K41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L41">
-        <v>3626</v>
+        <v>2819</v>
       </c>
       <c r="M41">
-        <v>3616</v>
+        <v>2795</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O41">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="P41">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="Q41">
-        <v>3817</v>
+        <v>2898</v>
       </c>
       <c r="R41" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="S41">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -4878,61 +4833,61 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>1314781</v>
+      </c>
+      <c r="K42" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42">
+        <v>2749</v>
+      </c>
+      <c r="M42">
+        <v>2359</v>
+      </c>
+      <c r="N42">
+        <v>390</v>
+      </c>
+      <c r="O42">
+        <v>39</v>
+      </c>
+      <c r="P42">
+        <v>110</v>
+      </c>
+      <c r="Q42">
+        <v>2898</v>
+      </c>
+      <c r="R42" t="s">
         <v>252</v>
       </c>
-      <c r="E42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F42" t="s">
-        <v>254</v>
-      </c>
-      <c r="G42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H42" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42">
-        <v>6</v>
-      </c>
-      <c r="J42">
-        <v>192524</v>
-      </c>
-      <c r="K42" t="s">
-        <v>257</v>
-      </c>
-      <c r="L42">
-        <v>3642</v>
-      </c>
-      <c r="M42">
-        <v>3619</v>
-      </c>
-      <c r="N42">
-        <v>23</v>
-      </c>
-      <c r="O42">
-        <v>56</v>
-      </c>
-      <c r="P42">
-        <v>172</v>
-      </c>
-      <c r="Q42">
-        <v>3870</v>
-      </c>
-      <c r="R42" t="s">
-        <v>258</v>
-      </c>
       <c r="S42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4958,12 +4913,12 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F43" t="s">
@@ -4976,31 +4931,31 @@
         <v>263</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>765440</v>
+        <v>930992</v>
       </c>
       <c r="K43" t="s">
         <v>264</v>
       </c>
       <c r="L43">
-        <v>2819</v>
+        <v>4793</v>
       </c>
       <c r="M43">
-        <v>2795</v>
+        <v>4739</v>
       </c>
       <c r="N43">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O43">
         <v>54</v>
       </c>
       <c r="P43">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q43">
-        <v>2898</v>
+        <v>4878</v>
       </c>
       <c r="R43" t="s">
         <v>265</v>
@@ -5032,12 +4987,12 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F44" t="s">
@@ -5050,37 +5005,37 @@
         <v>270</v>
       </c>
       <c r="I44">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J44">
-        <v>1314781</v>
+        <v>1108050</v>
       </c>
       <c r="K44" t="s">
         <v>271</v>
       </c>
       <c r="L44">
-        <v>2749</v>
+        <v>2570</v>
       </c>
       <c r="M44">
-        <v>2359</v>
+        <v>2548</v>
       </c>
       <c r="N44">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="O44">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="P44">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2898</v>
       </c>
       <c r="R44" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S44">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5106,12 +5061,12 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F45" t="s">
@@ -5124,34 +5079,34 @@
         <v>276</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>930992</v>
+        <v>670483</v>
       </c>
       <c r="K45" t="s">
         <v>277</v>
       </c>
       <c r="L45">
-        <v>4793</v>
+        <v>2856</v>
       </c>
       <c r="M45">
-        <v>4739</v>
+        <v>2843</v>
       </c>
       <c r="N45">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="O45">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P45">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q45">
-        <v>4878</v>
+        <v>2898</v>
       </c>
       <c r="R45" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="S45">
         <v>99</v>
@@ -5174,61 +5129,61 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" t="s">
-        <v>252</v>
-      </c>
-      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" t="s">
         <v>280</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>281</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>282</v>
       </c>
-      <c r="H46" t="s">
-        <v>283</v>
-      </c>
       <c r="I46">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1108050</v>
+        <v>27342</v>
       </c>
       <c r="K46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L46">
-        <v>2570</v>
+        <v>2847</v>
       </c>
       <c r="M46">
-        <v>2548</v>
+        <v>2815</v>
       </c>
       <c r="N46">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O46">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P46">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="Q46">
         <v>2898</v>
       </c>
       <c r="R46" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S46">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5248,58 +5203,58 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F47" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" t="s">
         <v>286</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>287</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>933084</v>
+      </c>
+      <c r="K47" t="s">
         <v>288</v>
       </c>
-      <c r="H47" t="s">
-        <v>289</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>670483</v>
-      </c>
-      <c r="K47" t="s">
-        <v>290</v>
-      </c>
       <c r="L47">
-        <v>2856</v>
+        <v>2883</v>
       </c>
       <c r="M47">
-        <v>2843</v>
+        <v>2861</v>
       </c>
       <c r="N47">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O47">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P47">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q47">
         <v>2898</v>
       </c>
       <c r="R47" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S47">
         <v>99</v>
@@ -5322,61 +5277,61 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" t="s">
         <v>292</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>293</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>5627</v>
+      </c>
+      <c r="K48" t="s">
         <v>294</v>
       </c>
-      <c r="H48" t="s">
+      <c r="L48">
+        <v>3741</v>
+      </c>
+      <c r="M48">
+        <v>3719</v>
+      </c>
+      <c r="N48">
+        <v>22</v>
+      </c>
+      <c r="O48">
+        <v>459</v>
+      </c>
+      <c r="P48">
+        <v>264</v>
+      </c>
+      <c r="Q48">
+        <v>4464</v>
+      </c>
+      <c r="R48" t="s">
         <v>295</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>27342</v>
-      </c>
-      <c r="K48" t="s">
-        <v>295</v>
-      </c>
-      <c r="L48">
-        <v>2847</v>
-      </c>
-      <c r="M48">
-        <v>2815</v>
-      </c>
-      <c r="N48">
-        <v>32</v>
-      </c>
-      <c r="O48">
-        <v>17</v>
-      </c>
-      <c r="P48">
-        <v>34</v>
-      </c>
-      <c r="Q48">
-        <v>2898</v>
-      </c>
-      <c r="R48" t="s">
-        <v>265</v>
-      </c>
       <c r="S48">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5402,12 +5357,12 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F49" t="s">
@@ -5420,37 +5375,37 @@
         <v>300</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J49">
-        <v>933084</v>
+        <v>152965</v>
       </c>
       <c r="K49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L49">
-        <v>2883</v>
+        <v>2825</v>
       </c>
       <c r="M49">
-        <v>2861</v>
+        <v>2745</v>
       </c>
       <c r="N49">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="O49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P49">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="Q49">
         <v>2898</v>
       </c>
       <c r="R49" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S49">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -5470,61 +5425,61 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>1109443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50">
+        <v>2577</v>
+      </c>
+      <c r="M50">
+        <v>2566</v>
+      </c>
+      <c r="N50">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <v>84</v>
+      </c>
+      <c r="P50">
+        <v>237</v>
+      </c>
+      <c r="Q50">
+        <v>2898</v>
+      </c>
+      <c r="R50" t="s">
         <v>252</v>
       </c>
-      <c r="E50" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" t="s">
-        <v>306</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>5627</v>
-      </c>
-      <c r="K50" t="s">
-        <v>307</v>
-      </c>
-      <c r="L50">
-        <v>3741</v>
-      </c>
-      <c r="M50">
-        <v>3719</v>
-      </c>
-      <c r="N50">
-        <v>22</v>
-      </c>
-      <c r="O50">
-        <v>459</v>
-      </c>
-      <c r="P50">
-        <v>264</v>
-      </c>
-      <c r="Q50">
-        <v>4464</v>
-      </c>
-      <c r="R50" t="s">
-        <v>308</v>
-      </c>
       <c r="S50">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -5544,61 +5499,61 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" t="s">
+        <v>309</v>
+      </c>
+      <c r="G51" t="s">
         <v>310</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>311</v>
       </c>
-      <c r="G51" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" t="s">
-        <v>313</v>
-      </c>
       <c r="I51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51">
-        <v>152965</v>
+        <v>56493</v>
       </c>
       <c r="K51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L51">
-        <v>2825</v>
+        <v>2856</v>
       </c>
       <c r="M51">
-        <v>2745</v>
+        <v>2800</v>
       </c>
       <c r="N51">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P51">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="Q51">
         <v>2898</v>
       </c>
       <c r="R51" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S51">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -5618,61 +5573,61 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" t="s">
         <v>315</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>1314777</v>
+      </c>
+      <c r="K52" t="s">
         <v>316</v>
       </c>
-      <c r="G52" t="s">
-        <v>317</v>
-      </c>
-      <c r="H52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I52">
-        <v>8</v>
-      </c>
-      <c r="J52">
-        <v>1109443</v>
-      </c>
-      <c r="K52" t="s">
-        <v>319</v>
-      </c>
       <c r="L52">
-        <v>2577</v>
+        <v>2788</v>
       </c>
       <c r="M52">
-        <v>2566</v>
+        <v>2773</v>
       </c>
       <c r="N52">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O52">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="P52">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="Q52">
         <v>2898</v>
       </c>
       <c r="R52" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="S52">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5692,61 +5647,61 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" t="s">
-        <v>252</v>
-      </c>
-      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" t="s">
         <v>321</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>322</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>1330018</v>
+      </c>
+      <c r="K53" t="s">
         <v>323</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53">
+        <v>1728</v>
+      </c>
+      <c r="M53">
+        <v>1703</v>
+      </c>
+      <c r="N53">
+        <v>25</v>
+      </c>
+      <c r="O53">
+        <v>19</v>
+      </c>
+      <c r="P53">
+        <v>17</v>
+      </c>
+      <c r="Q53">
+        <v>1764</v>
+      </c>
+      <c r="R53" t="s">
         <v>324</v>
       </c>
-      <c r="I53">
-        <v>10</v>
-      </c>
-      <c r="J53">
-        <v>56493</v>
-      </c>
-      <c r="K53" t="s">
-        <v>324</v>
-      </c>
-      <c r="L53">
-        <v>2856</v>
-      </c>
-      <c r="M53">
-        <v>2800</v>
-      </c>
-      <c r="N53">
-        <v>56</v>
-      </c>
-      <c r="O53">
-        <v>9</v>
-      </c>
-      <c r="P53">
-        <v>33</v>
-      </c>
-      <c r="Q53">
-        <v>2898</v>
-      </c>
-      <c r="R53" t="s">
-        <v>265</v>
-      </c>
       <c r="S53">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -5772,55 +5727,55 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" t="s">
-        <v>252</v>
-      </c>
-      <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="G54" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I54">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>1314777</v>
+        <v>215250</v>
       </c>
       <c r="K54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L54">
-        <v>2788</v>
+        <v>1690</v>
       </c>
       <c r="M54">
-        <v>2773</v>
+        <v>1687</v>
       </c>
       <c r="N54">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P54">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Q54">
-        <v>2898</v>
+        <v>1764</v>
       </c>
       <c r="R54" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="S54">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -5840,18 +5795,18 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F55" t="s">
@@ -5864,37 +5819,37 @@
         <v>335</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J55">
-        <v>1330018</v>
+        <v>43049</v>
       </c>
       <c r="K55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L55">
-        <v>1728</v>
+        <v>1680</v>
       </c>
       <c r="M55">
-        <v>1703</v>
+        <v>1671</v>
       </c>
       <c r="N55">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P55">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q55">
         <v>1764</v>
       </c>
       <c r="R55" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="S55">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5914,61 +5869,61 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56" t="s">
         <v>339</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>340</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>341</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>418459</v>
+      </c>
+      <c r="K56" t="s">
         <v>342</v>
       </c>
-      <c r="H56" t="s">
-        <v>343</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>215250</v>
-      </c>
-      <c r="K56" t="s">
-        <v>343</v>
-      </c>
       <c r="L56">
-        <v>1690</v>
+        <v>1620</v>
       </c>
       <c r="M56">
-        <v>1687</v>
+        <v>1464</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="O56">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P56">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="Q56">
         <v>1764</v>
       </c>
       <c r="R56" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="S56">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5988,18 +5943,18 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" t="s">
-        <v>339</v>
-      </c>
-      <c r="E57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>345</v>
       </c>
       <c r="F57" t="s">
@@ -6012,37 +5967,37 @@
         <v>348</v>
       </c>
       <c r="I57">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>43049</v>
+        <v>237631</v>
       </c>
       <c r="K57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L57">
-        <v>1680</v>
+        <v>1754</v>
       </c>
       <c r="M57">
-        <v>1671</v>
+        <v>1752</v>
       </c>
       <c r="N57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="Q57">
         <v>1764</v>
       </c>
       <c r="R57" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="S57">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -6062,64 +6017,64 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" t="s">
-        <v>350</v>
-      </c>
-      <c r="E58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="F58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>418459</v>
+        <v>671144</v>
       </c>
       <c r="K58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L58">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="M58">
-        <v>1464</v>
+        <v>1591</v>
       </c>
       <c r="N58">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="O58">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P58">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q58">
         <v>1764</v>
       </c>
       <c r="R58" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="S58">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -6131,66 +6086,66 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" t="s">
         <v>358</v>
       </c>
+      <c r="D59" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F59" t="s">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J59">
-        <v>237631</v>
+        <v>684364</v>
       </c>
       <c r="K59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L59">
-        <v>1754</v>
+        <v>680</v>
       </c>
       <c r="M59">
-        <v>1752</v>
+        <v>666</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q59">
-        <v>1764</v>
+        <v>758</v>
       </c>
       <c r="R59" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="S59">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -6210,64 +6165,64 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F60" t="s">
+        <v>367</v>
+      </c>
+      <c r="G60" t="s">
+        <v>368</v>
+      </c>
+      <c r="H60" t="s">
+        <v>369</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>645134</v>
+      </c>
+      <c r="K60" t="s">
+        <v>370</v>
+      </c>
+      <c r="L60">
+        <v>725</v>
+      </c>
+      <c r="M60">
+        <v>697</v>
+      </c>
+      <c r="N60">
+        <v>28</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>26</v>
+      </c>
+      <c r="Q60">
+        <v>758</v>
+      </c>
+      <c r="R60" t="s">
         <v>364</v>
       </c>
-      <c r="E60" t="s">
-        <v>365</v>
-      </c>
-      <c r="F60" t="s">
-        <v>366</v>
-      </c>
-      <c r="G60" t="s">
-        <v>367</v>
-      </c>
-      <c r="H60" t="s">
-        <v>368</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-      <c r="J60">
-        <v>671144</v>
-      </c>
-      <c r="K60" t="s">
-        <v>369</v>
-      </c>
-      <c r="L60">
-        <v>1598</v>
-      </c>
-      <c r="M60">
-        <v>1591</v>
-      </c>
-      <c r="N60">
-        <v>7</v>
-      </c>
-      <c r="O60">
-        <v>28</v>
-      </c>
-      <c r="P60">
-        <v>138</v>
-      </c>
-      <c r="Q60">
-        <v>1764</v>
-      </c>
-      <c r="R60" t="s">
-        <v>337</v>
-      </c>
       <c r="S60">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T60">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -6279,27 +6234,27 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>371</v>
-      </c>
-      <c r="D61" t="s">
         <v>372</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" t="s">
         <v>373</v>
-      </c>
-      <c r="F61" t="s">
-        <v>173</v>
       </c>
       <c r="G61" t="s">
         <v>374</v>
@@ -6308,37 +6263,37 @@
         <v>375</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>684364</v>
+        <v>40302</v>
       </c>
       <c r="K61" t="s">
         <v>376</v>
       </c>
       <c r="L61">
-        <v>680</v>
+        <v>583</v>
       </c>
       <c r="M61">
-        <v>666</v>
+        <v>582</v>
       </c>
       <c r="N61">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P61">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q61">
-        <v>758</v>
+        <v>600</v>
       </c>
       <c r="R61" t="s">
         <v>377</v>
       </c>
       <c r="S61">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -6358,61 +6313,61 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D62" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F62" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G62" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H62" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J62">
-        <v>645134</v>
+        <v>4874</v>
       </c>
       <c r="K62" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L62">
-        <v>725</v>
+        <v>1493</v>
       </c>
       <c r="M62">
-        <v>697</v>
+        <v>1252</v>
       </c>
       <c r="N62">
+        <v>241</v>
+      </c>
+      <c r="O62">
         <v>28</v>
       </c>
-      <c r="O62">
-        <v>7</v>
-      </c>
       <c r="P62">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="Q62">
-        <v>758</v>
+        <v>1614</v>
       </c>
       <c r="R62" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="S62">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -6432,61 +6387,61 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>385</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E63" t="s">
+        <v>389</v>
+      </c>
+      <c r="F63" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" t="s">
         <v>391</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="H63" t="s">
         <v>392</v>
-      </c>
-      <c r="F63" t="s">
-        <v>386</v>
-      </c>
-      <c r="G63" t="s">
-        <v>387</v>
-      </c>
-      <c r="H63" t="s">
-        <v>388</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>40302</v>
+        <v>588596</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L63">
-        <v>583</v>
+        <v>1555</v>
       </c>
       <c r="M63">
-        <v>582</v>
+        <v>1544</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P63">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q63">
-        <v>600</v>
+        <v>1614</v>
       </c>
       <c r="R63" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S63">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -6512,55 +6467,55 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>381</v>
+      </c>
+      <c r="D64" t="s">
         <v>394</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>395</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>396</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>397</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>398</v>
       </c>
-      <c r="H64" t="s">
-        <v>399</v>
-      </c>
       <c r="I64">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>4874</v>
+        <v>64522</v>
       </c>
       <c r="K64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L64">
-        <v>1493</v>
+        <v>1423</v>
       </c>
       <c r="M64">
-        <v>1252</v>
+        <v>1404</v>
       </c>
       <c r="N64">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O64">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="P64">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="Q64">
         <v>1614</v>
       </c>
       <c r="R64" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="S64">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -6580,16 +6535,16 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E65" t="s">
         <v>402</v>
@@ -6604,37 +6559,37 @@
         <v>405</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J65">
-        <v>588596</v>
+        <v>1314790</v>
       </c>
       <c r="K65" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L65">
-        <v>1555</v>
+        <v>738</v>
       </c>
       <c r="M65">
-        <v>1544</v>
+        <v>528</v>
       </c>
       <c r="N65">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="O65">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="P65">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="Q65">
-        <v>1614</v>
+        <v>758</v>
       </c>
       <c r="R65" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="S65">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6654,61 +6609,61 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F66" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G66" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H66" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J66">
-        <v>64522</v>
+        <v>215637</v>
       </c>
       <c r="K66" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L66">
-        <v>1423</v>
+        <v>607</v>
       </c>
       <c r="M66">
-        <v>1404</v>
+        <v>605</v>
       </c>
       <c r="N66">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P66">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="Q66">
-        <v>1614</v>
+        <v>758</v>
       </c>
       <c r="R66" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="S66">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6728,13 +6683,13 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
         <v>414</v>
@@ -6752,37 +6707,37 @@
         <v>418</v>
       </c>
       <c r="I67">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J67">
-        <v>1314790</v>
+        <v>796925</v>
       </c>
       <c r="K67" t="s">
         <v>419</v>
       </c>
       <c r="L67">
-        <v>738</v>
+        <v>605</v>
       </c>
       <c r="M67">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="N67">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="P67">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="Q67">
         <v>758</v>
       </c>
       <c r="R67" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="S67">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6808,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D68" t="s">
         <v>421</v>
@@ -6826,40 +6781,40 @@
         <v>425</v>
       </c>
       <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>763665</v>
+      </c>
+      <c r="K68" t="s">
+        <v>426</v>
+      </c>
+      <c r="L68">
+        <v>661</v>
+      </c>
+      <c r="M68">
+        <v>655</v>
+      </c>
+      <c r="N68">
         <v>6</v>
       </c>
-      <c r="J68">
-        <v>215637</v>
-      </c>
-      <c r="K68" t="s">
-        <v>425</v>
-      </c>
-      <c r="L68">
-        <v>607</v>
-      </c>
-      <c r="M68">
-        <v>605</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
       <c r="O68">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="P68">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="Q68">
         <v>758</v>
       </c>
       <c r="R68" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="S68">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -6871,66 +6826,66 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D69" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F69" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G69" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I69">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J69">
-        <v>796925</v>
+        <v>78915</v>
       </c>
       <c r="K69" t="s">
         <v>432</v>
       </c>
       <c r="L69">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="M69">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="N69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O69">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="P69">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="Q69">
         <v>758</v>
       </c>
       <c r="R69" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="S69">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6945,160 +6900,12 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>433</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>413</v>
-      </c>
-      <c r="D70" t="s">
-        <v>434</v>
-      </c>
-      <c r="E70" t="s">
-        <v>435</v>
-      </c>
-      <c r="F70" t="s">
-        <v>436</v>
-      </c>
-      <c r="G70" t="s">
-        <v>437</v>
-      </c>
-      <c r="H70" t="s">
-        <v>438</v>
-      </c>
-      <c r="I70">
-        <v>8</v>
-      </c>
-      <c r="J70">
-        <v>763665</v>
-      </c>
-      <c r="K70" t="s">
-        <v>439</v>
-      </c>
-      <c r="L70">
-        <v>661</v>
-      </c>
-      <c r="M70">
-        <v>655</v>
-      </c>
-      <c r="N70">
-        <v>6</v>
-      </c>
-      <c r="O70">
-        <v>30</v>
-      </c>
-      <c r="P70">
-        <v>67</v>
-      </c>
-      <c r="Q70">
-        <v>758</v>
-      </c>
-      <c r="R70" t="s">
-        <v>377</v>
-      </c>
-      <c r="S70">
-        <v>91</v>
-      </c>
-      <c r="T70">
-        <v>83</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>440</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>413</v>
-      </c>
-      <c r="D71" t="s">
-        <v>441</v>
-      </c>
-      <c r="E71" t="s">
-        <v>442</v>
-      </c>
-      <c r="F71" t="s">
-        <v>443</v>
-      </c>
-      <c r="G71" t="s">
-        <v>444</v>
-      </c>
-      <c r="H71" t="s">
-        <v>445</v>
-      </c>
-      <c r="I71">
-        <v>30</v>
-      </c>
-      <c r="J71">
-        <v>78915</v>
-      </c>
-      <c r="K71" t="s">
-        <v>445</v>
-      </c>
-      <c r="L71">
-        <v>555</v>
-      </c>
-      <c r="M71">
-        <v>543</v>
-      </c>
-      <c r="N71">
-        <v>12</v>
-      </c>
-      <c r="O71">
-        <v>61</v>
-      </c>
-      <c r="P71">
-        <v>142</v>
-      </c>
-      <c r="Q71">
-        <v>758</v>
-      </c>
-      <c r="R71" t="s">
-        <v>377</v>
-      </c>
-      <c r="S71">
-        <v>81</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7108,7 +6915,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7121,8 +6928,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7132,7 +6939,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7146,6 +6953,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -7157,8 +6976,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7169,20 +6988,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7434,7 +7241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7446,7 +7253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7458,7 +7265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7470,7 +7277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7482,7 +7289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7494,7 +7301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7506,7 +7313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7518,7 +7325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7530,7 +7337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7542,7 +7349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7554,7 +7361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7566,7 +7373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7578,7 +7385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7590,7 +7397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7602,7 +7409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7614,7 +7421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7626,7 +7433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7638,7 +7445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7650,7 +7457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7662,7 +7469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7674,7 +7481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7686,7 +7493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7698,7 +7505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7710,7 +7517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7722,7 +7529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7734,7 +7541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7746,7 +7553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7758,7 +7565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7770,7 +7577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7782,7 +7589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7794,7 +7601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7806,7 +7613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7818,7 +7625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7830,7 +7637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7842,7 +7649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7854,7 +7661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7866,7 +7673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7878,7 +7685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7890,7 +7697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7902,7 +7709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7914,7 +7721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7926,7 +7733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7938,7 +7745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7950,7 +7757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7962,7 +7769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7974,7 +7781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7986,18 +7793,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8009,8 +7804,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="S1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8021,8 +7816,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8062,7 +7857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/proteome-tree/fungal-order-representatives.xlsx
+++ b/data/proteome-tree/fungal-order-representatives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24D63D-0AA4-AC48-B434-F149E649F6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D831C-8AB6-A744-BFB6-1A2F18042407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
+    <workbookView xWindow="2560" yWindow="24760" windowWidth="30240" windowHeight="18880" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="528">
   <si>
     <t>UP000799437</t>
   </si>
@@ -1413,13 +1413,220 @@
   </si>
   <si>
     <t>Rachicladosporium antarcticum</t>
+  </si>
+  <si>
+    <t>UP000030143</t>
+  </si>
+  <si>
+    <t>Penicillium</t>
+  </si>
+  <si>
+    <t>Penicillium expansum</t>
+  </si>
+  <si>
+    <t>Penicillium expansum (Blue mold rot fungus)</t>
+  </si>
+  <si>
+    <t>UP000006706</t>
+  </si>
+  <si>
+    <t>Aspergillus niger</t>
+  </si>
+  <si>
+    <t>Aspergillus niger (strain ATCC MYA-4892 / CBS 513.88 / FGSC A1513)</t>
+  </si>
+  <si>
+    <t>UP000002530</t>
+  </si>
+  <si>
+    <t>Aspergillus fumigatus</t>
+  </si>
+  <si>
+    <t>Aspergillus fumigatus (strain ATCC MYA-4609 / CBS 101355 / FGSC A1100 / Af293) (Neosartorya fumigata)</t>
+  </si>
+  <si>
+    <t>Close to standard (low value)</t>
+  </si>
+  <si>
+    <t>UP000001197</t>
+  </si>
+  <si>
+    <t>Podosporaceae</t>
+  </si>
+  <si>
+    <t>Podospora</t>
+  </si>
+  <si>
+    <t>Podospora anserina</t>
+  </si>
+  <si>
+    <t>Podospora anserina (strain S / ATCC MYA-4624 / DSM 980 / FGSC 10383) (Pleurage anserina)</t>
+  </si>
+  <si>
+    <t>UP000001056</t>
+  </si>
+  <si>
+    <t>Chaetomiaceae</t>
+  </si>
+  <si>
+    <t>Chaetomium</t>
+  </si>
+  <si>
+    <t>Chaetomium globosum</t>
+  </si>
+  <si>
+    <t>Chaetomium globosum (strain ATCC 6205 / CBS 148.51 / DSM 1962 / NBRC 6347 / NRRL 1970) (Soil fungus)</t>
+  </si>
+  <si>
+    <t>UP000007322</t>
+  </si>
+  <si>
+    <t>Thermothelomyces</t>
+  </si>
+  <si>
+    <t>Thermothelomyces thermophilus</t>
+  </si>
+  <si>
+    <t>Thermothelomyces thermophilus (strain ATCC 42464 / BCRC 31852 / DSM 1799) (Sporotrichum thermophile)</t>
+  </si>
+  <si>
+    <t>UP000838763</t>
+  </si>
+  <si>
+    <t>Parascedosporium</t>
+  </si>
+  <si>
+    <t>Parascedosporium putredinis</t>
+  </si>
+  <si>
+    <t>UP000008181</t>
+  </si>
+  <si>
+    <t>Thermothielavioides</t>
+  </si>
+  <si>
+    <t>Thermothielavioides terrestris</t>
+  </si>
+  <si>
+    <t>Thermothielavioides terrestris (strain ATCC 38088 / NRRL 8126) (Thielavia terrestris)</t>
+  </si>
+  <si>
+    <t>UP000008984</t>
+  </si>
+  <si>
+    <t>Hypocreaceae</t>
+  </si>
+  <si>
+    <t>Trichoderma</t>
+  </si>
+  <si>
+    <t>Trichoderma reesei</t>
+  </si>
+  <si>
+    <t>Hypocrea jecorina (strain QM6a) (Trichoderma reesei)</t>
+  </si>
+  <si>
+    <t>UP000070720</t>
+  </si>
+  <si>
+    <t>Fusarium graminearum</t>
+  </si>
+  <si>
+    <t>Gibberella zeae (strain ATCC MYA-4620 / CBS 123657 / FGSC 9075 / NRRL 31084 / PH-1) (Wheat head blight fungus) (Fusarium graminearum)</t>
+  </si>
+  <si>
+    <t>UP000001861</t>
+  </si>
+  <si>
+    <t>Psathyrellaceae</t>
+  </si>
+  <si>
+    <t>Coprinopsis</t>
+  </si>
+  <si>
+    <t>Coprinopsis cinerea</t>
+  </si>
+  <si>
+    <t>Coprinopsis cinerea (strain Okayama-7 / 130 / ATCC MYA-4618 / FGSC 9003) (Inky cap fungus) (Hormographiella aspergillata)</t>
+  </si>
+  <si>
+    <t>UP000008370</t>
+  </si>
+  <si>
+    <t>Phanerochaetaceae</t>
+  </si>
+  <si>
+    <t>Phanerochaete</t>
+  </si>
+  <si>
+    <t>Phanerochaete carnosa</t>
+  </si>
+  <si>
+    <t>Phanerochaete carnosa (strain HHB-10118-sp) (White-rot fungus) (Peniophora carnosa)</t>
+  </si>
+  <si>
+    <t>UP000027073</t>
+  </si>
+  <si>
+    <t>Pleurotaceae</t>
+  </si>
+  <si>
+    <t>Pleurotus</t>
+  </si>
+  <si>
+    <t>Pleurotus ostreatus</t>
+  </si>
+  <si>
+    <t>Pleurotus ostreatus PC15</t>
+  </si>
+  <si>
+    <t>UP000029665</t>
+  </si>
+  <si>
+    <t>Polyporaceae</t>
+  </si>
+  <si>
+    <t>Trametes</t>
+  </si>
+  <si>
+    <t>Trametes cinnabarina</t>
+  </si>
+  <si>
+    <t>Pycnoporus cinnabarinus (Cinnabar-red polypore) (Trametes cinnabarina)</t>
+  </si>
+  <si>
+    <t>UP000194127</t>
+  </si>
+  <si>
+    <t>Dacryobolaceae</t>
+  </si>
+  <si>
+    <t>Postia</t>
+  </si>
+  <si>
+    <t>Postia placenta</t>
+  </si>
+  <si>
+    <t>Postia placenta MAD-698-R-SB12</t>
+  </si>
+  <si>
+    <t>UP000230002</t>
+  </si>
+  <si>
+    <t>Ganoderma</t>
+  </si>
+  <si>
+    <t>Ganoderma sinense</t>
+  </si>
+  <si>
+    <t>Ganoderma sinense ZZ0214-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1427,13 +1634,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1448,9 +1668,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D0C7-4F40-C446-9F60-7FFBC88C7139}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,8 +3351,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>101</v>
+      <c r="A19" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3149,34 +3370,34 @@
         <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>460</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>461</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>5062</v>
+        <v>27334</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="L19">
-        <v>4004</v>
+        <v>4133</v>
       </c>
       <c r="M19">
-        <v>3992</v>
+        <v>4124</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P19">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="Q19">
         <v>4191</v>
@@ -3185,10 +3406,10 @@
         <v>107</v>
       </c>
       <c r="S19">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T19">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3204,8 +3425,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>109</v>
+      <c r="A20" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3217,52 +3438,52 @@
         <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>1215338</v>
+        <v>425011</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>465</v>
       </c>
       <c r="L20">
-        <v>4699</v>
+        <v>3923</v>
       </c>
       <c r="M20">
-        <v>4589</v>
+        <v>3911</v>
       </c>
       <c r="N20">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="O20">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="P20">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="Q20">
-        <v>4862</v>
+        <v>4191</v>
       </c>
       <c r="R20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="S20">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3274,12 +3495,12 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>116</v>
+      <c r="A21" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -3291,52 +3512,52 @@
         <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>467</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>158046</v>
+        <v>330879</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>468</v>
       </c>
       <c r="L21">
-        <v>2694</v>
+        <v>4063</v>
       </c>
       <c r="M21">
-        <v>2689</v>
+        <v>4054</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="P21">
-        <v>617</v>
+        <v>56</v>
       </c>
       <c r="Q21">
-        <v>3546</v>
+        <v>4191</v>
       </c>
       <c r="R21" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="S21">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3348,12 +3569,12 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -3365,52 +3586,52 @@
         <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>364733</v>
+        <v>5062</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="L22">
-        <v>3331</v>
+        <v>4004</v>
       </c>
       <c r="M22">
-        <v>3322</v>
+        <v>3992</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="P22">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q22">
-        <v>3546</v>
+        <v>4191</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="S22">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3422,12 +3643,12 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -3436,52 +3657,52 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1670608</v>
+        <v>1215338</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L23">
-        <v>1517</v>
+        <v>4699</v>
       </c>
       <c r="M23">
-        <v>1513</v>
+        <v>4589</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="O23">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P23">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="Q23">
-        <v>1706</v>
+        <v>4862</v>
       </c>
       <c r="R23" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="S23">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3501,7 +3722,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -3510,52 +3731,52 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>116794</v>
+        <v>158046</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L24">
-        <v>1615</v>
+        <v>2694</v>
       </c>
       <c r="M24">
-        <v>1611</v>
+        <v>2689</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="P24">
-        <v>66</v>
+        <v>617</v>
       </c>
       <c r="Q24">
-        <v>1706</v>
+        <v>3546</v>
       </c>
       <c r="R24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="S24">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3575,7 +3796,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3584,49 +3805,49 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>172621</v>
+        <v>364733</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="L25">
-        <v>1598</v>
+        <v>3331</v>
       </c>
       <c r="M25">
-        <v>1593</v>
+        <v>3322</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P25">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Q25">
-        <v>1706</v>
+        <v>3546</v>
       </c>
       <c r="R25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="S25">
         <v>95</v>
@@ -3649,7 +3870,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -3658,43 +3879,43 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>1940652</v>
+        <v>1670608</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L26">
-        <v>1616</v>
+        <v>1517</v>
       </c>
       <c r="M26">
-        <v>1614</v>
+        <v>1513</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="P26">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>1706</v>
@@ -3703,7 +3924,7 @@
         <v>133</v>
       </c>
       <c r="S26">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3723,7 +3944,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -3732,52 +3953,52 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27">
-        <v>332648</v>
+        <v>116794</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L27">
-        <v>5166</v>
+        <v>1615</v>
       </c>
       <c r="M27">
-        <v>4645</v>
+        <v>1611</v>
       </c>
       <c r="N27">
-        <v>521</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="Q27">
-        <v>5177</v>
+        <v>1706</v>
       </c>
       <c r="R27" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="S27">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3797,7 +4018,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3805,53 +4026,53 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>165</v>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>658429</v>
+        <v>172621</v>
       </c>
       <c r="K28" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L28">
-        <v>3157</v>
+        <v>1598</v>
       </c>
       <c r="M28">
-        <v>3131</v>
+        <v>1593</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="P28">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="Q28">
-        <v>3234</v>
+        <v>1706</v>
       </c>
       <c r="R28" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="S28">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3871,7 +4092,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -3879,44 +4100,44 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>168</v>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>97331</v>
+        <v>1940652</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="L29">
-        <v>1654</v>
+        <v>1616</v>
       </c>
       <c r="M29">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="N29">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P29">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="Q29">
         <v>1706</v>
@@ -3925,7 +4146,7 @@
         <v>133</v>
       </c>
       <c r="S29">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3945,7 +4166,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -3953,53 +4174,53 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>174</v>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J30">
-        <v>656061</v>
+        <v>332648</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="L30">
-        <v>1538</v>
+        <v>5166</v>
       </c>
       <c r="M30">
-        <v>1525</v>
+        <v>4645</v>
       </c>
       <c r="N30">
-        <v>13</v>
+        <v>521</v>
       </c>
       <c r="O30">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="Q30">
-        <v>1706</v>
+        <v>5177</v>
       </c>
       <c r="R30" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="S30">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -4019,7 +4240,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -4027,53 +4248,53 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>181</v>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1408157</v>
+        <v>658429</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L31">
-        <v>3713</v>
+        <v>3157</v>
       </c>
       <c r="M31">
-        <v>3704</v>
+        <v>3131</v>
       </c>
       <c r="N31">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O31">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P31">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="Q31">
-        <v>3817</v>
+        <v>3234</v>
       </c>
       <c r="R31" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="S31">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -4093,7 +4314,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -4101,53 +4322,53 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>188</v>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J32">
-        <v>694573</v>
+        <v>97331</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L32">
-        <v>3648</v>
+        <v>1654</v>
       </c>
       <c r="M32">
-        <v>3638</v>
+        <v>1615</v>
       </c>
       <c r="N32">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="O32">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P32">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="Q32">
-        <v>3817</v>
+        <v>1706</v>
       </c>
       <c r="R32" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="S32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -4167,7 +4388,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -4175,73 +4396,73 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>194</v>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I33">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>474922</v>
+        <v>656061</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="L33">
-        <v>6613</v>
+        <v>1538</v>
       </c>
       <c r="M33">
-        <v>6611</v>
+        <v>1525</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O33">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>118</v>
+      </c>
+      <c r="Q33">
+        <v>1706</v>
+      </c>
+      <c r="R33" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33">
+        <v>93</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>9</v>
-      </c>
-      <c r="P33">
-        <v>219</v>
-      </c>
-      <c r="Q33">
-        <v>6841</v>
-      </c>
-      <c r="R33" t="s">
-        <v>199</v>
-      </c>
-      <c r="S33">
-        <v>96</v>
-      </c>
-      <c r="T33">
-        <v>43</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -4249,56 +4470,56 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>201</v>
+      <c r="E34" t="s">
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J34">
-        <v>485398</v>
+        <v>1408157</v>
       </c>
       <c r="K34" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L34">
-        <v>4448</v>
+        <v>3713</v>
       </c>
       <c r="M34">
-        <v>4392</v>
+        <v>3704</v>
       </c>
       <c r="N34">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="P34">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="Q34">
-        <v>4494</v>
+        <v>3817</v>
       </c>
       <c r="R34" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="S34">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T34">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4310,12 +4531,12 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -4323,56 +4544,56 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>209</v>
+      <c r="E35" t="s">
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I35">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J35">
-        <v>148305</v>
+        <v>474922</v>
       </c>
       <c r="K35" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L35">
-        <v>3744</v>
+        <v>6613</v>
       </c>
       <c r="M35">
-        <v>3735</v>
+        <v>6611</v>
       </c>
       <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
         <v>9</v>
       </c>
-      <c r="O35">
-        <v>12</v>
-      </c>
       <c r="P35">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="Q35">
-        <v>3817</v>
+        <v>6841</v>
       </c>
       <c r="R35" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="S35">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4384,12 +4605,12 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4397,44 +4618,44 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>215</v>
+      <c r="E36" t="s">
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="I36">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>563466</v>
+        <v>694573</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="L36">
-        <v>3094</v>
+        <v>3648</v>
       </c>
       <c r="M36">
-        <v>3081</v>
+        <v>3638</v>
       </c>
       <c r="N36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P36">
-        <v>687</v>
+        <v>131</v>
       </c>
       <c r="Q36">
         <v>3817</v>
@@ -4443,7 +4664,7 @@
         <v>186</v>
       </c>
       <c r="S36">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4462,8 +4683,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>220</v>
+      <c r="A37" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -4471,53 +4692,53 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>221</v>
+      <c r="E37" t="s">
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="G37" t="s">
-        <v>223</v>
-      </c>
-      <c r="H37" t="s">
-        <v>224</v>
+        <v>493</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>1391915</v>
+        <v>431241</v>
       </c>
       <c r="K37" t="s">
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="L37">
-        <v>3656</v>
+        <v>4368</v>
       </c>
       <c r="M37">
-        <v>3650</v>
+        <v>4362</v>
       </c>
       <c r="N37">
         <v>6</v>
       </c>
       <c r="O37">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P37">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="Q37">
-        <v>3817</v>
+        <v>4494</v>
       </c>
       <c r="R37" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="S37">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -4536,8 +4757,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>227</v>
+      <c r="A38" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -4545,56 +4766,56 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>226</v>
+      <c r="E38" t="s">
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" t="s">
-        <v>230</v>
+        <v>203</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J38">
-        <v>367110</v>
+        <v>229533</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="L38">
-        <v>3788</v>
+        <v>4475</v>
       </c>
       <c r="M38">
-        <v>3340</v>
+        <v>4470</v>
       </c>
       <c r="N38">
-        <v>448</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <v>9</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q38">
-        <v>3817</v>
+        <v>4494</v>
       </c>
       <c r="R38" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="S38">
         <v>99</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -4606,12 +4827,12 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4619,56 +4840,56 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>233</v>
+      <c r="E39" t="s">
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="I39">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>485398</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39">
+        <v>4448</v>
+      </c>
+      <c r="M39">
+        <v>4392</v>
+      </c>
+      <c r="N39">
+        <v>56</v>
+      </c>
+      <c r="O39">
         <v>14</v>
       </c>
-      <c r="J39">
-        <v>37992</v>
-      </c>
-      <c r="K39" t="s">
-        <v>236</v>
-      </c>
-      <c r="L39">
-        <v>3626</v>
-      </c>
-      <c r="M39">
-        <v>3616</v>
-      </c>
-      <c r="N39">
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <v>68</v>
-      </c>
       <c r="P39">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="Q39">
-        <v>3817</v>
+        <v>4494</v>
       </c>
       <c r="R39" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="S39">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -4680,66 +4901,66 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>240</v>
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J40">
-        <v>192524</v>
+        <v>148305</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L40">
-        <v>3642</v>
+        <v>3744</v>
       </c>
       <c r="M40">
-        <v>3619</v>
+        <v>3735</v>
       </c>
       <c r="N40">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="P40">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="Q40">
-        <v>3870</v>
+        <v>3817</v>
       </c>
       <c r="R40" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="S40">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4758,62 +4979,62 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>246</v>
+      <c r="A41" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>247</v>
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" t="s">
-        <v>250</v>
+        <v>485</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J41">
-        <v>765440</v>
+        <v>1442378</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>486</v>
       </c>
       <c r="L41">
-        <v>2819</v>
+        <v>2569</v>
       </c>
       <c r="M41">
-        <v>2795</v>
+        <v>2529</v>
       </c>
       <c r="N41">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="O41">
-        <v>54</v>
+        <v>530</v>
       </c>
       <c r="P41">
-        <v>25</v>
+        <v>718</v>
       </c>
       <c r="Q41">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R41" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S41">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -4833,61 +5054,61 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>254</v>
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="H42" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="I42">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <v>563466</v>
+      </c>
+      <c r="K42" t="s">
+        <v>219</v>
+      </c>
+      <c r="L42">
+        <v>3094</v>
+      </c>
+      <c r="M42">
+        <v>3081</v>
+      </c>
+      <c r="N42">
         <v>13</v>
       </c>
-      <c r="J42">
-        <v>1314781</v>
-      </c>
-      <c r="K42" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42">
-        <v>2749</v>
-      </c>
-      <c r="M42">
-        <v>2359</v>
-      </c>
-      <c r="N42">
-        <v>390</v>
-      </c>
       <c r="O42">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P42">
-        <v>110</v>
+        <v>687</v>
       </c>
       <c r="Q42">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R42" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S42">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4907,61 +5128,61 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J43">
-        <v>930992</v>
+        <v>1391915</v>
       </c>
       <c r="K43" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="L43">
-        <v>4793</v>
+        <v>3656</v>
       </c>
       <c r="M43">
-        <v>4739</v>
+        <v>3650</v>
       </c>
       <c r="N43">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="O43">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="P43">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="Q43">
-        <v>4878</v>
+        <v>3817</v>
       </c>
       <c r="R43" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="S43">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4980,62 +5201,62 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>266</v>
+      <c r="A44" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>267</v>
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
+        <v>226</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>471</v>
       </c>
       <c r="G44" t="s">
-        <v>269</v>
-      </c>
-      <c r="H44" t="s">
-        <v>270</v>
+        <v>472</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="I44">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J44">
-        <v>1108050</v>
+        <v>515849</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>474</v>
       </c>
       <c r="L44">
-        <v>2570</v>
+        <v>3744</v>
       </c>
       <c r="M44">
-        <v>2548</v>
+        <v>3739</v>
       </c>
       <c r="N44">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="P44">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="Q44">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R44" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S44">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5054,62 +5275,62 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>272</v>
+      <c r="A45" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>273</v>
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>476</v>
       </c>
       <c r="G45" t="s">
+        <v>477</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>306901</v>
+      </c>
+      <c r="K45" t="s">
+        <v>479</v>
+      </c>
+      <c r="L45">
+        <v>3274</v>
+      </c>
+      <c r="M45">
+        <v>3266</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>268</v>
+      </c>
+      <c r="P45">
         <v>275</v>
       </c>
-      <c r="H45" t="s">
-        <v>276</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>670483</v>
-      </c>
-      <c r="K45" t="s">
-        <v>277</v>
-      </c>
-      <c r="L45">
-        <v>2856</v>
-      </c>
-      <c r="M45">
-        <v>2843</v>
-      </c>
-      <c r="N45">
-        <v>13</v>
-      </c>
-      <c r="O45">
-        <v>24</v>
-      </c>
-      <c r="P45">
-        <v>18</v>
-      </c>
       <c r="Q45">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R45" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S45">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -5128,62 +5349,62 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>278</v>
+      <c r="A46" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>279</v>
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>226</v>
       </c>
       <c r="F46" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="G46" t="s">
-        <v>281</v>
+        <v>488</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>489</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J46">
-        <v>27342</v>
+        <v>578455</v>
       </c>
       <c r="K46" t="s">
-        <v>282</v>
+        <v>490</v>
       </c>
       <c r="L46">
-        <v>2847</v>
+        <v>3646</v>
       </c>
       <c r="M46">
-        <v>2815</v>
+        <v>3633</v>
       </c>
       <c r="N46">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="O46">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="P46">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="Q46">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R46" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S46">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5202,62 +5423,62 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>283</v>
+      <c r="A47" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>284</v>
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="G47" t="s">
-        <v>286</v>
-      </c>
-      <c r="H47" t="s">
-        <v>287</v>
+        <v>481</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <v>933084</v>
+        <v>573729</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="L47">
-        <v>2883</v>
+        <v>3646</v>
       </c>
       <c r="M47">
-        <v>2861</v>
+        <v>3640</v>
       </c>
       <c r="N47">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O47">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="P47">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="Q47">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R47" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S47">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -5277,61 +5498,61 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>290</v>
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
       </c>
       <c r="F48" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H48" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J48">
-        <v>5627</v>
+        <v>367110</v>
       </c>
       <c r="K48" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="L48">
-        <v>3741</v>
+        <v>3788</v>
       </c>
       <c r="M48">
-        <v>3719</v>
+        <v>3340</v>
       </c>
       <c r="N48">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="O48">
-        <v>459</v>
+        <v>9</v>
       </c>
       <c r="P48">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="Q48">
-        <v>4464</v>
+        <v>3817</v>
       </c>
       <c r="R48" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="S48">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5351,61 +5572,61 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>297</v>
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J49">
-        <v>152965</v>
+        <v>37992</v>
       </c>
       <c r="K49" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="L49">
-        <v>2825</v>
+        <v>3626</v>
       </c>
       <c r="M49">
-        <v>2745</v>
+        <v>3616</v>
       </c>
       <c r="N49">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O49">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="P49">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="Q49">
-        <v>2898</v>
+        <v>3817</v>
       </c>
       <c r="R49" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="S49">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -5424,8 +5645,8 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>301</v>
+      <c r="A50" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -5433,53 +5654,53 @@
       <c r="C50" t="s">
         <v>238</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>239</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>302</v>
+      <c r="E50" t="s">
+        <v>240</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>304</v>
-      </c>
-      <c r="H50" t="s">
-        <v>305</v>
+        <v>501</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J50">
-        <v>1109443</v>
+        <v>240176</v>
       </c>
       <c r="K50" t="s">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="L50">
-        <v>2577</v>
+        <v>3708</v>
       </c>
       <c r="M50">
-        <v>2566</v>
+        <v>3683</v>
       </c>
       <c r="N50">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O50">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P50">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="Q50">
-        <v>2898</v>
+        <v>3870</v>
       </c>
       <c r="R50" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S50">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -5498,8 +5719,8 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>307</v>
+      <c r="A51" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5507,53 +5728,53 @@
       <c r="C51" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>308</v>
+      <c r="E51" t="s">
+        <v>240</v>
       </c>
       <c r="F51" t="s">
-        <v>309</v>
+        <v>510</v>
       </c>
       <c r="G51" t="s">
-        <v>310</v>
-      </c>
-      <c r="H51" t="s">
-        <v>311</v>
+        <v>511</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J51">
-        <v>56493</v>
+        <v>1137138</v>
       </c>
       <c r="K51" t="s">
-        <v>311</v>
+        <v>513</v>
       </c>
       <c r="L51">
-        <v>2856</v>
+        <v>3635</v>
       </c>
       <c r="M51">
-        <v>2800</v>
+        <v>3589</v>
       </c>
       <c r="N51">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="P51">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="Q51">
-        <v>2898</v>
+        <v>3870</v>
       </c>
       <c r="R51" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S51">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -5573,7 +5794,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5581,53 +5802,53 @@
       <c r="C52" t="s">
         <v>238</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>239</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>313</v>
+      <c r="E52" t="s">
+        <v>240</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="H52" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="I52">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>1314777</v>
+        <v>192524</v>
       </c>
       <c r="K52" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="L52">
-        <v>2788</v>
+        <v>3642</v>
       </c>
       <c r="M52">
-        <v>2773</v>
+        <v>3619</v>
       </c>
       <c r="N52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O52">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P52">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Q52">
-        <v>2898</v>
+        <v>3870</v>
       </c>
       <c r="R52" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S52">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5647,7 +5868,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5655,50 +5876,50 @@
       <c r="C53" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>319</v>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>247</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="H53" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J53">
-        <v>1330018</v>
+        <v>765440</v>
       </c>
       <c r="K53" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="L53">
-        <v>1728</v>
+        <v>2819</v>
       </c>
       <c r="M53">
-        <v>1703</v>
+        <v>2795</v>
       </c>
       <c r="N53">
+        <v>24</v>
+      </c>
+      <c r="O53">
+        <v>54</v>
+      </c>
+      <c r="P53">
         <v>25</v>
       </c>
-      <c r="O53">
-        <v>19</v>
-      </c>
-      <c r="P53">
-        <v>17</v>
-      </c>
       <c r="Q53">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R53" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="S53">
         <v>99</v>
@@ -5721,7 +5942,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -5729,50 +5950,50 @@
       <c r="C54" t="s">
         <v>238</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>327</v>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>254</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J54">
-        <v>215250</v>
+        <v>1314781</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="L54">
-        <v>1690</v>
+        <v>2749</v>
       </c>
       <c r="M54">
-        <v>1687</v>
+        <v>2359</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>390</v>
       </c>
       <c r="O54">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P54">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="Q54">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R54" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="S54">
         <v>96</v>
@@ -5795,7 +6016,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -5803,53 +6024,53 @@
       <c r="C55" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>332</v>
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
+        <v>260</v>
       </c>
       <c r="F55" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>43049</v>
+        <v>930992</v>
       </c>
       <c r="K55" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="L55">
-        <v>1680</v>
+        <v>4793</v>
       </c>
       <c r="M55">
-        <v>1671</v>
+        <v>4739</v>
       </c>
       <c r="N55">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="O55">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P55">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="Q55">
-        <v>1764</v>
+        <v>4878</v>
       </c>
       <c r="R55" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="S55">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5869,7 +6090,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -5877,53 +6098,53 @@
       <c r="C56" t="s">
         <v>238</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>338</v>
+      <c r="D56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" t="s">
+        <v>267</v>
       </c>
       <c r="F56" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="G56" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J56">
-        <v>418459</v>
+        <v>1108050</v>
       </c>
       <c r="K56" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="L56">
-        <v>1620</v>
+        <v>2570</v>
       </c>
       <c r="M56">
-        <v>1464</v>
+        <v>2548</v>
       </c>
       <c r="N56">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="O56">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="P56">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="Q56">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R56" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="S56">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5943,7 +6164,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -5951,50 +6172,50 @@
       <c r="C57" t="s">
         <v>238</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>345</v>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>273</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="H57" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57">
-        <v>237631</v>
+        <v>670483</v>
       </c>
       <c r="K57" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="L57">
-        <v>1754</v>
+        <v>2856</v>
       </c>
       <c r="M57">
-        <v>1752</v>
+        <v>2843</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P57">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q57">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R57" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="S57">
         <v>99</v>
@@ -6017,7 +6238,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -6025,56 +6246,56 @@
       <c r="C58" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>352</v>
+      <c r="D58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" t="s">
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="H58" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>671144</v>
+        <v>27342</v>
       </c>
       <c r="K58" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="L58">
-        <v>1598</v>
+        <v>2847</v>
       </c>
       <c r="M58">
-        <v>1591</v>
+        <v>2815</v>
       </c>
       <c r="N58">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="O58">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="P58">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="Q58">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R58" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="S58">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T58">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -6086,66 +6307,66 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>360</v>
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" t="s">
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="I59">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J59">
-        <v>684364</v>
+        <v>933084</v>
       </c>
       <c r="K59" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="L59">
-        <v>680</v>
+        <v>2883</v>
       </c>
       <c r="M59">
-        <v>666</v>
+        <v>2861</v>
       </c>
       <c r="N59">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O59">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P59">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="Q59">
-        <v>758</v>
+        <v>2898</v>
       </c>
       <c r="R59" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="S59">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -6164,62 +6385,62 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>365</v>
+      <c r="A60" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>366</v>
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
       </c>
       <c r="F60" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="G60" t="s">
-        <v>368</v>
-      </c>
-      <c r="H60" t="s">
-        <v>369</v>
+        <v>506</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>645134</v>
+        <v>650164</v>
       </c>
       <c r="K60" t="s">
-        <v>370</v>
+        <v>508</v>
       </c>
       <c r="L60">
-        <v>725</v>
+        <v>3954</v>
       </c>
       <c r="M60">
-        <v>697</v>
+        <v>3902</v>
       </c>
       <c r="N60">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O60">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="P60">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="Q60">
-        <v>758</v>
+        <v>4464</v>
       </c>
       <c r="R60" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="S60">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -6238,62 +6459,62 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>371</v>
+      <c r="A61" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>379</v>
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" t="s">
+        <v>290</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>374</v>
-      </c>
-      <c r="H61" t="s">
-        <v>375</v>
+        <v>516</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>40302</v>
+        <v>5643</v>
       </c>
       <c r="K61" t="s">
-        <v>376</v>
+        <v>518</v>
       </c>
       <c r="L61">
-        <v>583</v>
+        <v>3959</v>
       </c>
       <c r="M61">
-        <v>582</v>
+        <v>3948</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O61">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="P61">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="Q61">
-        <v>600</v>
+        <v>4464</v>
       </c>
       <c r="R61" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="S61">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -6312,62 +6533,62 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>380</v>
+      <c r="A62" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="G62" t="s">
-        <v>385</v>
-      </c>
-      <c r="H62" t="s">
-        <v>386</v>
+        <v>521</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>4874</v>
+        <v>670580</v>
       </c>
       <c r="K62" t="s">
-        <v>386</v>
+        <v>523</v>
       </c>
       <c r="L62">
-        <v>1493</v>
+        <v>4213</v>
       </c>
       <c r="M62">
-        <v>1252</v>
+        <v>4184</v>
       </c>
       <c r="N62">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="O62">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="P62">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q62">
-        <v>1614</v>
+        <v>4464</v>
       </c>
       <c r="R62" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="S62">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -6386,62 +6607,62 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>388</v>
+      <c r="A63" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
-        <v>390</v>
+        <v>515</v>
       </c>
       <c r="G63" t="s">
-        <v>391</v>
+        <v>525</v>
       </c>
       <c r="H63" t="s">
-        <v>392</v>
+        <v>526</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>588596</v>
+        <v>1077348</v>
       </c>
       <c r="K63" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
       <c r="L63">
-        <v>1555</v>
+        <v>4020</v>
       </c>
       <c r="M63">
-        <v>1544</v>
+        <v>3971</v>
       </c>
       <c r="N63">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O63">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="P63">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="Q63">
-        <v>1614</v>
+        <v>4464</v>
       </c>
       <c r="R63" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="S63">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -6461,61 +6682,61 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="G64" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64">
-        <v>64522</v>
+        <v>5627</v>
       </c>
       <c r="K64" t="s">
-        <v>398</v>
+        <v>294</v>
       </c>
       <c r="L64">
-        <v>1423</v>
+        <v>3741</v>
       </c>
       <c r="M64">
-        <v>1404</v>
+        <v>3719</v>
       </c>
       <c r="N64">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O64">
-        <v>61</v>
+        <v>459</v>
       </c>
       <c r="P64">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="Q64">
-        <v>1614</v>
+        <v>4464</v>
       </c>
       <c r="R64" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="S64">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -6535,61 +6756,61 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="G65" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
       <c r="H65" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="I65">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J65">
-        <v>1314790</v>
+        <v>152965</v>
       </c>
       <c r="K65" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="L65">
-        <v>738</v>
+        <v>2825</v>
       </c>
       <c r="M65">
-        <v>528</v>
+        <v>2745</v>
       </c>
       <c r="N65">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P65">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="Q65">
-        <v>758</v>
+        <v>2898</v>
       </c>
       <c r="R65" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="S65">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6609,61 +6830,61 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="H66" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J66">
-        <v>215637</v>
+        <v>1109443</v>
       </c>
       <c r="K66" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="L66">
-        <v>607</v>
+        <v>2577</v>
       </c>
       <c r="M66">
-        <v>605</v>
+        <v>2566</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O66">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="P66">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="Q66">
-        <v>758</v>
+        <v>2898</v>
       </c>
       <c r="R66" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="S66">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6683,61 +6904,61 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="G67" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="H67" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="I67">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J67">
-        <v>796925</v>
+        <v>56493</v>
       </c>
       <c r="K67" t="s">
-        <v>419</v>
+        <v>311</v>
       </c>
       <c r="L67">
-        <v>605</v>
+        <v>2856</v>
       </c>
       <c r="M67">
-        <v>595</v>
+        <v>2800</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="O67">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P67">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="Q67">
-        <v>758</v>
+        <v>2898</v>
       </c>
       <c r="R67" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="S67">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6757,64 +6978,64 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="G68" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="H68" t="s">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J68">
-        <v>763665</v>
+        <v>1314777</v>
       </c>
       <c r="K68" t="s">
-        <v>426</v>
+        <v>316</v>
       </c>
       <c r="L68">
-        <v>661</v>
+        <v>2788</v>
       </c>
       <c r="M68">
-        <v>655</v>
+        <v>2773</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O68">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P68">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q68">
-        <v>758</v>
+        <v>2898</v>
       </c>
       <c r="R68" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="S68">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T68">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -6826,86 +7047,1270 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>1330018</v>
+      </c>
+      <c r="K69" t="s">
+        <v>323</v>
+      </c>
+      <c r="L69">
+        <v>1728</v>
+      </c>
+      <c r="M69">
+        <v>1703</v>
+      </c>
+      <c r="N69">
+        <v>25</v>
+      </c>
+      <c r="O69">
+        <v>19</v>
+      </c>
+      <c r="P69">
+        <v>17</v>
+      </c>
+      <c r="Q69">
+        <v>1764</v>
+      </c>
+      <c r="R69" t="s">
+        <v>324</v>
+      </c>
+      <c r="S69">
+        <v>99</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>328</v>
+      </c>
+      <c r="G70" t="s">
+        <v>329</v>
+      </c>
+      <c r="H70" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>215250</v>
+      </c>
+      <c r="K70" t="s">
+        <v>330</v>
+      </c>
+      <c r="L70">
+        <v>1690</v>
+      </c>
+      <c r="M70">
+        <v>1687</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>58</v>
+      </c>
+      <c r="Q70">
+        <v>1764</v>
+      </c>
+      <c r="R70" t="s">
+        <v>324</v>
+      </c>
+      <c r="S70">
+        <v>96</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>331</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" t="s">
+        <v>333</v>
+      </c>
+      <c r="G71" t="s">
+        <v>334</v>
+      </c>
+      <c r="H71" t="s">
+        <v>335</v>
+      </c>
+      <c r="I71">
+        <v>11</v>
+      </c>
+      <c r="J71">
+        <v>43049</v>
+      </c>
+      <c r="K71" t="s">
+        <v>335</v>
+      </c>
+      <c r="L71">
+        <v>1680</v>
+      </c>
+      <c r="M71">
+        <v>1671</v>
+      </c>
+      <c r="N71">
+        <v>9</v>
+      </c>
+      <c r="O71">
+        <v>26</v>
+      </c>
+      <c r="P71">
+        <v>58</v>
+      </c>
+      <c r="Q71">
+        <v>1764</v>
+      </c>
+      <c r="R71" t="s">
+        <v>324</v>
+      </c>
+      <c r="S71">
+        <v>96</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" t="s">
+        <v>339</v>
+      </c>
+      <c r="G72" t="s">
+        <v>340</v>
+      </c>
+      <c r="H72" t="s">
+        <v>341</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>418459</v>
+      </c>
+      <c r="K72" t="s">
+        <v>342</v>
+      </c>
+      <c r="L72">
+        <v>1620</v>
+      </c>
+      <c r="M72">
+        <v>1464</v>
+      </c>
+      <c r="N72">
+        <v>156</v>
+      </c>
+      <c r="O72">
+        <v>35</v>
+      </c>
+      <c r="P72">
+        <v>109</v>
+      </c>
+      <c r="Q72">
+        <v>1764</v>
+      </c>
+      <c r="R72" t="s">
+        <v>324</v>
+      </c>
+      <c r="S72">
+        <v>93</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" t="s">
+        <v>347</v>
+      </c>
+      <c r="H73" t="s">
+        <v>348</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>237631</v>
+      </c>
+      <c r="K73" t="s">
+        <v>349</v>
+      </c>
+      <c r="L73">
+        <v>1754</v>
+      </c>
+      <c r="M73">
+        <v>1752</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>6</v>
+      </c>
+      <c r="Q73">
+        <v>1764</v>
+      </c>
+      <c r="R73" t="s">
+        <v>324</v>
+      </c>
+      <c r="S73">
+        <v>99</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>351</v>
+      </c>
+      <c r="E74" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" t="s">
+        <v>353</v>
+      </c>
+      <c r="G74" t="s">
+        <v>354</v>
+      </c>
+      <c r="H74" t="s">
+        <v>355</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>671144</v>
+      </c>
+      <c r="K74" t="s">
+        <v>356</v>
+      </c>
+      <c r="L74">
+        <v>1598</v>
+      </c>
+      <c r="M74">
+        <v>1591</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+      <c r="O74">
+        <v>28</v>
+      </c>
+      <c r="P74">
+        <v>138</v>
+      </c>
+      <c r="Q74">
+        <v>1764</v>
+      </c>
+      <c r="R74" t="s">
+        <v>324</v>
+      </c>
+      <c r="S74">
+        <v>92</v>
+      </c>
+      <c r="T74">
+        <v>47</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" t="s">
+        <v>360</v>
+      </c>
+      <c r="F75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" t="s">
+        <v>361</v>
+      </c>
+      <c r="H75" t="s">
+        <v>362</v>
+      </c>
+      <c r="I75">
+        <v>12</v>
+      </c>
+      <c r="J75">
+        <v>684364</v>
+      </c>
+      <c r="K75" t="s">
+        <v>363</v>
+      </c>
+      <c r="L75">
+        <v>680</v>
+      </c>
+      <c r="M75">
+        <v>666</v>
+      </c>
+      <c r="N75">
+        <v>14</v>
+      </c>
+      <c r="O75">
+        <v>17</v>
+      </c>
+      <c r="P75">
+        <v>61</v>
+      </c>
+      <c r="Q75">
+        <v>758</v>
+      </c>
+      <c r="R75" t="s">
+        <v>364</v>
+      </c>
+      <c r="S75">
+        <v>91</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" t="s">
+        <v>368</v>
+      </c>
+      <c r="H76" t="s">
+        <v>369</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>645134</v>
+      </c>
+      <c r="K76" t="s">
+        <v>370</v>
+      </c>
+      <c r="L76">
+        <v>725</v>
+      </c>
+      <c r="M76">
+        <v>697</v>
+      </c>
+      <c r="N76">
+        <v>28</v>
+      </c>
+      <c r="O76">
+        <v>7</v>
+      </c>
+      <c r="P76">
+        <v>26</v>
+      </c>
+      <c r="Q76">
+        <v>758</v>
+      </c>
+      <c r="R76" t="s">
+        <v>364</v>
+      </c>
+      <c r="S76">
+        <v>96</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" t="s">
+        <v>374</v>
+      </c>
+      <c r="H77" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>40302</v>
+      </c>
+      <c r="K77" t="s">
+        <v>376</v>
+      </c>
+      <c r="L77">
+        <v>583</v>
+      </c>
+      <c r="M77">
+        <v>582</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>6</v>
+      </c>
+      <c r="P77">
+        <v>11</v>
+      </c>
+      <c r="Q77">
+        <v>600</v>
+      </c>
+      <c r="R77" t="s">
+        <v>377</v>
+      </c>
+      <c r="S77">
+        <v>98</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" t="s">
+        <v>383</v>
+      </c>
+      <c r="F78" t="s">
+        <v>384</v>
+      </c>
+      <c r="G78" t="s">
+        <v>385</v>
+      </c>
+      <c r="H78" t="s">
+        <v>386</v>
+      </c>
+      <c r="I78">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>4874</v>
+      </c>
+      <c r="K78" t="s">
+        <v>386</v>
+      </c>
+      <c r="L78">
+        <v>1493</v>
+      </c>
+      <c r="M78">
+        <v>1252</v>
+      </c>
+      <c r="N78">
+        <v>241</v>
+      </c>
+      <c r="O78">
+        <v>28</v>
+      </c>
+      <c r="P78">
+        <v>93</v>
+      </c>
+      <c r="Q78">
+        <v>1614</v>
+      </c>
+      <c r="R78" t="s">
+        <v>387</v>
+      </c>
+      <c r="S78">
+        <v>94</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" t="s">
+        <v>389</v>
+      </c>
+      <c r="F79" t="s">
+        <v>390</v>
+      </c>
+      <c r="G79" t="s">
+        <v>391</v>
+      </c>
+      <c r="H79" t="s">
+        <v>392</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>588596</v>
+      </c>
+      <c r="K79" t="s">
+        <v>392</v>
+      </c>
+      <c r="L79">
+        <v>1555</v>
+      </c>
+      <c r="M79">
+        <v>1544</v>
+      </c>
+      <c r="N79">
+        <v>11</v>
+      </c>
+      <c r="O79">
+        <v>25</v>
+      </c>
+      <c r="P79">
+        <v>34</v>
+      </c>
+      <c r="Q79">
+        <v>1614</v>
+      </c>
+      <c r="R79" t="s">
+        <v>387</v>
+      </c>
+      <c r="S79">
+        <v>97</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>381</v>
+      </c>
+      <c r="D80" t="s">
+        <v>394</v>
+      </c>
+      <c r="E80" t="s">
+        <v>395</v>
+      </c>
+      <c r="F80" t="s">
+        <v>396</v>
+      </c>
+      <c r="G80" t="s">
+        <v>397</v>
+      </c>
+      <c r="H80" t="s">
+        <v>398</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>64522</v>
+      </c>
+      <c r="K80" t="s">
+        <v>398</v>
+      </c>
+      <c r="L80">
+        <v>1423</v>
+      </c>
+      <c r="M80">
+        <v>1404</v>
+      </c>
+      <c r="N80">
+        <v>19</v>
+      </c>
+      <c r="O80">
+        <v>61</v>
+      </c>
+      <c r="P80">
+        <v>130</v>
+      </c>
+      <c r="Q80">
+        <v>1614</v>
+      </c>
+      <c r="R80" t="s">
+        <v>387</v>
+      </c>
+      <c r="S80">
+        <v>91</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>400</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D81" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" t="s">
+        <v>402</v>
+      </c>
+      <c r="F81" t="s">
+        <v>403</v>
+      </c>
+      <c r="G81" t="s">
+        <v>404</v>
+      </c>
+      <c r="H81" t="s">
+        <v>405</v>
+      </c>
+      <c r="I81">
+        <v>32</v>
+      </c>
+      <c r="J81">
+        <v>1314790</v>
+      </c>
+      <c r="K81" t="s">
+        <v>406</v>
+      </c>
+      <c r="L81">
+        <v>738</v>
+      </c>
+      <c r="M81">
+        <v>528</v>
+      </c>
+      <c r="N81">
+        <v>210</v>
+      </c>
+      <c r="O81">
+        <v>7</v>
+      </c>
+      <c r="P81">
+        <v>13</v>
+      </c>
+      <c r="Q81">
+        <v>758</v>
+      </c>
+      <c r="R81" t="s">
+        <v>364</v>
+      </c>
+      <c r="S81">
+        <v>98</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>400</v>
+      </c>
+      <c r="D82" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" t="s">
+        <v>410</v>
+      </c>
+      <c r="G82" t="s">
+        <v>411</v>
+      </c>
+      <c r="H82" t="s">
+        <v>412</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>215637</v>
+      </c>
+      <c r="K82" t="s">
+        <v>412</v>
+      </c>
+      <c r="L82">
+        <v>607</v>
+      </c>
+      <c r="M82">
+        <v>605</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>55</v>
+      </c>
+      <c r="P82">
+        <v>96</v>
+      </c>
+      <c r="Q82">
+        <v>758</v>
+      </c>
+      <c r="R82" t="s">
+        <v>364</v>
+      </c>
+      <c r="S82">
+        <v>87</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>413</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" t="s">
+        <v>414</v>
+      </c>
+      <c r="E83" t="s">
+        <v>415</v>
+      </c>
+      <c r="F83" t="s">
+        <v>416</v>
+      </c>
+      <c r="G83" t="s">
+        <v>417</v>
+      </c>
+      <c r="H83" t="s">
+        <v>418</v>
+      </c>
+      <c r="I83">
+        <v>48</v>
+      </c>
+      <c r="J83">
+        <v>796925</v>
+      </c>
+      <c r="K83" t="s">
+        <v>419</v>
+      </c>
+      <c r="L83">
+        <v>605</v>
+      </c>
+      <c r="M83">
+        <v>595</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+      <c r="O83">
+        <v>36</v>
+      </c>
+      <c r="P83">
+        <v>117</v>
+      </c>
+      <c r="Q83">
+        <v>758</v>
+      </c>
+      <c r="R83" t="s">
+        <v>364</v>
+      </c>
+      <c r="S83">
+        <v>84</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84" t="s">
+        <v>422</v>
+      </c>
+      <c r="F84" t="s">
+        <v>423</v>
+      </c>
+      <c r="G84" t="s">
+        <v>424</v>
+      </c>
+      <c r="H84" t="s">
+        <v>425</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>763665</v>
+      </c>
+      <c r="K84" t="s">
+        <v>426</v>
+      </c>
+      <c r="L84">
+        <v>661</v>
+      </c>
+      <c r="M84">
+        <v>655</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>30</v>
+      </c>
+      <c r="P84">
+        <v>67</v>
+      </c>
+      <c r="Q84">
+        <v>758</v>
+      </c>
+      <c r="R84" t="s">
+        <v>364</v>
+      </c>
+      <c r="S84">
+        <v>91</v>
+      </c>
+      <c r="T84">
+        <v>83</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>427</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>400</v>
+      </c>
+      <c r="D85" t="s">
         <v>428</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E85" t="s">
         <v>429</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F85" t="s">
         <v>430</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G85" t="s">
         <v>431</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H85" t="s">
         <v>432</v>
       </c>
-      <c r="I69">
+      <c r="I85">
         <v>30</v>
       </c>
-      <c r="J69">
+      <c r="J85">
         <v>78915</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K85" t="s">
         <v>432</v>
       </c>
-      <c r="L69">
+      <c r="L85">
         <v>555</v>
       </c>
-      <c r="M69">
+      <c r="M85">
         <v>543</v>
       </c>
-      <c r="N69">
+      <c r="N85">
         <v>12</v>
       </c>
-      <c r="O69">
+      <c r="O85">
         <v>61</v>
       </c>
-      <c r="P69">
+      <c r="P85">
         <v>142</v>
       </c>
-      <c r="Q69">
+      <c r="Q85">
         <v>758</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R85" t="s">
         <v>364</v>
       </c>
-      <c r="S69">
+      <c r="S85">
         <v>81</v>
       </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69" t="s">
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6915,7 +8320,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6929,7 +8334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6939,7 +8344,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6953,7 +8358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6965,7 +8370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6977,7 +8382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6989,7 +8394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7001,7 +8406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7013,7 +8418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7025,7 +8430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7037,7 +8442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7049,7 +8454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7061,7 +8466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7073,7 +8478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7085,7 +8490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7097,7 +8502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7109,7 +8514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7121,7 +8526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7133,7 +8538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7144,8 +8549,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7156,8 +8561,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7168,8 +8573,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7180,8 +8585,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7192,8 +8597,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7204,8 +8609,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7216,8 +8621,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7228,8 +8633,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7240,8 +8645,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7252,8 +8657,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7264,8 +8669,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7276,8 +8681,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7288,8 +8693,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7300,8 +8705,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7312,8 +8717,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7324,8 +8729,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7336,8 +8741,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="E40">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7348,8 +8753,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7360,8 +8765,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="E43">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7372,8 +8777,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7384,8 +8789,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="E49">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7396,8 +8801,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7408,8 +8813,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7420,8 +8825,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7432,8 +8837,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="E55">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7444,8 +8849,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7456,8 +8861,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7468,8 +8873,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7480,8 +8885,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7492,8 +8897,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7504,8 +8909,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7516,8 +8921,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7528,8 +8933,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7540,8 +8945,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7552,8 +8957,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7564,8 +8969,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7576,8 +8981,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7588,8 +8993,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="E72">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7600,8 +9005,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="E73">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7612,8 +9017,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="E74">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7624,8 +9029,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7636,8 +9041,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7648,8 +9053,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="E77">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7660,8 +9065,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="E78">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7672,8 +9077,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="E79">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7684,8 +9089,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7696,8 +9101,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="E81">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7708,8 +9113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="E82">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7720,8 +9125,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7732,8 +9137,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="E84">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7744,8 +9149,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7756,8 +9161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="S1">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7768,8 +9173,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7779,9 +9184,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28789568-A6B4-E14A-A672-BE23D9344C32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7791,9 +9208,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EDE94DB-C08D-1146-84FA-61962DF6544E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7803,9 +9232,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69FFA11D-494D-6446-B0FB-BE026DD2DB22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7815,9 +9256,309 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D0B7245-0B8D-BA40-8C29-EE61040D8C44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E780FC65-5DE2-7F4E-BB60-2923D346A04F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17F1C07D-752D-034B-A2C9-209CA3D12F4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F582B145-B262-0A41-9F89-BDDDD53F8968}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C147BD63-EFB3-9B40-A344-A25D03C738FD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95358A7B-F4A0-F44F-BB61-4B2A3D6A7128}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6698E25B-5E14-5F4A-A3C3-D9034A09BFE6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76C760AD-0068-F04A-B0B4-E05CEB38C62C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F6AB55D6-261A-1048-9A59-EEA32FC4F4B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A0E8C6D-840B-7640-9ABC-8DB308C46CAE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D706A04B-82F8-5442-9A73-C6D1BCC96967}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S18 S39:S40 S22:S36 S42:S43 S48:S49 S52:S59 S64:S1048576">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7859,6 +9600,214 @@
           </x14:cfRule>
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28789568-A6B4-E14A-A672-BE23D9344C32}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EDE94DB-C08D-1146-84FA-61962DF6544E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69FFA11D-494D-6446-B0FB-BE026DD2DB22}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D0B7245-0B8D-BA40-8C29-EE61040D8C44}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E780FC65-5DE2-7F4E-BB60-2923D346A04F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17F1C07D-752D-034B-A2C9-209CA3D12F4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F582B145-B262-0A41-9F89-BDDDD53F8968}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C147BD63-EFB3-9B40-A344-A25D03C738FD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95358A7B-F4A0-F44F-BB61-4B2A3D6A7128}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6698E25B-5E14-5F4A-A3C3-D9034A09BFE6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76C760AD-0068-F04A-B0B4-E05CEB38C62C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F6AB55D6-261A-1048-9A59-EEA32FC4F4B5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A0E8C6D-840B-7640-9ABC-8DB308C46CAE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D706A04B-82F8-5442-9A73-C6D1BCC96967}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D63</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/proteome-tree/fungal-order-representatives.xlsx
+++ b/data/proteome-tree/fungal-order-representatives.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D831C-8AB6-A744-BFB6-1A2F18042407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12674CF2-C7D3-1F41-B8CC-A0FD1421BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="24760" windowWidth="30240" windowHeight="18880" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1626,7 +1626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1634,15 +1634,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1652,6 +1645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,10 +1667,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2009,13 +2011,13 @@
   <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -2040,7 +2042,7 @@
       <c r="G1" t="s">
         <v>439</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>440</v>
       </c>
       <c r="I1" t="s">
@@ -2114,7 +2116,7 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I2">
@@ -2166,77 +2168,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1504668</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>3575</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>3556</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>19</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>54</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>157</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>3786</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>95</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2262,7 +2264,7 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I4">
@@ -2336,7 +2338,7 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>458</v>
       </c>
       <c r="I5">
@@ -2410,7 +2412,7 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I6">
@@ -2484,7 +2486,7 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I7">
@@ -2558,7 +2560,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I8">
@@ -2632,7 +2634,7 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I9">
@@ -2706,7 +2708,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I10">
@@ -2780,7 +2782,7 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I11">
@@ -2854,7 +2856,7 @@
       <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I12">
@@ -2906,77 +2908,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1346257</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>3552</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>3548</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>4</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>55</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>179</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>3786</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>95</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3002,7 +3004,7 @@
       <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I14">
@@ -3054,77 +3056,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>23</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>5599</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>6554</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>6549</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>27</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>60</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>6641</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <v>99</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="2">
         <v>50</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3150,7 +3152,7 @@
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I16">
@@ -3224,7 +3226,7 @@
       <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I17">
@@ -3298,7 +3300,7 @@
       <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I18">
@@ -3351,7 +3353,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B19" t="s">
@@ -3372,7 +3374,7 @@
       <c r="G19" t="s">
         <v>460</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>461</v>
       </c>
       <c r="I19">
@@ -3425,7 +3427,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B20" t="s">
@@ -3446,7 +3448,7 @@
       <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>464</v>
       </c>
       <c r="I20">
@@ -3499,7 +3501,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B21" t="s">
@@ -3520,7 +3522,7 @@
       <c r="G21" t="s">
         <v>104</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>467</v>
       </c>
       <c r="I21">
@@ -3572,77 +3574,77 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>10</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>5062</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>4004</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>3992</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>12</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>26</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>161</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>4191</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>96</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>35</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3668,7 +3670,7 @@
       <c r="G23" t="s">
         <v>112</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I23">
@@ -3742,7 +3744,7 @@
       <c r="G24" t="s">
         <v>119</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I24">
@@ -3816,7 +3818,7 @@
       <c r="G25" t="s">
         <v>125</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="I25">
@@ -3868,77 +3870,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>4</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>1670608</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>1517</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>1513</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>51</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>138</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>1706</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>91</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3964,7 +3966,7 @@
       <c r="G27" t="s">
         <v>138</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I27">
@@ -4038,7 +4040,7 @@
       <c r="G28" t="s">
         <v>143</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I28">
@@ -4112,7 +4114,7 @@
       <c r="G29" t="s">
         <v>148</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>149</v>
       </c>
       <c r="I29">
@@ -4164,77 +4166,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>11</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>332648</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>5166</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>4645</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>521</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>6</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>5</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>5177</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>99</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4260,7 +4262,7 @@
       <c r="G31" t="s">
         <v>162</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>163</v>
       </c>
       <c r="I31">
@@ -4334,7 +4336,7 @@
       <c r="G32" t="s">
         <v>170</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I32">
@@ -4408,7 +4410,7 @@
       <c r="G33" t="s">
         <v>176</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>177</v>
       </c>
       <c r="I33">
@@ -4482,7 +4484,7 @@
       <c r="G34" t="s">
         <v>183</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I34">
@@ -4556,7 +4558,7 @@
       <c r="G35" t="s">
         <v>196</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>197</v>
       </c>
       <c r="I35">
@@ -4630,7 +4632,7 @@
       <c r="G36" t="s">
         <v>190</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>191</v>
       </c>
       <c r="I36">
@@ -4683,7 +4685,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B37" t="s">
@@ -4704,7 +4706,7 @@
       <c r="G37" t="s">
         <v>493</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>494</v>
       </c>
       <c r="I37">
@@ -4757,7 +4759,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B38" t="s">
@@ -4778,7 +4780,7 @@
       <c r="G38" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="3" t="s">
         <v>497</v>
       </c>
       <c r="I38">
@@ -4852,7 +4854,7 @@
       <c r="G39" t="s">
         <v>203</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>204</v>
       </c>
       <c r="I39">
@@ -4926,7 +4928,7 @@
       <c r="G40" t="s">
         <v>211</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>212</v>
       </c>
       <c r="I40">
@@ -4978,77 +4980,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>19</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>1442378</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>2569</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>2529</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>40</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>530</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="1">
         <v>718</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="1">
         <v>3817</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="1">
         <v>81</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5074,7 +5076,7 @@
       <c r="G42" t="s">
         <v>217</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>218</v>
       </c>
       <c r="I42">
@@ -5148,7 +5150,7 @@
       <c r="G43" t="s">
         <v>223</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>224</v>
       </c>
       <c r="I43">
@@ -5201,7 +5203,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B44" t="s">
@@ -5222,7 +5224,7 @@
       <c r="G44" t="s">
         <v>472</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="3" t="s">
         <v>473</v>
       </c>
       <c r="I44">
@@ -5275,7 +5277,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B45" t="s">
@@ -5296,7 +5298,7 @@
       <c r="G45" t="s">
         <v>477</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="3" t="s">
         <v>478</v>
       </c>
       <c r="I45">
@@ -5349,7 +5351,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B46" t="s">
@@ -5370,7 +5372,7 @@
       <c r="G46" t="s">
         <v>488</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3" t="s">
         <v>489</v>
       </c>
       <c r="I46">
@@ -5423,7 +5425,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B47" t="s">
@@ -5444,7 +5446,7 @@
       <c r="G47" t="s">
         <v>481</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="3" t="s">
         <v>482</v>
       </c>
       <c r="I47">
@@ -5518,7 +5520,7 @@
       <c r="G48" t="s">
         <v>229</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>230</v>
       </c>
       <c r="I48">
@@ -5592,7 +5594,7 @@
       <c r="G49" t="s">
         <v>235</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>236</v>
       </c>
       <c r="I49">
@@ -5645,7 +5647,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B50" t="s">
@@ -5666,7 +5668,7 @@
       <c r="G50" t="s">
         <v>501</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="3" t="s">
         <v>502</v>
       </c>
       <c r="I50">
@@ -5719,7 +5721,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B51" t="s">
@@ -5740,7 +5742,7 @@
       <c r="G51" t="s">
         <v>511</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="3" t="s">
         <v>512</v>
       </c>
       <c r="I51">
@@ -5792,77 +5794,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>6</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>192524</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="1">
         <v>3642</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="1">
         <v>3619</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <v>23</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="1">
         <v>56</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="1">
         <v>172</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="1">
         <v>3870</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="1">
         <v>95</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52" t="s">
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5888,7 +5890,7 @@
       <c r="G53" t="s">
         <v>249</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3" t="s">
         <v>250</v>
       </c>
       <c r="I53">
@@ -5962,7 +5964,7 @@
       <c r="G54" t="s">
         <v>256</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3" t="s">
         <v>257</v>
       </c>
       <c r="I54">
@@ -6036,7 +6038,7 @@
       <c r="G55" t="s">
         <v>262</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I55">
@@ -6110,7 +6112,7 @@
       <c r="G56" t="s">
         <v>269</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3" t="s">
         <v>270</v>
       </c>
       <c r="I56">
@@ -6184,7 +6186,7 @@
       <c r="G57" t="s">
         <v>275</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3" t="s">
         <v>276</v>
       </c>
       <c r="I57">
@@ -6258,7 +6260,7 @@
       <c r="G58" t="s">
         <v>281</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3" t="s">
         <v>282</v>
       </c>
       <c r="I58">
@@ -6332,7 +6334,7 @@
       <c r="G59" t="s">
         <v>286</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3" t="s">
         <v>287</v>
       </c>
       <c r="I59">
@@ -6385,7 +6387,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B60" t="s">
@@ -6406,7 +6408,7 @@
       <c r="G60" t="s">
         <v>506</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="3" t="s">
         <v>507</v>
       </c>
       <c r="I60">
@@ -6459,7 +6461,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B61" t="s">
@@ -6480,7 +6482,7 @@
       <c r="G61" t="s">
         <v>516</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="3" t="s">
         <v>517</v>
       </c>
       <c r="I61">
@@ -6533,7 +6535,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B62" t="s">
@@ -6554,7 +6556,7 @@
       <c r="G62" t="s">
         <v>521</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="3" t="s">
         <v>522</v>
       </c>
       <c r="I62">
@@ -6607,7 +6609,7 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B63" t="s">
@@ -6628,7 +6630,7 @@
       <c r="G63" t="s">
         <v>525</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="3" t="s">
         <v>526</v>
       </c>
       <c r="I63">
@@ -6702,7 +6704,7 @@
       <c r="G64" t="s">
         <v>292</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="3" t="s">
         <v>293</v>
       </c>
       <c r="I64">
@@ -6754,77 +6756,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>11</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>152965</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="1">
         <v>2825</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <v>2745</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>80</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>14</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="1">
         <v>59</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="1">
         <v>2898</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="1">
         <v>97</v>
       </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65" t="s">
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6850,7 +6852,7 @@
       <c r="G66" t="s">
         <v>304</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="3" t="s">
         <v>305</v>
       </c>
       <c r="I66">
@@ -6902,77 +6904,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>10</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>56493</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="1">
         <v>2856</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="1">
         <v>2800</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>56</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <v>9</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="1">
         <v>33</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="1">
         <v>2898</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>98</v>
       </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67" t="s">
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6998,7 +7000,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>315</v>
       </c>
       <c r="I68">
@@ -7072,7 +7074,7 @@
       <c r="G69" t="s">
         <v>321</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="3" t="s">
         <v>322</v>
       </c>
       <c r="I69">
@@ -7146,7 +7148,7 @@
       <c r="G70" t="s">
         <v>329</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="3" t="s">
         <v>330</v>
       </c>
       <c r="I70">
@@ -7220,7 +7222,7 @@
       <c r="G71" t="s">
         <v>334</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="3" t="s">
         <v>335</v>
       </c>
       <c r="I71">
@@ -7294,7 +7296,7 @@
       <c r="G72" t="s">
         <v>340</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="3" t="s">
         <v>341</v>
       </c>
       <c r="I72">
@@ -7368,7 +7370,7 @@
       <c r="G73" t="s">
         <v>347</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="3" t="s">
         <v>348</v>
       </c>
       <c r="I73">
@@ -7442,7 +7444,7 @@
       <c r="G74" t="s">
         <v>354</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="3" t="s">
         <v>355</v>
       </c>
       <c r="I74">
@@ -7494,77 +7496,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>12</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>684364</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <v>680</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>666</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <v>14</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="2">
         <v>17</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="2">
         <v>61</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="2">
         <v>758</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R75" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="2">
         <v>91</v>
       </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75" t="s">
+      <c r="T75" s="2">
+        <v>0</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2">
+        <v>0</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+      <c r="X75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7590,7 +7592,7 @@
       <c r="G76" t="s">
         <v>368</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="3" t="s">
         <v>369</v>
       </c>
       <c r="I76">
@@ -7664,7 +7666,7 @@
       <c r="G77" t="s">
         <v>374</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="3" t="s">
         <v>375</v>
       </c>
       <c r="I77">
@@ -7738,7 +7740,7 @@
       <c r="G78" t="s">
         <v>385</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="3" t="s">
         <v>386</v>
       </c>
       <c r="I78">
@@ -7812,7 +7814,7 @@
       <c r="G79" t="s">
         <v>391</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="3" t="s">
         <v>392</v>
       </c>
       <c r="I79">
@@ -7864,462 +7866,452 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>1</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>64522</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="1">
         <v>1423</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="1">
         <v>1404</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
         <v>19</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="1">
         <v>61</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="1">
         <v>130</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="1">
         <v>1614</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R80" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="1">
         <v>91</v>
       </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80" t="s">
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
+      </c>
+      <c r="X80" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>32</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>1314790</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <v>738</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="2">
         <v>528</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="2">
         <v>210</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <v>7</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="2">
         <v>13</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="2">
         <v>758</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="2">
         <v>98</v>
       </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81" t="s">
+      <c r="T81" s="2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>6</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1">
         <v>215637</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="1">
         <v>607</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="1">
         <v>605</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="1">
         <v>2</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="1">
         <v>55</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="1">
         <v>96</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="1">
         <v>758</v>
       </c>
-      <c r="R82" t="s">
+      <c r="R82" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="1">
         <v>87</v>
       </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82" t="s">
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>48</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>796925</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="2">
         <v>605</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="2">
         <v>595</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="2">
         <v>10</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="2">
         <v>36</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="2">
         <v>117</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="2">
         <v>758</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R83" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="2">
         <v>84</v>
       </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83" t="s">
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>8</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>763665</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="2">
         <v>661</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="2">
         <v>655</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="2">
         <v>6</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="2">
         <v>30</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="2">
         <v>67</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="2">
         <v>758</v>
       </c>
-      <c r="R84" t="s">
+      <c r="R84" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="2">
         <v>91</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="2">
         <v>83</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84" t="s">
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>30</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>78915</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>555</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="2">
         <v>543</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="2">
         <v>12</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="2">
         <v>61</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="2">
         <v>142</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="2">
         <v>758</v>
       </c>
-      <c r="R85" t="s">
+      <c r="R85" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="2">
         <v>81</v>
       </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85" t="s">
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
@@ -8332,9 +8324,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8344,6 +8334,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
@@ -8356,9 +8348,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8369,821 +8359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -9196,9 +8372,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9208,6 +8382,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
@@ -9220,9 +8396,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9232,6 +8406,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -9244,6 +8420,88 @@
         </ext>
       </extLst>
     </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C147BD63-EFB3-9B40-A344-A25D03C738FD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
     <cfRule type="colorScale" priority="31">
@@ -9293,6 +8551,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F582B145-B262-0A41-9F89-BDDDD53F8968}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D47">
     <cfRule type="colorScale" priority="27">
       <colorScale>
@@ -9317,102 +8599,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F582B145-B262-0A41-9F89-BDDDD53F8968}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C147BD63-EFB3-9B40-A344-A25D03C738FD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D50">
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -9437,8 +8623,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76C760AD-0068-F04A-B0B4-E05CEB38C62C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9448,6 +8646,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -9460,9 +8660,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9472,30 +8670,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76C760AD-0068-F04A-B0B4-E05CEB38C62C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -9508,9 +8684,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9520,6 +8694,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -9532,9 +8708,7 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9544,6 +8718,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -9555,6 +8731,832 @@
           <x14:id>{D706A04B-82F8-5442-9A73-C6D1BCC96967}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S18 S39:S40 S22:S36 S42:S43 S48:S49 S52:S59 S64:S1048576">
@@ -9640,6 +9642,45 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C147BD63-EFB3-9B40-A344-A25D03C738FD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0B7245-0B8D-BA40-8C29-EE61040D8C44}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -9666,32 +9707,6 @@
           <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17F1C07D-752D-034B-A2C9-209CA3D12F4F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F582B145-B262-0A41-9F89-BDDDD53F8968}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -9705,7 +9720,7 @@
           <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EE8AA3F-09CE-FF48-8FA1-06EC60BD9F15}">
+          <x14:cfRule type="dataBar" id="{17F1C07D-752D-034B-A2C9-209CA3D12F4F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9715,20 +9730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C147BD63-EFB3-9B40-A344-A25D03C738FD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95358A7B-F4A0-F44F-BB61-4B2A3D6A7128}">
@@ -9744,6 +9746,19 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76C760AD-0068-F04A-B0B4-E05CEB38C62C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6698E25B-5E14-5F4A-A3C3-D9034A09BFE6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -9755,19 +9770,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76C760AD-0068-F04A-B0B4-E05CEB38C62C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6AB55D6-261A-1048-9A59-EEA32FC4F4B5}">

--- a/data/proteome-tree/fungal-order-representatives.xlsx
+++ b/data/proteome-tree/fungal-order-representatives.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12674CF2-C7D3-1F41-B8CC-A0FD1421BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C97492-26A8-D446-8918-CF0E7B7A10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="515">
   <si>
     <t>UP000799437</t>
   </si>
@@ -386,21 +386,6 @@
     <t>onygenales_odb10</t>
   </si>
   <si>
-    <t>UP000053317</t>
-  </si>
-  <si>
-    <t>Phaeomoniellales</t>
-  </si>
-  <si>
-    <t>Phaeomoniellaceae</t>
-  </si>
-  <si>
-    <t>Phaeomoniella</t>
-  </si>
-  <si>
-    <t>Phaeomoniella chlamydospora</t>
-  </si>
-  <si>
     <t>eurotiomycetes_odb10</t>
   </si>
   <si>
@@ -1319,24 +1304,6 @@
     <t>Coemansia reversa (strain ATCC 12441 / NRRL 1564)</t>
   </si>
   <si>
-    <t>UP000271241</t>
-  </si>
-  <si>
-    <t>Zoopagomycetes</t>
-  </si>
-  <si>
-    <t>Zoopagales</t>
-  </si>
-  <si>
-    <t>Sigmoideomycetaceae</t>
-  </si>
-  <si>
-    <t>Thamnocephalis</t>
-  </si>
-  <si>
-    <t>Thamnocephalis sphaerospora</t>
-  </si>
-  <si>
     <t>genome_id</t>
   </si>
   <si>
@@ -1490,15 +1457,6 @@
     <t>Thermothelomyces thermophilus (strain ATCC 42464 / BCRC 31852 / DSM 1799) (Sporotrichum thermophile)</t>
   </si>
   <si>
-    <t>UP000838763</t>
-  </si>
-  <si>
-    <t>Parascedosporium</t>
-  </si>
-  <si>
-    <t>Parascedosporium putredinis</t>
-  </si>
-  <si>
     <t>UP000008181</t>
   </si>
   <si>
@@ -1620,6 +1578,9 @@
   </si>
   <si>
     <t>Ganoderma sinense ZZ0214-1</t>
+  </si>
+  <si>
+    <t>completeness_score</t>
   </si>
 </sst>
 </file>
@@ -1667,13 +1628,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2008,93 +1966,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D0C7-4F40-C446-9F60-7FFBC88C7139}">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>437</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>438</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="S1" t="s">
         <v>440</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>441</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>442</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>443</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
         <v>444</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>445</v>
       </c>
-      <c r="N1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O1" t="s">
-        <v>447</v>
-      </c>
-      <c r="P1" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>449</v>
-      </c>
-      <c r="R1" t="s">
-        <v>450</v>
-      </c>
-      <c r="S1" t="s">
-        <v>451</v>
-      </c>
-      <c r="T1" t="s">
-        <v>452</v>
-      </c>
-      <c r="U1" t="s">
-        <v>453</v>
-      </c>
-      <c r="V1" t="s">
-        <v>454</v>
-      </c>
-      <c r="W1" t="s">
-        <v>455</v>
-      </c>
-      <c r="X1" t="s">
-        <v>456</v>
+      <c r="Y1" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2077,7 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2">
@@ -2167,8 +2128,12 @@
       <c r="X2" t="s">
         <v>9</v>
       </c>
+      <c r="Y2">
+        <f>L2*100/Q2</f>
+        <v>93.79292128895932</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2155,7 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1">
@@ -2241,8 +2206,12 @@
       <c r="X3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y64" si="0">L3*100/Q3</f>
+        <v>94.426835710512421</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2233,7 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4">
@@ -2315,10 +2284,14 @@
       <c r="X4" t="s">
         <v>9</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>89.593238246170102</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2338,8 +2311,8 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>458</v>
+      <c r="H5" t="s">
+        <v>447</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -2348,7 +2321,7 @@
         <v>1507870</v>
       </c>
       <c r="K5" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L5">
         <v>3694</v>
@@ -2389,8 +2362,12 @@
       <c r="X5" t="s">
         <v>9</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>97.569994717379814</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2389,7 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
       <c r="I6">
@@ -2463,8 +2440,12 @@
       <c r="X6" t="s">
         <v>30</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>98.969889064976229</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2467,7 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7">
@@ -2537,8 +2518,12 @@
       <c r="X7" t="s">
         <v>9</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>87.480190174326466</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2560,7 +2545,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>41</v>
       </c>
       <c r="I8">
@@ -2611,8 +2596,12 @@
       <c r="X8" t="s">
         <v>9</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>89.461172741679874</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2634,7 +2623,7 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9">
@@ -2685,8 +2674,12 @@
       <c r="X9" t="s">
         <v>9</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>87.268885367142104</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2708,7 +2701,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
       <c r="I10">
@@ -2759,8 +2752,12 @@
       <c r="X10" t="s">
         <v>9</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>97.147385103011089</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2779,7 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
       <c r="I11">
@@ -2833,8 +2830,12 @@
       <c r="X11" t="s">
         <v>9</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>93.291072371896462</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2856,7 +2857,7 @@
       <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>62</v>
       </c>
       <c r="I12">
@@ -2907,8 +2908,12 @@
       <c r="X12" t="s">
         <v>9</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>98.468040147913371</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2930,7 +2935,7 @@
       <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I13" s="1">
@@ -2981,8 +2986,12 @@
       <c r="X13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>93.819334389857374</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3004,7 +3013,7 @@
       <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>74</v>
       </c>
       <c r="I14">
@@ -3055,8 +3064,12 @@
       <c r="X14" t="s">
         <v>9</v>
       </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>88.404648705758049</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -3078,7 +3091,7 @@
       <c r="G15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I15" s="2">
@@ -3129,8 +3142,12 @@
       <c r="X15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>98.689956331877724</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3152,7 +3169,7 @@
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>86</v>
       </c>
       <c r="I16">
@@ -3203,8 +3220,12 @@
       <c r="X16" t="s">
         <v>9</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>94.241944004226099</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3226,7 +3247,7 @@
       <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>91</v>
       </c>
       <c r="I17">
@@ -3277,8 +3298,12 @@
       <c r="X17" t="s">
         <v>9</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>87.083993660855782</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -3300,7 +3325,7 @@
       <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>98</v>
       </c>
       <c r="I18">
@@ -3351,10 +3376,14 @@
       <c r="X18" t="s">
         <v>9</v>
       </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>97.318435754189949</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3372,10 +3401,10 @@
         <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>460</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
+      </c>
+      <c r="H19" t="s">
+        <v>450</v>
       </c>
       <c r="I19">
         <v>5</v>
@@ -3384,7 +3413,7 @@
         <v>27334</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L19">
         <v>4133</v>
@@ -3425,10 +3454,14 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>98.616082080649008</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3448,8 +3481,8 @@
       <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>464</v>
+      <c r="H20" t="s">
+        <v>453</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3458,7 +3491,7 @@
         <v>425011</v>
       </c>
       <c r="K20" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L20">
         <v>3923</v>
@@ -3497,12 +3530,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>202</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>93.605344786447148</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -3522,8 +3559,8 @@
       <c r="G21" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>467</v>
+      <c r="H21" t="s">
+        <v>456</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -3532,7 +3569,7 @@
         <v>330879</v>
       </c>
       <c r="K21" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L21">
         <v>4063</v>
@@ -3571,10 +3608,14 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>469</v>
+        <v>458</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>96.945836315915059</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -3596,7 +3637,7 @@
       <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I22" s="1">
@@ -3647,8 +3688,12 @@
       <c r="X22" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>95.538057742782158</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -3670,7 +3715,7 @@
       <c r="G23" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>113</v>
       </c>
       <c r="I23">
@@ -3721,10 +3766,14 @@
       <c r="X23" t="s">
         <v>9</v>
       </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>96.647470176881939</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -3736,49 +3785,49 @@
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
       <c r="I24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>158046</v>
+        <v>364733</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L24">
-        <v>2694</v>
+        <v>3331</v>
       </c>
       <c r="M24">
-        <v>2689</v>
+        <v>3322</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O24">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="P24">
-        <v>617</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3546</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="S24">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3795,158 +3844,170 @@
       <c r="X24" t="s">
         <v>9</v>
       </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>93.936830231246475</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>364733</v>
-      </c>
-      <c r="K25" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25">
-        <v>3331</v>
-      </c>
-      <c r="M25">
-        <v>3322</v>
-      </c>
-      <c r="N25">
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1670608</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1517</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1513</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>51</v>
+      </c>
+      <c r="P25" s="1">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1706</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="1">
+        <v>91</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O25">
-        <v>49</v>
-      </c>
-      <c r="P25">
-        <v>166</v>
-      </c>
-      <c r="Q25">
-        <v>3546</v>
-      </c>
-      <c r="R25" t="s">
-        <v>121</v>
-      </c>
-      <c r="S25">
-        <v>95</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>88.921453692848772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>116794</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26">
+        <v>1615</v>
+      </c>
+      <c r="M26">
+        <v>1611</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>66</v>
+      </c>
+      <c r="Q26">
+        <v>1706</v>
+      </c>
+      <c r="R26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S26">
+        <v>96</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>9</v>
       </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>94.665885111371637</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1670608</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1517</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1513</v>
-      </c>
-      <c r="N26" s="1">
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>51</v>
-      </c>
-      <c r="P26" s="1">
-        <v>138</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1706</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S26" s="1">
-        <v>91</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -3955,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>136</v>
@@ -3966,41 +4027,41 @@
       <c r="G27" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" t="s">
         <v>139</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>116794</v>
+        <v>172621</v>
       </c>
       <c r="K27" t="s">
         <v>139</v>
       </c>
       <c r="L27">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="M27">
-        <v>1611</v>
+        <v>1593</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P27">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Q27">
         <v>1706</v>
       </c>
       <c r="R27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S27">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4017,8 +4078,12 @@
       <c r="X27" t="s">
         <v>9</v>
       </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>93.6694021101993</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -4029,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>141</v>
@@ -4040,38 +4105,38 @@
       <c r="G28" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" t="s">
         <v>144</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>172621</v>
+        <v>1940652</v>
       </c>
       <c r="K28" t="s">
         <v>144</v>
       </c>
       <c r="L28">
-        <v>1598</v>
+        <v>1616</v>
       </c>
       <c r="M28">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P28">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q28">
         <v>1706</v>
       </c>
       <c r="R28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S28">
         <v>95</v>
@@ -4091,158 +4156,170 @@
       <c r="X28" t="s">
         <v>9</v>
       </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>94.724501758499414</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="1">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1">
+        <v>332648</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5166</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4645</v>
+      </c>
+      <c r="N29" s="1">
+        <v>521</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>5177</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S29" s="1">
+        <v>99</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>99.787521730732081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>658429</v>
+      </c>
+      <c r="K30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30">
+        <v>3157</v>
+      </c>
+      <c r="M30">
+        <v>3131</v>
+      </c>
+      <c r="N30">
+        <v>26</v>
+      </c>
+      <c r="O30">
+        <v>65</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>3234</v>
+      </c>
+      <c r="R30" t="s">
         <v>146</v>
       </c>
-      <c r="F29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>1940652</v>
-      </c>
-      <c r="K29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29">
-        <v>1616</v>
-      </c>
-      <c r="M29">
-        <v>1614</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29">
-        <v>13</v>
-      </c>
-      <c r="P29">
-        <v>77</v>
-      </c>
-      <c r="Q29">
-        <v>1706</v>
-      </c>
-      <c r="R29" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29">
-        <v>95</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="S30">
+        <v>99</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
         <v>9</v>
       </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>97.61904761904762</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I30" s="1">
-        <v>11</v>
-      </c>
-      <c r="J30" s="1">
-        <v>332648</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L30" s="1">
-        <v>5166</v>
-      </c>
-      <c r="M30" s="1">
-        <v>4645</v>
-      </c>
-      <c r="N30" s="1">
-        <v>521</v>
-      </c>
-      <c r="O30" s="1">
-        <v>6</v>
-      </c>
-      <c r="P30" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>5177</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S30" s="1">
-        <v>99</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -4251,52 +4328,52 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
         <v>165</v>
       </c>
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>163</v>
+      <c r="H31" t="s">
+        <v>166</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J31">
-        <v>658429</v>
+        <v>97331</v>
       </c>
       <c r="K31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L31">
-        <v>3157</v>
+        <v>1654</v>
       </c>
       <c r="M31">
-        <v>3131</v>
+        <v>1615</v>
       </c>
       <c r="N31">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O31">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="P31">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q31">
-        <v>3234</v>
+        <v>1706</v>
       </c>
       <c r="R31" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="S31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -4313,10 +4390,14 @@
       <c r="X31" t="s">
         <v>9</v>
       </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>96.951934349355213</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -4325,52 +4406,52 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="H32" t="s">
+        <v>172</v>
+      </c>
       <c r="I32">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>97331</v>
+        <v>656061</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L32">
-        <v>1654</v>
+        <v>1538</v>
       </c>
       <c r="M32">
-        <v>1615</v>
+        <v>1525</v>
       </c>
       <c r="N32">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="O32">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P32">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="Q32">
         <v>1706</v>
       </c>
       <c r="R32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S32">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -4387,10 +4468,14 @@
       <c r="X32" t="s">
         <v>9</v>
       </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>90.152403282532234</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -4399,52 +4484,52 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J33">
-        <v>656061</v>
+        <v>1408157</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L33">
-        <v>1538</v>
+        <v>3713</v>
       </c>
       <c r="M33">
-        <v>1525</v>
+        <v>3704</v>
       </c>
       <c r="N33">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P33">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="Q33">
-        <v>1706</v>
+        <v>3817</v>
       </c>
       <c r="R33" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="S33">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -4461,10 +4546,14 @@
       <c r="X33" t="s">
         <v>9</v>
       </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>97.275347131254918</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -4473,72 +4562,76 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="J34">
+        <v>474922</v>
+      </c>
+      <c r="K34" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34">
+        <v>6613</v>
+      </c>
+      <c r="M34">
+        <v>6611</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34">
+        <v>219</v>
+      </c>
+      <c r="Q34">
+        <v>6841</v>
+      </c>
+      <c r="R34" t="s">
+        <v>194</v>
+      </c>
+      <c r="S34">
+        <v>96</v>
+      </c>
+      <c r="T34">
+        <v>43</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>96.667153924864792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>182</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34">
-        <v>13</v>
-      </c>
-      <c r="J34">
-        <v>1408157</v>
-      </c>
-      <c r="K34" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34">
-        <v>3713</v>
-      </c>
-      <c r="M34">
-        <v>3704</v>
-      </c>
-      <c r="N34">
-        <v>9</v>
-      </c>
-      <c r="O34">
-        <v>55</v>
-      </c>
-      <c r="P34">
-        <v>49</v>
-      </c>
-      <c r="Q34">
-        <v>3817</v>
-      </c>
-      <c r="R34" t="s">
-        <v>186</v>
-      </c>
-      <c r="S34">
-        <v>98</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>193</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -4547,55 +4640,55 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>186</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>474922</v>
+        <v>694573</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L35">
-        <v>6613</v>
+        <v>3648</v>
       </c>
       <c r="M35">
-        <v>6611</v>
+        <v>3638</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="P35">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="Q35">
-        <v>6841</v>
+        <v>3817</v>
       </c>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="S35">
         <v>96</v>
       </c>
       <c r="T35">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4607,12 +4700,16 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>108</v>
+        <v>9</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>95.572439088289229</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>187</v>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4621,52 +4718,52 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>191</v>
+        <v>479</v>
+      </c>
+      <c r="H36" t="s">
+        <v>480</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>694573</v>
+        <v>431241</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
       <c r="L36">
-        <v>3648</v>
+        <v>4368</v>
       </c>
       <c r="M36">
-        <v>3638</v>
+        <v>4362</v>
       </c>
       <c r="N36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P36">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="Q36">
-        <v>3817</v>
+        <v>4494</v>
       </c>
       <c r="R36" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="S36">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4683,10 +4780,14 @@
       <c r="X36" t="s">
         <v>9</v>
       </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>97.196261682242991</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -4695,55 +4796,55 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>492</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s">
-        <v>493</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>494</v>
+        <v>198</v>
+      </c>
+      <c r="H37" t="s">
+        <v>483</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>431241</v>
+        <v>229533</v>
       </c>
       <c r="K37" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="L37">
-        <v>4368</v>
+        <v>4475</v>
       </c>
       <c r="M37">
-        <v>4362</v>
+        <v>4470</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="P37">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="Q37">
         <v>4494</v>
       </c>
       <c r="R37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4755,12 +4856,16 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>99.57721406319537</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>496</v>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>195</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -4769,49 +4874,49 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>497</v>
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J38">
-        <v>229533</v>
+        <v>485398</v>
       </c>
       <c r="K38" t="s">
-        <v>498</v>
+        <v>200</v>
       </c>
       <c r="L38">
-        <v>4475</v>
+        <v>4448</v>
       </c>
       <c r="M38">
-        <v>4470</v>
+        <v>4392</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="O38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Q38">
         <v>4494</v>
       </c>
       <c r="R38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S38">
         <v>99</v>
@@ -4829,12 +4934,16 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
+        <v>202</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>98.976412995104582</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4843,55 +4952,55 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>207</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J39">
-        <v>485398</v>
+        <v>148305</v>
       </c>
       <c r="K39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L39">
-        <v>4448</v>
+        <v>3744</v>
       </c>
       <c r="M39">
-        <v>4392</v>
+        <v>3735</v>
       </c>
       <c r="N39">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="O39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P39">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="Q39">
-        <v>4494</v>
+        <v>3817</v>
       </c>
       <c r="R39" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="S39">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T39">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -4903,12 +5012,16 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>207</v>
+        <v>9</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>98.087503274823163</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -4917,52 +5030,52 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
-      </c>
-      <c r="H40" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="H40" t="s">
+        <v>213</v>
+      </c>
       <c r="I40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40">
-        <v>148305</v>
+        <v>563466</v>
       </c>
       <c r="K40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L40">
-        <v>3744</v>
+        <v>3094</v>
       </c>
       <c r="M40">
-        <v>3735</v>
+        <v>3081</v>
       </c>
       <c r="N40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O40">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P40">
-        <v>61</v>
+        <v>687</v>
       </c>
       <c r="Q40">
         <v>3817</v>
       </c>
       <c r="R40" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S40">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -4979,84 +5092,92 @@
       <c r="X40" t="s">
         <v>9</v>
       </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>81.058422845166362</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
         <v>216</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="I41" s="1">
-        <v>19</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1442378</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L41" s="1">
-        <v>2569</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2529</v>
-      </c>
-      <c r="N41" s="1">
-        <v>40</v>
-      </c>
-      <c r="O41" s="1">
-        <v>530</v>
-      </c>
-      <c r="P41" s="1">
-        <v>718</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="F41" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>1391915</v>
+      </c>
+      <c r="K41" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41">
+        <v>3656</v>
+      </c>
+      <c r="M41">
+        <v>3650</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>43</v>
+      </c>
+      <c r="P41">
+        <v>118</v>
+      </c>
+      <c r="Q41">
         <v>3817</v>
       </c>
-      <c r="R41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S41" s="1">
-        <v>81</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1" t="s">
+      <c r="R41" t="s">
+        <v>181</v>
+      </c>
+      <c r="S41">
+        <v>96</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
         <v>9</v>
       </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>95.782027770500392</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>214</v>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -5065,52 +5186,52 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>460</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>218</v>
+        <v>461</v>
+      </c>
+      <c r="H42" t="s">
+        <v>462</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42">
-        <v>563466</v>
+        <v>515849</v>
       </c>
       <c r="K42" t="s">
-        <v>219</v>
+        <v>463</v>
       </c>
       <c r="L42">
-        <v>3094</v>
+        <v>3744</v>
       </c>
       <c r="M42">
-        <v>3081</v>
+        <v>3739</v>
       </c>
       <c r="N42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P42">
-        <v>687</v>
+        <v>47</v>
       </c>
       <c r="Q42">
         <v>3817</v>
       </c>
       <c r="R42" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S42">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -5127,10 +5248,14 @@
       <c r="X42" t="s">
         <v>9</v>
       </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>98.087503274823163</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>220</v>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -5139,52 +5264,52 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
         <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>465</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>224</v>
+        <v>466</v>
+      </c>
+      <c r="H43" t="s">
+        <v>467</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J43">
-        <v>1391915</v>
+        <v>306901</v>
       </c>
       <c r="K43" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="L43">
-        <v>3656</v>
+        <v>3274</v>
       </c>
       <c r="M43">
-        <v>3650</v>
+        <v>3266</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O43">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="P43">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>3817</v>
       </c>
       <c r="R43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S43">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -5201,10 +5326,14 @@
       <c r="X43" t="s">
         <v>9</v>
       </c>
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>85.774168194917479</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -5213,52 +5342,52 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G44" t="s">
-        <v>472</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="H44" t="s">
+        <v>475</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>515849</v>
+        <v>578455</v>
       </c>
       <c r="K44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L44">
-        <v>3744</v>
+        <v>3646</v>
       </c>
       <c r="M44">
-        <v>3739</v>
+        <v>3633</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O44">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="P44">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>3817</v>
       </c>
       <c r="R44" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S44">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5275,10 +5404,14 @@
       <c r="X44" t="s">
         <v>9</v>
       </c>
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>95.520041917736435</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -5287,52 +5420,52 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
+      </c>
+      <c r="H45" t="s">
+        <v>471</v>
       </c>
       <c r="I45">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>306901</v>
+        <v>573729</v>
       </c>
       <c r="K45" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L45">
-        <v>3274</v>
+        <v>3646</v>
       </c>
       <c r="M45">
-        <v>3266</v>
+        <v>3640</v>
       </c>
       <c r="N45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O45">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="P45">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="Q45">
         <v>3817</v>
       </c>
       <c r="R45" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S45">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -5349,10 +5482,14 @@
       <c r="X45" t="s">
         <v>9</v>
       </c>
+      <c r="Y45">
+        <f t="shared" si="0"/>
+        <v>95.520041917736435</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>487</v>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>222</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -5361,52 +5498,52 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>367110</v>
+      </c>
+      <c r="K46" t="s">
         <v>226</v>
       </c>
-      <c r="F46" t="s">
-        <v>476</v>
-      </c>
-      <c r="G46" t="s">
-        <v>488</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="I46">
-        <v>10</v>
-      </c>
-      <c r="J46">
-        <v>578455</v>
-      </c>
-      <c r="K46" t="s">
-        <v>490</v>
-      </c>
       <c r="L46">
-        <v>3646</v>
+        <v>3788</v>
       </c>
       <c r="M46">
-        <v>3633</v>
+        <v>3340</v>
       </c>
       <c r="N46">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="O46">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="P46">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q46">
         <v>3817</v>
       </c>
       <c r="R46" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S46">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5423,10 +5560,14 @@
       <c r="X46" t="s">
         <v>9</v>
       </c>
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>99.240241026984549</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>480</v>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>227</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -5435,52 +5576,52 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>476</v>
+        <v>229</v>
       </c>
       <c r="G47" t="s">
-        <v>481</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>482</v>
+        <v>230</v>
+      </c>
+      <c r="H47" t="s">
+        <v>231</v>
       </c>
       <c r="I47">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>37992</v>
+      </c>
+      <c r="K47" t="s">
+        <v>231</v>
+      </c>
+      <c r="L47">
+        <v>3626</v>
+      </c>
+      <c r="M47">
+        <v>3616</v>
+      </c>
+      <c r="N47">
         <v>10</v>
       </c>
-      <c r="J47">
-        <v>573729</v>
-      </c>
-      <c r="K47" t="s">
-        <v>483</v>
-      </c>
-      <c r="L47">
-        <v>3646</v>
-      </c>
-      <c r="M47">
-        <v>3640</v>
-      </c>
-      <c r="N47">
-        <v>6</v>
-      </c>
       <c r="O47">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P47">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="Q47">
         <v>3817</v>
       </c>
       <c r="R47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S47">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -5497,64 +5638,68 @@
       <c r="X47" t="s">
         <v>9</v>
       </c>
+      <c r="Y47">
+        <f t="shared" si="0"/>
+        <v>94.996070212208537</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>227</v>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>486</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>230</v>
+        <v>487</v>
+      </c>
+      <c r="H48" t="s">
+        <v>488</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J48">
-        <v>367110</v>
+        <v>240176</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>489</v>
       </c>
       <c r="L48">
-        <v>3788</v>
+        <v>3708</v>
       </c>
       <c r="M48">
-        <v>3340</v>
+        <v>3683</v>
       </c>
       <c r="N48">
-        <v>448</v>
+        <v>25</v>
       </c>
       <c r="O48">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="P48">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="Q48">
-        <v>3817</v>
+        <v>3870</v>
       </c>
       <c r="R48" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="S48">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5571,64 +5716,68 @@
       <c r="X48" t="s">
         <v>9</v>
       </c>
+      <c r="Y48">
+        <f t="shared" si="0"/>
+        <v>95.813953488372093</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>232</v>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>496</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>236</v>
+        <v>497</v>
+      </c>
+      <c r="H49" t="s">
+        <v>498</v>
       </c>
       <c r="I49">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>37992</v>
+        <v>1137138</v>
       </c>
       <c r="K49" t="s">
-        <v>236</v>
+        <v>499</v>
       </c>
       <c r="L49">
-        <v>3626</v>
+        <v>3635</v>
       </c>
       <c r="M49">
-        <v>3616</v>
+        <v>3589</v>
       </c>
       <c r="N49">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="O49">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="P49">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Q49">
-        <v>3817</v>
+        <v>3870</v>
       </c>
       <c r="R49" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="S49">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -5645,138 +5794,146 @@
       <c r="X49" t="s">
         <v>9</v>
       </c>
+      <c r="Y49">
+        <f t="shared" si="0"/>
+        <v>93.927648578811372</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D50" t="s">
+      <c r="I50" s="1">
+        <v>6</v>
+      </c>
+      <c r="J50" s="1">
+        <v>192524</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E50" t="s">
+      <c r="L50" s="1">
+        <v>3642</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3619</v>
+      </c>
+      <c r="N50" s="1">
+        <v>23</v>
+      </c>
+      <c r="O50" s="1">
+        <v>56</v>
+      </c>
+      <c r="P50" s="1">
+        <v>172</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>3870</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F50" t="s">
-        <v>500</v>
-      </c>
-      <c r="G50" t="s">
-        <v>501</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>240176</v>
-      </c>
-      <c r="K50" t="s">
-        <v>503</v>
-      </c>
-      <c r="L50">
-        <v>3708</v>
-      </c>
-      <c r="M50">
-        <v>3683</v>
-      </c>
-      <c r="N50">
-        <v>25</v>
-      </c>
-      <c r="O50">
-        <v>80</v>
-      </c>
-      <c r="P50">
-        <v>82</v>
-      </c>
-      <c r="Q50">
-        <v>3870</v>
-      </c>
-      <c r="R50" t="s">
-        <v>245</v>
-      </c>
-      <c r="S50">
-        <v>97</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="S50" s="1">
+        <v>95</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>94.108527131782949</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>509</v>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>241</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>510</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>511</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>512</v>
+        <v>244</v>
+      </c>
+      <c r="H51" t="s">
+        <v>245</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J51">
-        <v>1137138</v>
+        <v>765440</v>
       </c>
       <c r="K51" t="s">
-        <v>513</v>
+        <v>246</v>
       </c>
       <c r="L51">
-        <v>3635</v>
+        <v>2819</v>
       </c>
       <c r="M51">
-        <v>3589</v>
+        <v>2795</v>
       </c>
       <c r="N51">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O51">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P51">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="Q51">
-        <v>3870</v>
+        <v>2898</v>
       </c>
       <c r="R51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S51">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -5793,135 +5950,143 @@
       <c r="X51" t="s">
         <v>9</v>
       </c>
+      <c r="Y51">
+        <f t="shared" si="0"/>
+        <v>97.273982056590754</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="1">
-        <v>6</v>
-      </c>
-      <c r="J52" s="1">
-        <v>192524</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L52" s="1">
-        <v>3642</v>
-      </c>
-      <c r="M52" s="1">
-        <v>3619</v>
-      </c>
-      <c r="N52" s="1">
-        <v>23</v>
-      </c>
-      <c r="O52" s="1">
-        <v>56</v>
-      </c>
-      <c r="P52" s="1">
-        <v>172</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>3870</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="S52" s="1">
-        <v>95</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1">
-        <v>0</v>
-      </c>
-      <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="1">
-        <v>0</v>
-      </c>
-      <c r="X52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <v>1314781</v>
+      </c>
+      <c r="K52" t="s">
+        <v>253</v>
+      </c>
+      <c r="L52">
+        <v>2749</v>
+      </c>
+      <c r="M52">
+        <v>2359</v>
+      </c>
+      <c r="N52">
+        <v>390</v>
+      </c>
+      <c r="O52">
+        <v>39</v>
+      </c>
+      <c r="P52">
+        <v>110</v>
+      </c>
+      <c r="Q52">
+        <v>2898</v>
+      </c>
+      <c r="R52" t="s">
+        <v>247</v>
+      </c>
+      <c r="S52">
+        <v>96</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>9</v>
       </c>
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>94.858523119392686</v>
+      </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>249</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
+      </c>
+      <c r="H53" t="s">
+        <v>258</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>765440</v>
+        <v>930992</v>
       </c>
       <c r="K53" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L53">
-        <v>2819</v>
+        <v>4793</v>
       </c>
       <c r="M53">
-        <v>2795</v>
+        <v>4739</v>
       </c>
       <c r="N53">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O53">
         <v>54</v>
       </c>
       <c r="P53">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q53">
-        <v>2898</v>
+        <v>4878</v>
       </c>
       <c r="R53" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="S53">
         <v>99</v>
@@ -5941,64 +6106,68 @@
       <c r="X53" t="s">
         <v>9</v>
       </c>
+      <c r="Y53">
+        <f t="shared" si="0"/>
+        <v>98.257482574825744</v>
+      </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="H54" t="s">
+        <v>265</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J54">
-        <v>1314781</v>
+        <v>1108050</v>
       </c>
       <c r="K54" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L54">
-        <v>2749</v>
+        <v>2570</v>
       </c>
       <c r="M54">
-        <v>2359</v>
+        <v>2548</v>
       </c>
       <c r="N54">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="O54">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="P54">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>2898</v>
       </c>
       <c r="R54" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S54">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -6015,61 +6184,65 @@
       <c r="X54" t="s">
         <v>9</v>
       </c>
+      <c r="Y54">
+        <f t="shared" si="0"/>
+        <v>88.681849551414771</v>
+      </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G55" t="s">
-        <v>262</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
+      </c>
+      <c r="H55" t="s">
+        <v>271</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>930992</v>
+        <v>670483</v>
       </c>
       <c r="K55" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L55">
-        <v>4793</v>
+        <v>2856</v>
       </c>
       <c r="M55">
-        <v>4739</v>
+        <v>2843</v>
       </c>
       <c r="N55">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="O55">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P55">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q55">
-        <v>4878</v>
+        <v>2898</v>
       </c>
       <c r="R55" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="S55">
         <v>99</v>
@@ -6089,64 +6262,68 @@
       <c r="X55" t="s">
         <v>9</v>
       </c>
+      <c r="Y55">
+        <f t="shared" si="0"/>
+        <v>98.550724637681157</v>
+      </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="H56" t="s">
+        <v>277</v>
       </c>
       <c r="I56">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1108050</v>
+        <v>27342</v>
       </c>
       <c r="K56" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L56">
-        <v>2570</v>
+        <v>2847</v>
       </c>
       <c r="M56">
-        <v>2548</v>
+        <v>2815</v>
       </c>
       <c r="N56">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O56">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P56">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="Q56">
         <v>2898</v>
       </c>
       <c r="R56" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S56">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -6163,61 +6340,65 @@
       <c r="X56" t="s">
         <v>9</v>
       </c>
+      <c r="Y56">
+        <f t="shared" si="0"/>
+        <v>98.240165631469978</v>
+      </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G57" t="s">
-        <v>275</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+      <c r="H57" t="s">
+        <v>282</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>670483</v>
+        <v>933084</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L57">
-        <v>2856</v>
+        <v>2883</v>
       </c>
       <c r="M57">
-        <v>2843</v>
+        <v>2861</v>
       </c>
       <c r="N57">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O57">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P57">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q57">
         <v>2898</v>
       </c>
       <c r="R57" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S57">
         <v>99</v>
@@ -6237,64 +6418,68 @@
       <c r="X57" t="s">
         <v>9</v>
       </c>
+      <c r="Y57">
+        <f t="shared" si="0"/>
+        <v>99.482401656314707</v>
+      </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>278</v>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>491</v>
       </c>
       <c r="G58" t="s">
-        <v>281</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>282</v>
+        <v>492</v>
+      </c>
+      <c r="H58" t="s">
+        <v>493</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>27342</v>
+        <v>650164</v>
       </c>
       <c r="K58" t="s">
-        <v>282</v>
+        <v>494</v>
       </c>
       <c r="L58">
-        <v>2847</v>
+        <v>3954</v>
       </c>
       <c r="M58">
-        <v>2815</v>
+        <v>3902</v>
       </c>
       <c r="N58">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O58">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="P58">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="Q58">
-        <v>2898</v>
+        <v>4464</v>
       </c>
       <c r="R58" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="S58">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -6311,64 +6496,68 @@
       <c r="X58" t="s">
         <v>9</v>
       </c>
+      <c r="Y58">
+        <f t="shared" si="0"/>
+        <v>88.575268817204304</v>
+      </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>283</v>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
-        <v>286</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>287</v>
+        <v>502</v>
+      </c>
+      <c r="H59" t="s">
+        <v>503</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>933084</v>
+        <v>5643</v>
       </c>
       <c r="K59" t="s">
-        <v>288</v>
+        <v>504</v>
       </c>
       <c r="L59">
-        <v>2883</v>
+        <v>3959</v>
       </c>
       <c r="M59">
-        <v>2861</v>
+        <v>3948</v>
       </c>
       <c r="N59">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O59">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="P59">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="Q59">
-        <v>2898</v>
+        <v>4464</v>
       </c>
       <c r="R59" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="S59">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -6385,64 +6574,68 @@
       <c r="X59" t="s">
         <v>9</v>
       </c>
+      <c r="Y59">
+        <f t="shared" si="0"/>
+        <v>88.687275985663078</v>
+      </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G60" t="s">
-        <v>506</v>
-      </c>
-      <c r="H60" s="3" t="s">
         <v>507</v>
       </c>
+      <c r="H60" t="s">
+        <v>508</v>
+      </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>650164</v>
+        <v>670580</v>
       </c>
       <c r="K60" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L60">
-        <v>3954</v>
+        <v>4213</v>
       </c>
       <c r="M60">
-        <v>3902</v>
+        <v>4184</v>
       </c>
       <c r="N60">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="O60">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="P60">
-        <v>309</v>
+        <v>111</v>
       </c>
       <c r="Q60">
         <v>4464</v>
       </c>
       <c r="R60" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S60">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -6459,64 +6652,68 @@
       <c r="X60" t="s">
         <v>9</v>
       </c>
+      <c r="Y60">
+        <f t="shared" si="0"/>
+        <v>94.377240143369178</v>
+      </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G61" t="s">
-        <v>516</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
+      </c>
+      <c r="H61" t="s">
+        <v>512</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>5643</v>
+        <v>1077348</v>
       </c>
       <c r="K61" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L61">
-        <v>3959</v>
+        <v>4020</v>
       </c>
       <c r="M61">
-        <v>3948</v>
+        <v>3971</v>
       </c>
       <c r="N61">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O61">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="P61">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>4464</v>
       </c>
       <c r="R61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S61">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -6533,64 +6730,68 @@
       <c r="X61" t="s">
         <v>9</v>
       </c>
+      <c r="Y61">
+        <f t="shared" si="0"/>
+        <v>90.053763440860209</v>
+      </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>519</v>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>520</v>
+        <v>286</v>
       </c>
       <c r="G62" t="s">
-        <v>521</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>522</v>
+        <v>287</v>
+      </c>
+      <c r="H62" t="s">
+        <v>288</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>670580</v>
+        <v>5627</v>
       </c>
       <c r="K62" t="s">
-        <v>523</v>
+        <v>289</v>
       </c>
       <c r="L62">
-        <v>4213</v>
+        <v>3741</v>
       </c>
       <c r="M62">
-        <v>4184</v>
+        <v>3719</v>
       </c>
       <c r="N62">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O62">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="P62">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="Q62">
         <v>4464</v>
       </c>
       <c r="R62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S62">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -6607,138 +6808,146 @@
       <c r="X62" t="s">
         <v>9</v>
       </c>
+      <c r="Y62">
+        <f t="shared" si="0"/>
+        <v>83.803763440860209</v>
+      </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>238</v>
-      </c>
-      <c r="D63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" t="s">
-        <v>290</v>
-      </c>
-      <c r="F63" t="s">
-        <v>515</v>
-      </c>
-      <c r="G63" t="s">
-        <v>525</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-      <c r="J63">
-        <v>1077348</v>
-      </c>
-      <c r="K63" t="s">
-        <v>527</v>
-      </c>
-      <c r="L63">
-        <v>4020</v>
-      </c>
-      <c r="M63">
-        <v>3971</v>
-      </c>
-      <c r="N63">
-        <v>49</v>
-      </c>
-      <c r="O63">
-        <v>222</v>
-      </c>
-      <c r="P63">
-        <v>222</v>
-      </c>
-      <c r="Q63">
-        <v>4464</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="S63">
-        <v>95</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63" t="s">
+      <c r="I63" s="1">
+        <v>11</v>
+      </c>
+      <c r="J63" s="1">
+        <v>152965</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2825</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2745</v>
+      </c>
+      <c r="N63" s="1">
+        <v>80</v>
+      </c>
+      <c r="O63" s="1">
+        <v>14</v>
+      </c>
+      <c r="P63" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>2898</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S63" s="1">
+        <v>97</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y63">
+        <f t="shared" si="0"/>
+        <v>97.481021394064868</v>
+      </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F64" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G64" t="s">
-        <v>292</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="H64" t="s">
+        <v>300</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J64">
-        <v>5627</v>
+        <v>1109443</v>
       </c>
       <c r="K64" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L64">
-        <v>3741</v>
+        <v>2577</v>
       </c>
       <c r="M64">
-        <v>3719</v>
+        <v>2566</v>
       </c>
       <c r="N64">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="P64">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="Q64">
-        <v>4464</v>
+        <v>2898</v>
       </c>
       <c r="R64" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="S64">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -6755,64 +6964,68 @@
       <c r="X64" t="s">
         <v>9</v>
       </c>
+      <c r="Y64">
+        <f t="shared" si="0"/>
+        <v>88.923395445134574</v>
+      </c>
     </row>
-    <row r="65" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="I65" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J65" s="1">
-        <v>152965</v>
+        <v>56493</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L65" s="1">
-        <v>2825</v>
+        <v>2856</v>
       </c>
       <c r="M65" s="1">
-        <v>2745</v>
+        <v>2800</v>
       </c>
       <c r="N65" s="1">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O65" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P65" s="1">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="1">
         <v>2898</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S65" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -6829,64 +7042,68 @@
       <c r="X65" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y65">
+        <f t="shared" ref="Y65:Y82" si="1">L65*100/Q65</f>
+        <v>98.550724637681157</v>
+      </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>304</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="H66" t="s">
+        <v>310</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J66">
-        <v>1109443</v>
+        <v>1314777</v>
       </c>
       <c r="K66" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L66">
-        <v>2577</v>
+        <v>2788</v>
       </c>
       <c r="M66">
-        <v>2566</v>
+        <v>2773</v>
       </c>
       <c r="N66">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O66">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="P66">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="Q66">
         <v>2898</v>
       </c>
       <c r="R66" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S66">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6903,138 +7120,146 @@
       <c r="X66" t="s">
         <v>9</v>
       </c>
+      <c r="Y66">
+        <f t="shared" si="1"/>
+        <v>96.204278812974465</v>
+      </c>
     </row>
-    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I67" s="1">
-        <v>10</v>
-      </c>
-      <c r="J67" s="1">
-        <v>56493</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L67" s="1">
-        <v>2856</v>
-      </c>
-      <c r="M67" s="1">
-        <v>2800</v>
-      </c>
-      <c r="N67" s="1">
-        <v>56</v>
-      </c>
-      <c r="O67" s="1">
+      <c r="C67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s">
+        <v>313</v>
+      </c>
+      <c r="E67" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" t="s">
+        <v>315</v>
+      </c>
+      <c r="G67" t="s">
+        <v>316</v>
+      </c>
+      <c r="H67" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>1330018</v>
+      </c>
+      <c r="K67" t="s">
+        <v>318</v>
+      </c>
+      <c r="L67">
+        <v>1728</v>
+      </c>
+      <c r="M67">
+        <v>1703</v>
+      </c>
+      <c r="N67">
+        <v>25</v>
+      </c>
+      <c r="O67">
+        <v>19</v>
+      </c>
+      <c r="P67">
+        <v>17</v>
+      </c>
+      <c r="Q67">
+        <v>1764</v>
+      </c>
+      <c r="R67" t="s">
+        <v>319</v>
+      </c>
+      <c r="S67">
+        <v>99</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
         <v>9</v>
       </c>
-      <c r="P67" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>2898</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="S67" s="1">
-        <v>98</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="1">
-        <v>0</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>9</v>
+      <c r="Y67">
+        <f t="shared" si="1"/>
+        <v>97.959183673469383</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>323</v>
       </c>
       <c r="G68" t="s">
-        <v>314</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="H68" t="s">
+        <v>325</v>
       </c>
       <c r="I68">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>1314777</v>
+        <v>215250</v>
       </c>
       <c r="K68" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L68">
-        <v>2788</v>
+        <v>1690</v>
       </c>
       <c r="M68">
-        <v>2773</v>
+        <v>1687</v>
       </c>
       <c r="N68">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P68">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Q68">
-        <v>2898</v>
+        <v>1764</v>
       </c>
       <c r="R68" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="S68">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -7051,64 +7276,68 @@
       <c r="X68" t="s">
         <v>9</v>
       </c>
+      <c r="Y68">
+        <f t="shared" si="1"/>
+        <v>95.804988662131521</v>
+      </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
+      </c>
+      <c r="H69" t="s">
+        <v>330</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J69">
-        <v>1330018</v>
+        <v>43049</v>
       </c>
       <c r="K69" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L69">
-        <v>1728</v>
+        <v>1680</v>
       </c>
       <c r="M69">
-        <v>1703</v>
+        <v>1671</v>
       </c>
       <c r="N69">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P69">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q69">
         <v>1764</v>
       </c>
       <c r="R69" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S69">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -7125,64 +7354,68 @@
       <c r="X69" t="s">
         <v>9</v>
       </c>
+      <c r="Y69">
+        <f t="shared" si="1"/>
+        <v>95.238095238095241</v>
+      </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F70" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G70" t="s">
-        <v>329</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="H70" t="s">
+        <v>336</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J70">
-        <v>215250</v>
+        <v>418459</v>
       </c>
       <c r="K70" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L70">
-        <v>1690</v>
+        <v>1620</v>
       </c>
       <c r="M70">
-        <v>1687</v>
+        <v>1464</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="O70">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P70">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="Q70">
         <v>1764</v>
       </c>
       <c r="R70" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S70">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -7199,64 +7432,68 @@
       <c r="X70" t="s">
         <v>9</v>
       </c>
+      <c r="Y70">
+        <f t="shared" si="1"/>
+        <v>91.836734693877546</v>
+      </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F71" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G71" t="s">
-        <v>334</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="H71" t="s">
+        <v>343</v>
       </c>
       <c r="I71">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>43049</v>
+        <v>237631</v>
       </c>
       <c r="K71" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L71">
-        <v>1680</v>
+        <v>1754</v>
       </c>
       <c r="M71">
-        <v>1671</v>
+        <v>1752</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="Q71">
         <v>1764</v>
       </c>
       <c r="R71" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S71">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -7273,67 +7510,71 @@
       <c r="X71" t="s">
         <v>9</v>
       </c>
+      <c r="Y71">
+        <f t="shared" si="1"/>
+        <v>99.43310657596372</v>
+      </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E72" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G72" t="s">
-        <v>340</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
+      </c>
+      <c r="H72" t="s">
+        <v>350</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>418459</v>
+        <v>671144</v>
       </c>
       <c r="K72" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L72">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="M72">
-        <v>1464</v>
+        <v>1591</v>
       </c>
       <c r="N72">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P72">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q72">
         <v>1764</v>
       </c>
       <c r="R72" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S72">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -7345,143 +7586,151 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="1"/>
+        <v>90.589569160997726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I73" s="2">
+        <v>12</v>
+      </c>
+      <c r="J73" s="2">
+        <v>684364</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L73" s="2">
+        <v>680</v>
+      </c>
+      <c r="M73" s="2">
+        <v>666</v>
+      </c>
+      <c r="N73" s="2">
+        <v>14</v>
+      </c>
+      <c r="O73" s="2">
+        <v>17</v>
+      </c>
+      <c r="P73" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>758</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="S73" s="2">
+        <v>91</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Y73">
+        <f t="shared" si="1"/>
+        <v>89.709762532981529</v>
+      </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>343</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" t="s">
-        <v>344</v>
-      </c>
-      <c r="E73" t="s">
-        <v>345</v>
-      </c>
-      <c r="F73" t="s">
-        <v>346</v>
-      </c>
-      <c r="G73" t="s">
-        <v>347</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>237631</v>
-      </c>
-      <c r="K73" t="s">
-        <v>349</v>
-      </c>
-      <c r="L73">
-        <v>1754</v>
-      </c>
-      <c r="M73">
-        <v>1752</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-      <c r="O73">
-        <v>4</v>
-      </c>
-      <c r="P73">
-        <v>6</v>
-      </c>
-      <c r="Q73">
-        <v>1764</v>
-      </c>
-      <c r="R73" t="s">
-        <v>324</v>
-      </c>
-      <c r="S73">
-        <v>99</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E74" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F74" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
-        <v>354</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
+      </c>
+      <c r="H74" t="s">
+        <v>364</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>671144</v>
+        <v>645134</v>
       </c>
       <c r="K74" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L74">
-        <v>1598</v>
+        <v>725</v>
       </c>
       <c r="M74">
-        <v>1591</v>
+        <v>697</v>
       </c>
       <c r="N74">
+        <v>28</v>
+      </c>
+      <c r="O74">
         <v>7</v>
       </c>
-      <c r="O74">
-        <v>28</v>
-      </c>
       <c r="P74">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="Q74">
-        <v>1764</v>
+        <v>758</v>
       </c>
       <c r="R74" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="S74">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T74">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -7493,140 +7742,148 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="1"/>
+        <v>95.646437994722959</v>
       </c>
     </row>
-    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I75" s="2">
-        <v>12</v>
-      </c>
-      <c r="J75" s="2">
-        <v>684364</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L75" s="2">
-        <v>680</v>
-      </c>
-      <c r="M75" s="2">
-        <v>666</v>
-      </c>
-      <c r="N75" s="2">
-        <v>14</v>
-      </c>
-      <c r="O75" s="2">
-        <v>17</v>
-      </c>
-      <c r="P75" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>758</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="S75" s="2">
-        <v>91</v>
-      </c>
-      <c r="T75" s="2">
-        <v>0</v>
-      </c>
-      <c r="U75" s="2">
-        <v>0</v>
-      </c>
-      <c r="V75" s="2">
-        <v>0</v>
-      </c>
-      <c r="W75" s="2">
-        <v>0</v>
-      </c>
-      <c r="X75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75" t="s">
+        <v>369</v>
+      </c>
+      <c r="H75" t="s">
+        <v>370</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>40302</v>
+      </c>
+      <c r="K75" t="s">
+        <v>371</v>
+      </c>
+      <c r="L75">
+        <v>583</v>
+      </c>
+      <c r="M75">
+        <v>582</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>6</v>
+      </c>
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="Q75">
+        <v>600</v>
+      </c>
+      <c r="R75" t="s">
+        <v>372</v>
+      </c>
+      <c r="S75">
+        <v>98</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
         <v>9</v>
       </c>
+      <c r="Y75">
+        <f t="shared" si="1"/>
+        <v>97.166666666666671</v>
+      </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D76" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E76" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G76" t="s">
-        <v>368</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>369</v>
+        <v>380</v>
+      </c>
+      <c r="H76" t="s">
+        <v>381</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J76">
-        <v>645134</v>
+        <v>4874</v>
       </c>
       <c r="K76" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="L76">
-        <v>725</v>
+        <v>1493</v>
       </c>
       <c r="M76">
-        <v>697</v>
+        <v>1252</v>
       </c>
       <c r="N76">
+        <v>241</v>
+      </c>
+      <c r="O76">
         <v>28</v>
       </c>
-      <c r="O76">
-        <v>7</v>
-      </c>
       <c r="P76">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="Q76">
-        <v>758</v>
+        <v>1614</v>
       </c>
       <c r="R76" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="S76">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -7643,64 +7900,68 @@
       <c r="X76" t="s">
         <v>9</v>
       </c>
+      <c r="Y76">
+        <f t="shared" si="1"/>
+        <v>92.503097893432468</v>
+      </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F77" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="G77" t="s">
-        <v>374</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>375</v>
+        <v>386</v>
+      </c>
+      <c r="H77" t="s">
+        <v>387</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>40302</v>
+        <v>588596</v>
       </c>
       <c r="K77" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="L77">
-        <v>583</v>
+        <v>1555</v>
       </c>
       <c r="M77">
-        <v>582</v>
+        <v>1544</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q77">
-        <v>600</v>
+        <v>1614</v>
       </c>
       <c r="R77" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="S77">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -7717,212 +7978,224 @@
       <c r="X77" t="s">
         <v>9</v>
       </c>
+      <c r="Y77">
+        <f t="shared" si="1"/>
+        <v>96.344485749690207</v>
+      </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>380</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
-        <v>381</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>64522</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1423</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1404</v>
+      </c>
+      <c r="N78" s="1">
+        <v>19</v>
+      </c>
+      <c r="O78" s="1">
+        <v>61</v>
+      </c>
+      <c r="P78" s="1">
+        <v>130</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1614</v>
+      </c>
+      <c r="R78" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E78" t="s">
-        <v>383</v>
-      </c>
-      <c r="F78" t="s">
-        <v>384</v>
-      </c>
-      <c r="G78" t="s">
-        <v>385</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I78">
+      <c r="S78" s="1">
+        <v>91</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="1"/>
+        <v>88.166047087980175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" s="2">
+        <v>32</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1314790</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L79" s="2">
+        <v>738</v>
+      </c>
+      <c r="M79" s="2">
+        <v>528</v>
+      </c>
+      <c r="N79" s="2">
+        <v>210</v>
+      </c>
+      <c r="O79" s="2">
+        <v>7</v>
+      </c>
+      <c r="P79" s="2">
         <v>13</v>
       </c>
-      <c r="J78">
-        <v>4874</v>
-      </c>
-      <c r="K78" t="s">
-        <v>386</v>
-      </c>
-      <c r="L78">
-        <v>1493</v>
-      </c>
-      <c r="M78">
-        <v>1252</v>
-      </c>
-      <c r="N78">
-        <v>241</v>
-      </c>
-      <c r="O78">
-        <v>28</v>
-      </c>
-      <c r="P78">
-        <v>93</v>
-      </c>
-      <c r="Q78">
-        <v>1614</v>
-      </c>
-      <c r="R78" t="s">
-        <v>387</v>
-      </c>
-      <c r="S78">
-        <v>94</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78" t="s">
+      <c r="Q79" s="2">
+        <v>758</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="S79" s="2">
+        <v>98</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+      <c r="X79" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Y79">
+        <f t="shared" si="1"/>
+        <v>97.361477572559366</v>
+      </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>388</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>381</v>
-      </c>
-      <c r="D79" t="s">
-        <v>382</v>
-      </c>
-      <c r="E79" t="s">
-        <v>389</v>
-      </c>
-      <c r="F79" t="s">
-        <v>390</v>
-      </c>
-      <c r="G79" t="s">
-        <v>391</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>588596</v>
-      </c>
-      <c r="K79" t="s">
-        <v>392</v>
-      </c>
-      <c r="L79">
-        <v>1555</v>
-      </c>
-      <c r="M79">
-        <v>1544</v>
-      </c>
-      <c r="N79">
-        <v>11</v>
-      </c>
-      <c r="O79">
-        <v>25</v>
-      </c>
-      <c r="P79">
-        <v>34</v>
-      </c>
-      <c r="Q79">
-        <v>1614</v>
-      </c>
-      <c r="R79" t="s">
-        <v>387</v>
-      </c>
-      <c r="S79">
-        <v>97</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>398</v>
+        <v>406</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="I80" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1">
-        <v>64522</v>
+        <v>215637</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L80" s="1">
-        <v>1423</v>
+        <v>607</v>
       </c>
       <c r="M80" s="1">
-        <v>1404</v>
+        <v>605</v>
       </c>
       <c r="N80" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O80" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P80" s="1">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="Q80" s="1">
-        <v>1614</v>
+        <v>758</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="S80" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
@@ -7939,64 +8212,68 @@
       <c r="X80" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y80">
+        <f t="shared" si="1"/>
+        <v>80.079155672823219</v>
+      </c>
     </row>
-    <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="I81" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J81" s="2">
-        <v>1314790</v>
+        <v>796925</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L81" s="2">
-        <v>738</v>
+        <v>605</v>
       </c>
       <c r="M81" s="2">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="N81" s="2">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="O81" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="P81" s="2">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="Q81" s="2">
         <v>758</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="S81" s="2">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="T81" s="2">
         <v>0</v>
@@ -8013,306 +8290,102 @@
       <c r="X81" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Y81">
+        <f t="shared" si="1"/>
+        <v>79.815303430079155</v>
+      </c>
     </row>
-    <row r="82" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I82" s="1">
+      <c r="C82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" s="2">
+        <v>8</v>
+      </c>
+      <c r="J82" s="2">
+        <v>763665</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L82" s="2">
+        <v>661</v>
+      </c>
+      <c r="M82" s="2">
+        <v>655</v>
+      </c>
+      <c r="N82" s="2">
         <v>6</v>
       </c>
-      <c r="J82" s="1">
-        <v>215637</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L82" s="1">
-        <v>607</v>
-      </c>
-      <c r="M82" s="1">
-        <v>605</v>
-      </c>
-      <c r="N82" s="1">
-        <v>2</v>
-      </c>
-      <c r="O82" s="1">
-        <v>55</v>
-      </c>
-      <c r="P82" s="1">
-        <v>96</v>
-      </c>
-      <c r="Q82" s="1">
+      <c r="O82" s="2">
+        <v>30</v>
+      </c>
+      <c r="P82" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q82" s="2">
         <v>758</v>
       </c>
-      <c r="R82" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="S82" s="1">
-        <v>87</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0</v>
-      </c>
-      <c r="U82" s="1">
-        <v>0</v>
-      </c>
-      <c r="V82" s="1">
-        <v>0</v>
-      </c>
-      <c r="W82" s="1">
-        <v>0</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I83" s="2">
-        <v>48</v>
-      </c>
-      <c r="J83" s="2">
-        <v>796925</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L83" s="2">
-        <v>605</v>
-      </c>
-      <c r="M83" s="2">
-        <v>595</v>
-      </c>
-      <c r="N83" s="2">
-        <v>10</v>
-      </c>
-      <c r="O83" s="2">
-        <v>36</v>
-      </c>
-      <c r="P83" s="2">
-        <v>117</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>758</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="S83" s="2">
-        <v>84</v>
-      </c>
-      <c r="T83" s="2">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2">
-        <v>0</v>
-      </c>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-      <c r="W83" s="2">
-        <v>0</v>
-      </c>
-      <c r="X83" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="I84" s="2">
-        <v>8</v>
-      </c>
-      <c r="J84" s="2">
-        <v>763665</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="L84" s="2">
-        <v>661</v>
-      </c>
-      <c r="M84" s="2">
-        <v>655</v>
-      </c>
-      <c r="N84" s="2">
-        <v>6</v>
-      </c>
-      <c r="O84" s="2">
-        <v>30</v>
-      </c>
-      <c r="P84" s="2">
-        <v>67</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>758</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="S84" s="2">
+      <c r="R82" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="S82" s="2">
         <v>91</v>
       </c>
-      <c r="T84" s="2">
+      <c r="T82" s="2">
         <v>83</v>
       </c>
-      <c r="U84" s="2">
-        <v>0</v>
-      </c>
-      <c r="V84" s="2">
-        <v>0</v>
-      </c>
-      <c r="W84" s="2">
-        <v>0</v>
-      </c>
-      <c r="X84" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="I85" s="2">
-        <v>30</v>
-      </c>
-      <c r="J85" s="2">
-        <v>78915</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="L85" s="2">
-        <v>555</v>
-      </c>
-      <c r="M85" s="2">
-        <v>543</v>
-      </c>
-      <c r="N85" s="2">
-        <v>12</v>
-      </c>
-      <c r="O85" s="2">
-        <v>61</v>
-      </c>
-      <c r="P85" s="2">
-        <v>142</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>758</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="S85" s="2">
-        <v>81</v>
-      </c>
-      <c r="T85" s="2">
-        <v>0</v>
-      </c>
-      <c r="U85" s="2">
-        <v>0</v>
-      </c>
-      <c r="V85" s="2">
-        <v>0</v>
-      </c>
-      <c r="W85" s="2">
-        <v>0</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>9</v>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="1"/>
+        <v>87.203166226912927</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8324,7 +8397,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8334,9 +8409,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8348,7 +8421,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8358,9 +8433,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8372,7 +8445,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8382,9 +8457,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8396,7 +8469,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8406,9 +8481,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8420,7 +8493,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8430,19 +8505,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8455,8 +8518,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8466,7 +8529,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8479,8 +8542,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8490,31 +8553,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8527,8 +8566,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8538,7 +8577,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8551,8 +8590,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8564,7 +8613,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8574,19 +8625,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8599,8 +8638,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8610,7 +8649,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8623,8 +8662,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8636,7 +8685,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8646,9 +8697,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8660,7 +8709,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8670,9 +8721,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8684,7 +8733,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8694,9 +8745,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8708,7 +8757,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8718,9 +8769,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8732,7 +8781,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8743,7 +8794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -8755,8 +8806,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8767,8 +8818,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8779,7 +8830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E7">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -8791,7 +8842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E8">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -8803,7 +8854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E9">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -8815,7 +8866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E10">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -8827,7 +8878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -8839,7 +8890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E12">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -8851,7 +8902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E13">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -8863,7 +8914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E14">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -8875,7 +8926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E15">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -8887,7 +8938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="E16">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -8899,7 +8950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E17">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -8911,7 +8962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E18">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -8923,7 +8974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="E22">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -8935,7 +8986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -8947,8 +8998,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8959,8 +9010,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8971,8 +9022,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8983,8 +9034,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8995,8 +9046,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9007,8 +9058,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9019,8 +9070,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9031,8 +9082,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9043,8 +9094,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9055,8 +9106,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9067,8 +9118,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9079,7 +9130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E35">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -9091,7 +9142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E38">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -9103,8 +9154,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9115,8 +9166,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="E40">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9127,8 +9178,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9139,8 +9190,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9151,8 +9202,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9163,8 +9214,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9175,8 +9226,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9188,7 +9239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9200,7 +9251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9212,7 +9263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9224,7 +9275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9236,7 +9287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9248,7 +9299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9259,8 +9310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="E62">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9271,8 +9322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9284,7 +9335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9296,7 +9347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9308,7 +9359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9320,7 +9371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9332,7 +9383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9344,7 +9395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9356,7 +9407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9368,7 +9419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9380,7 +9431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9392,7 +9443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9404,7 +9455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9416,7 +9467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9428,7 +9479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9440,7 +9491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9452,7 +9503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9464,7 +9515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9476,7 +9527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9488,7 +9539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9500,7 +9551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9511,8 +9562,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="S1">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9523,8 +9574,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="S38:S41 S1:S18 S22:S35 S46:S47 S50:S57 S62:S1048576">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9535,32 +9586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S18 S39:S40 S22:S36 S42:S43 S48:S49 S52:S59 S64:S1048576">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="Y1:Y1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9652,7 +9679,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C147BD63-EFB3-9B40-A344-A25D03C738FD}">
@@ -9665,20 +9692,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{508D85FD-4E84-5545-B8D1-FFB1CF0FC99A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D0B7245-0B8D-BA40-8C29-EE61040D8C44}">
@@ -9691,7 +9705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E780FC65-5DE2-7F4E-BB60-2923D346A04F}">
@@ -9704,7 +9718,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F582B145-B262-0A41-9F89-BDDDD53F8968}">
@@ -9717,7 +9731,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17F1C07D-752D-034B-A2C9-209CA3D12F4F}">
@@ -9730,7 +9744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95358A7B-F4A0-F44F-BB61-4B2A3D6A7128}">
@@ -9743,7 +9757,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{76C760AD-0068-F04A-B0B4-E05CEB38C62C}">
@@ -9756,7 +9770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6698E25B-5E14-5F4A-A3C3-D9034A09BFE6}">
@@ -9769,7 +9783,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6AB55D6-261A-1048-9A59-EEA32FC4F4B5}">
@@ -9782,7 +9796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A0E8C6D-840B-7640-9ABC-8DB308C46CAE}">
@@ -9795,7 +9809,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D706A04B-82F8-5442-9A73-C6D1BCC96967}">
@@ -9808,7 +9822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
